--- a/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
+++ b/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>Obligation (dollars in thousands)</t>
   </si>
@@ -327,6 +327,18 @@
   </si>
   <si>
     <t>SBIR Pct of Potential</t>
+  </si>
+  <si>
+    <t>Set-aside</t>
+  </si>
+  <si>
+    <t>SBIR Potential Pct of Industry Ideal</t>
+  </si>
+  <si>
+    <t>SBIR Potential as Pct of Industry Ideal</t>
+  </si>
+  <si>
+    <t>Actual SBIR Pct of Industry</t>
   </si>
 </sst>
 </file>
@@ -433,8 +445,6 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -447,6 +457,8 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -511,11 +523,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SBIR Pct of Industry</c:v>
+                  <c:v>Actual SBIR Pct of Industry</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Chart!$A$2:$A$27</c:f>
@@ -692,19 +707,212 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set-aside</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Chart!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Chart!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171792640"/>
-        <c:axId val="161184768"/>
+        <c:axId val="159665152"/>
+        <c:axId val="159671040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171792640"/>
+        <c:axId val="159665152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -716,13 +924,13 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161184768"/>
+        <c:crossAx val="159671040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161184768"/>
+        <c:axId val="159671040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171792640"/>
+        <c:crossAx val="159665152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -804,7 +1012,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$S$1</c:f>
+              <c:f>Chart!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -815,7 +1023,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Chart!$R$2:$R$27</c:f>
+              <c:f>Chart!$S$2:$S$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -902,7 +1110,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Chart!$S$2:$S$27</c:f>
+              <c:f>Chart!$T$2:$T$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
@@ -997,11 +1205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178043136"/>
-        <c:axId val="171819776"/>
+        <c:axId val="159699328"/>
+        <c:axId val="159700864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178043136"/>
+        <c:axId val="159699328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -1013,12 +1221,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171819776"/>
+        <c:crossAx val="159700864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171819776"/>
+        <c:axId val="159700864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178043136"/>
+        <c:crossAx val="159699328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1051,20 +1259,764 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Targets for Small</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Business R&amp;D Funding</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$AM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual SBIR Pct of Industry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Chart!$AL$2:$AL$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Chart!$AM$2:$AM$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.5687027579162412E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8284217618070749E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7092164008498965E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3096859591647638E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3564254028087435E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8593270957563973E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0167446944406033E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5233025560722234E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5297669273030692E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4372024061413653E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9052028113747105E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8837151650157416E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0877259972808007E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4030667534924864E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4765475208358566E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1536939381475367E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0072430526595142E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7588499213079329E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7889508960268097E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1054109277875501E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5241337110587443E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4343699260644381E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7907077296420941E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2656195131108195E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5385307495546069E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4417976133047585E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$AN$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SBIR Potential as Pct of Industry Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Chart!$AL$2:$AL$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Chart!$AN$2:$AN$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>4.5346288932896141E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.221862614201879E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8527854451927276E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5700764877829623E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1988122820615633E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2662367756665481E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4276464979243265E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9313486905973788E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5433980174787908E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2905487302346657E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1174960330668553</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13157754429262633</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12645530295920784</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1225168202707379</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12643900059712318</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10968641899381416</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.8048230088917832E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8303613220131097E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0560523572040891E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12329445793584255</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13953621098603594</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.2789552446865001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.5652985219278763E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0822554345615064E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9265533835264139E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.8456951293445982E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$AO$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set-aside</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Chart!$AL$2:$AL$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Chart!$AO$2:$AO$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="164856192"/>
+        <c:axId val="164854400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="164856192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2015"/>
+          <c:min val="1990"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164854400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="164854400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164856192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1085,16 +2037,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1108,6 +2060,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1403,10 +2385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J2" sqref="J2:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,47 +2401,51 @@
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1990</v>
       </c>
@@ -1483,15 +2469,19 @@
         <v>1.5687027579162412E-2</v>
       </c>
       <c r="H3" s="1">
-        <f>(D3/0.15)+(E3/0.5)</f>
+        <f>($D3/0.15)+($E3/0.5)</f>
         <v>1472382</v>
       </c>
       <c r="I3" s="2">
         <f>B3/H3</f>
         <v>0.31291336079903176</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2">
+        <f>(($D3/0.15)+($E3/0.5))/(($D3/0.15)+($E3/0.5)+(($F3-(($D3/0.15)+($E3/0.5)))/0.9))</f>
+        <v>4.5346288932896141E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1991</v>
       </c>
@@ -1522,8 +2512,12 @@
         <f t="shared" ref="I4:I28" si="2">B4/H4</f>
         <v>0.31696110663001692</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J28" si="3">(($D4/0.15)+($E4/0.5))/(($D4/0.15)+($E4/0.5)+(($F4-(($D4/0.15)+($E4/0.5)))/0.9))</f>
+        <v>5.221862614201879E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1992</v>
       </c>
@@ -1554,8 +2548,12 @@
         <f t="shared" si="2"/>
         <v>0.31870133940698325</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <f t="shared" si="3"/>
+        <v>4.8527854451927276E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1993</v>
       </c>
@@ -1586,8 +2584,12 @@
         <f t="shared" si="2"/>
         <v>0.31870133940698325</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="12">
+        <f t="shared" si="3"/>
+        <v>6.5700764877829623E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1994</v>
       </c>
@@ -1618,8 +2620,12 @@
         <f t="shared" si="2"/>
         <v>0.29695819850537519</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1988122820615633E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1995</v>
       </c>
@@ -1650,8 +2656,12 @@
         <f t="shared" si="2"/>
         <v>0.31417322434052192</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>8.2662367756665481E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1996</v>
       </c>
@@ -1682,8 +2692,12 @@
         <f t="shared" si="2"/>
         <v>0.32517907384116584</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4276464979243265E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1997</v>
       </c>
@@ -1714,8 +2728,12 @@
         <f t="shared" si="2"/>
         <v>0.32281249471455076</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9313486905973788E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1998</v>
       </c>
@@ -1746,8 +2764,12 @@
         <f t="shared" si="2"/>
         <v>0.33640808016064533</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>9.5433980174787908E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1999</v>
       </c>
@@ -1778,8 +2800,12 @@
         <f t="shared" si="2"/>
         <v>0.33640808016064533</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="12">
+        <f t="shared" si="3"/>
+        <v>9.2905487302346657E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -1810,8 +2836,12 @@
         <f t="shared" si="2"/>
         <v>0.30303721931421135</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1174960330668553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -1842,8 +2872,12 @@
         <f t="shared" si="2"/>
         <v>0.33893339454943977</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13157754429262633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -1874,8 +2908,12 @@
         <f t="shared" si="2"/>
         <v>0.29501687736228793</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12645530295920784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2003</v>
       </c>
@@ -1906,8 +2944,12 @@
         <f t="shared" si="2"/>
         <v>0.32784927351810844</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1225168202707379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -1938,8 +2980,12 @@
         <f t="shared" si="2"/>
         <v>0.32311974698661361</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12643900059712318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -1970,8 +3016,12 @@
         <f t="shared" si="2"/>
         <v>0.34497296569717978</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10968641899381416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -2002,8 +3052,12 @@
         <f t="shared" si="2"/>
         <v>0.37183833435567315</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2">
+        <f t="shared" si="3"/>
+        <v>9.8048230088917832E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -2034,8 +3088,12 @@
         <f t="shared" si="2"/>
         <v>0.38686490932385847</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2">
+        <f t="shared" si="3"/>
+        <v>8.8303613220131097E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -2066,8 +3124,12 @@
         <f t="shared" si="2"/>
         <v>0.38033887264106064</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2">
+        <f t="shared" si="3"/>
+        <v>9.0560523572040891E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -2098,8 +3160,12 @@
         <f t="shared" si="2"/>
         <v>0.3777798937824654</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12329445793584255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -2130,8 +3196,12 @@
         <f t="shared" si="2"/>
         <v>0.3618273688942481</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13953621098603594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -2162,8 +3232,12 @@
         <f t="shared" si="2"/>
         <v>0.43454022001553017</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="2">
+        <f t="shared" si="3"/>
+        <v>9.2789552446865001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -2194,8 +3268,12 @@
         <f t="shared" si="2"/>
         <v>0.40209987908471057</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5652985219278763E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>2013</v>
       </c>
@@ -2226,8 +3304,12 @@
         <f t="shared" si="2"/>
         <v>0.42696431913244037</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="12">
+        <f t="shared" si="3"/>
+        <v>9.0822554345615064E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>2014</v>
       </c>
@@ -2258,8 +3340,12 @@
         <f t="shared" si="2"/>
         <v>0.41602855319559939</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="12">
+        <f t="shared" si="3"/>
+        <v>9.9265533835264139E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>2015</v>
       </c>
@@ -2289,6 +3375,10 @@
       <c r="I28" s="12">
         <f t="shared" si="2"/>
         <v>0.45636985906238581</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="3"/>
+        <v>8.8456951293445982E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2303,395 +3393,829 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.28515625" style="6" customWidth="1"/>
+    <col min="39" max="39" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="34.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="R1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="14" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1990</v>
       </c>
       <c r="B2" s="7">
         <v>1.5687027579162412E-2</v>
       </c>
-      <c r="R2">
+      <c r="C2" s="7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="S2">
         <v>1990</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>0.31291336079903176</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL2" s="6">
+        <v>1990</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>1.5687027579162412E-2</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>4.5346288932896141E-2</v>
+      </c>
+      <c r="AO2" s="7">
+        <f>C2</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1991</v>
       </c>
       <c r="B3" s="7">
         <v>1.8284217618070749E-2</v>
       </c>
-      <c r="R3">
+      <c r="C3" s="7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="S3">
         <v>1991</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>0.31696110663001692</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL3" s="6">
+        <v>1991</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>1.8284217618070749E-2</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>5.221862614201879E-2</v>
+      </c>
+      <c r="AO3" s="7">
+        <f t="shared" ref="AO3:AO27" si="0">C3</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1992</v>
       </c>
       <c r="B4" s="7">
         <v>1.7092164008498965E-2</v>
       </c>
-      <c r="R4">
+      <c r="C4" s="7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="S4">
         <v>1992</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>0.31870133940698325</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="AL4" s="6">
+        <v>1992</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>1.7092164008498965E-2</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>4.8527854451927276E-2</v>
+      </c>
+      <c r="AO4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>1993</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>2.3096859591647638E-2</v>
       </c>
-      <c r="R5" s="8">
+      <c r="C5" s="16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S5" s="8">
         <v>1993</v>
       </c>
-      <c r="S5" s="12">
+      <c r="T5" s="12">
         <v>0.31870133940698325</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL5" s="15">
+        <v>1993</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>2.3096859591647638E-2</v>
+      </c>
+      <c r="AN5" s="16">
+        <v>6.5700764877829623E-2</v>
+      </c>
+      <c r="AO5" s="16">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1994</v>
       </c>
       <c r="B6" s="7">
         <v>2.3564254028087435E-2</v>
       </c>
-      <c r="R6">
+      <c r="C6" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S6">
         <v>1994</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>0.29695819850537519</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL6" s="6">
+        <v>1994</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>2.3564254028087435E-2</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>7.1988122820615633E-2</v>
+      </c>
+      <c r="AO6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1995</v>
       </c>
       <c r="B7" s="7">
         <v>2.8593270957563973E-2</v>
       </c>
-      <c r="R7">
+      <c r="C7" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S7">
         <v>1995</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>0.31417322434052192</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL7" s="6">
+        <v>1995</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>2.8593270957563973E-2</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>8.2662367756665481E-2</v>
+      </c>
+      <c r="AO7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1996</v>
       </c>
       <c r="B8" s="7">
         <v>3.0167446944406033E-2</v>
       </c>
-      <c r="R8">
+      <c r="C8" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S8">
         <v>1996</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>0.32517907384116584</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL8" s="6">
+        <v>1996</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>3.0167446944406033E-2</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>8.4276464979243265E-2</v>
+      </c>
+      <c r="AO8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1997</v>
       </c>
       <c r="B9" s="7">
         <v>3.5233025560722234E-2</v>
       </c>
-      <c r="R9">
+      <c r="C9" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S9">
         <v>1997</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>0.32281249471455076</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL9" s="6">
+        <v>1997</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>3.5233025560722234E-2</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>9.9313486905973788E-2</v>
+      </c>
+      <c r="AO9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1998</v>
       </c>
       <c r="B10" s="7">
         <v>3.5297669273030692E-2</v>
       </c>
-      <c r="R10">
+      <c r="C10" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S10">
         <v>1998</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>0.33640808016064533</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="AL10" s="6">
+        <v>1998</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>3.5297669273030692E-2</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>9.5433980174787908E-2</v>
+      </c>
+      <c r="AO10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>1999</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="16">
         <v>3.4372024061413653E-2</v>
       </c>
-      <c r="R11" s="8">
+      <c r="C11" s="16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S11" s="8">
         <v>1999</v>
       </c>
-      <c r="S11" s="12">
+      <c r="T11" s="12">
         <v>0.33640808016064533</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL11" s="15">
+        <v>1999</v>
+      </c>
+      <c r="AM11" s="16">
+        <v>3.4372024061413653E-2</v>
+      </c>
+      <c r="AN11" s="16">
+        <v>9.2905487302346657E-2</v>
+      </c>
+      <c r="AO11" s="16">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2000</v>
       </c>
       <c r="B12" s="7">
         <v>3.9052028113747105E-2</v>
       </c>
-      <c r="R12">
+      <c r="C12" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S12">
         <v>2000</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="2">
         <v>0.30303721931421135</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL12" s="6">
+        <v>2000</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>3.9052028113747105E-2</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>0.1174960330668553</v>
+      </c>
+      <c r="AO12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2001</v>
       </c>
       <c r="B13" s="7">
         <v>4.8837151650157416E-2</v>
       </c>
-      <c r="R13">
+      <c r="C13" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S13">
         <v>2001</v>
       </c>
-      <c r="S13" s="2">
+      <c r="T13" s="2">
         <v>0.33893339454943977</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL13" s="6">
+        <v>2001</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>4.8837151650157416E-2</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>0.13157754429262633</v>
+      </c>
+      <c r="AO13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2002</v>
       </c>
       <c r="B14" s="7">
         <v>4.0877259972808007E-2</v>
       </c>
-      <c r="R14">
+      <c r="C14" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S14">
         <v>2002</v>
       </c>
-      <c r="S14" s="2">
+      <c r="T14" s="2">
         <v>0.29501687736228793</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL14" s="6">
+        <v>2002</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>4.0877259972808007E-2</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>0.12645530295920784</v>
+      </c>
+      <c r="AO14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2003</v>
       </c>
       <c r="B15" s="7">
         <v>4.4030667534924864E-2</v>
       </c>
-      <c r="R15">
+      <c r="C15" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S15">
         <v>2003</v>
       </c>
-      <c r="S15" s="2">
+      <c r="T15" s="2">
         <v>0.32784927351810844</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL15" s="6">
+        <v>2003</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>4.4030667534924864E-2</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>0.1225168202707379</v>
+      </c>
+      <c r="AO15" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2004</v>
       </c>
       <c r="B16" s="7">
         <v>4.4765475208358566E-2</v>
       </c>
-      <c r="R16">
+      <c r="C16" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S16">
         <v>2004</v>
       </c>
-      <c r="S16" s="2">
+      <c r="T16" s="2">
         <v>0.32311974698661361</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL16" s="6">
+        <v>2004</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>4.4765475208358566E-2</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>0.12643900059712318</v>
+      </c>
+      <c r="AO16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2005</v>
       </c>
       <c r="B17" s="7">
         <v>4.1536939381475367E-2</v>
       </c>
-      <c r="R17">
+      <c r="C17" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S17">
         <v>2005</v>
       </c>
-      <c r="S17" s="2">
+      <c r="T17" s="2">
         <v>0.34497296569717978</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL17" s="6">
+        <v>2005</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>4.1536939381475367E-2</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>0.10968641899381416</v>
+      </c>
+      <c r="AO17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2006</v>
       </c>
       <c r="B18" s="7">
         <v>4.0072430526595142E-2</v>
       </c>
-      <c r="R18">
+      <c r="C18" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S18">
         <v>2006</v>
       </c>
-      <c r="S18" s="2">
+      <c r="T18" s="2">
         <v>0.37183833435567315</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL18" s="6">
+        <v>2006</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>4.0072430526595142E-2</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>9.8048230088917832E-2</v>
+      </c>
+      <c r="AO18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2007</v>
       </c>
       <c r="B19" s="7">
         <v>3.7588499213079329E-2</v>
       </c>
-      <c r="R19">
+      <c r="C19" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S19">
         <v>2007</v>
       </c>
-      <c r="S19" s="2">
+      <c r="T19" s="2">
         <v>0.38686490932385847</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL19" s="6">
+        <v>2007</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>3.7588499213079329E-2</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>8.8303613220131097E-2</v>
+      </c>
+      <c r="AO19" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2008</v>
       </c>
       <c r="B20" s="7">
         <v>3.7889508960268097E-2</v>
       </c>
-      <c r="R20">
+      <c r="C20" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S20">
         <v>2008</v>
       </c>
-      <c r="S20" s="2">
+      <c r="T20" s="2">
         <v>0.38033887264106064</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL20" s="6">
+        <v>2008</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>3.7889508960268097E-2</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>9.0560523572040891E-2</v>
+      </c>
+      <c r="AO20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2009</v>
       </c>
       <c r="B21" s="7">
         <v>5.1054109277875501E-2</v>
       </c>
-      <c r="R21">
+      <c r="C21" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S21">
         <v>2009</v>
       </c>
-      <c r="S21" s="2">
+      <c r="T21" s="2">
         <v>0.3777798937824654</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL21" s="6">
+        <v>2009</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>5.1054109277875501E-2</v>
+      </c>
+      <c r="AN21" s="7">
+        <v>0.12329445793584255</v>
+      </c>
+      <c r="AO21" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2010</v>
       </c>
       <c r="B22" s="7">
         <v>5.5241337110587443E-2</v>
       </c>
-      <c r="R22">
+      <c r="C22" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S22">
         <v>2010</v>
       </c>
-      <c r="S22" s="2">
+      <c r="T22" s="2">
         <v>0.3618273688942481</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL22" s="6">
+        <v>2010</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>5.5241337110587443E-2</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>0.13953621098603594</v>
+      </c>
+      <c r="AO22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2011</v>
       </c>
       <c r="B23" s="7">
         <v>4.4343699260644381E-2</v>
       </c>
-      <c r="R23">
+      <c r="C23" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S23">
         <v>2011</v>
       </c>
-      <c r="S23" s="2">
+      <c r="T23" s="2">
         <v>0.43454022001553017</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AL23" s="6">
+        <v>2011</v>
+      </c>
+      <c r="AM23" s="7">
+        <v>4.4343699260644381E-2</v>
+      </c>
+      <c r="AN23" s="7">
+        <v>9.2789552446865001E-2</v>
+      </c>
+      <c r="AO23" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2012</v>
       </c>
       <c r="B24" s="7">
         <v>3.7907077296420941E-2</v>
       </c>
-      <c r="R24">
+      <c r="C24" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S24">
         <v>2012</v>
       </c>
-      <c r="S24" s="2">
+      <c r="T24" s="2">
         <v>0.40209987908471057</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="AL24" s="6">
+        <v>2012</v>
+      </c>
+      <c r="AM24" s="7">
+        <v>3.7907077296420941E-2</v>
+      </c>
+      <c r="AN24" s="7">
+        <v>8.5652985219278763E-2</v>
+      </c>
+      <c r="AO24" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <v>2013</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="16">
         <v>4.2656195131108195E-2</v>
       </c>
-      <c r="R25" s="8">
+      <c r="C25" s="16">
+        <v>2.7E-2</v>
+      </c>
+      <c r="S25" s="8">
         <v>2013</v>
       </c>
-      <c r="S25" s="12">
+      <c r="T25" s="12">
         <v>0.42696431913244037</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="AL25" s="15">
+        <v>2013</v>
+      </c>
+      <c r="AM25" s="16">
+        <v>4.2656195131108195E-2</v>
+      </c>
+      <c r="AN25" s="16">
+        <v>9.0822554345615064E-2</v>
+      </c>
+      <c r="AO25" s="16">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>2014</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="16">
         <v>4.5385307495546069E-2</v>
       </c>
-      <c r="R26" s="8">
+      <c r="C26" s="16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="S26" s="8">
         <v>2014</v>
       </c>
-      <c r="S26" s="12">
+      <c r="T26" s="12">
         <v>0.41602855319559939</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="AL26" s="15">
+        <v>2014</v>
+      </c>
+      <c r="AM26" s="16">
+        <v>4.5385307495546069E-2</v>
+      </c>
+      <c r="AN26" s="16">
+        <v>9.9265533835264139E-2</v>
+      </c>
+      <c r="AO26" s="16">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <v>2015</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="16">
         <v>4.4417976133047585E-2</v>
       </c>
-      <c r="R27" s="8">
+      <c r="C27" s="16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S27" s="8">
         <v>2015</v>
       </c>
-      <c r="S27" s="12">
+      <c r="T27" s="12">
         <v>0.45636985906238581</v>
+      </c>
+      <c r="AL27" s="15">
+        <v>2015</v>
+      </c>
+      <c r="AM27" s="16">
+        <v>4.4417976133047585E-2</v>
+      </c>
+      <c r="AN27" s="16">
+        <v>8.8456951293445982E-2</v>
+      </c>
+      <c r="AO27" s="16">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
+++ b/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
@@ -908,11 +908,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159665152"/>
-        <c:axId val="159671040"/>
+        <c:axId val="161129216"/>
+        <c:axId val="161130752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159665152"/>
+        <c:axId val="161129216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -924,13 +924,13 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159671040"/>
+        <c:crossAx val="161130752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159671040"/>
+        <c:axId val="161130752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,11 +941,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159665152"/>
+        <c:crossAx val="161129216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -988,11 +993,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Small Business </a:t>
+              <a:t>Utilization Efficiency</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Federally-Funded R&amp;D Percentage of Potential</a:t>
+              <a:t> of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Small Business for </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Federally-Funded R&amp;D</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1205,11 +1218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159699328"/>
-        <c:axId val="159700864"/>
+        <c:axId val="161146752"/>
+        <c:axId val="161148288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159699328"/>
+        <c:axId val="161146752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -1221,12 +1234,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159700864"/>
+        <c:crossAx val="161148288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159700864"/>
+        <c:axId val="161148288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159699328"/>
+        <c:crossAx val="161146752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1284,11 +1297,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Targets for Small</a:t>
+              <a:t>Small</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Business R&amp;D Funding</a:t>
+              <a:t> Business Participation in Federally Funded R&amp;D</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1645,82 +1658,82 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>4.5346288932896141E-2</c:v>
+                  <c:v>2.5710550768848112E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.221862614201879E-2</c:v>
+                  <c:v>2.9699625019090455E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8527854451927276E-2</c:v>
+                  <c:v>2.7554206482956603E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5700764877829623E-2</c:v>
+                  <c:v>3.7598308316348257E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1988122820615633E-2</c:v>
+                  <c:v>4.1315272184054404E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2662367756665481E-2</c:v>
+                  <c:v>4.7675063708869737E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4276464979243265E-2</c:v>
+                  <c:v>4.8642211030432578E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9313486905973788E-2</c:v>
+                  <c:v>5.7721968253696798E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5433980174787908E-2</c:v>
+                  <c:v>5.5367287017810858E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2905487302346657E-2</c:v>
+                  <c:v>5.3837167747786491E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1174960330668553</c:v>
+                  <c:v>6.8872106974220498E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13157754429262633</c:v>
+                  <c:v>7.7638872229034789E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12645530295920784</c:v>
+                  <c:v>7.4436450016466676E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1225168202707379</c:v>
+                  <c:v>7.1984599830261092E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12643900059712318</c:v>
+                  <c:v>7.4426282452373926E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10968641899381416</c:v>
+                  <c:v>6.4059783089266603E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.8048230088917832E-2</c:v>
+                  <c:v>5.6953082929089745E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8303613220131097E-2</c:v>
+                  <c:v>5.1061526123744261E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.0560523572040891E-2</c:v>
+                  <c:v>5.2421313818112741E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12329445793584255</c:v>
+                  <c:v>7.2467988337594602E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.13953621098603594</c:v>
+                  <c:v>8.2645466195862244E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.2789552446865001E-2</c:v>
+                  <c:v>5.3767095690706534E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.5652985219278763E-2</c:v>
+                  <c:v>4.9468144799758806E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.0822554345615064E-2</c:v>
+                  <c:v>5.2579371445597739E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.9265533835264139E-2</c:v>
+                  <c:v>5.7692811105290613E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.8456951293445982E-2</c:v>
+                  <c:v>5.1153822350645375E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,11 +1957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164856192"/>
-        <c:axId val="164854400"/>
+        <c:axId val="161304960"/>
+        <c:axId val="161306880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164856192"/>
+        <c:axId val="161304960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -1960,12 +1973,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164854400"/>
+        <c:crossAx val="161306880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164854400"/>
+        <c:axId val="161306880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,12 +1986,13 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164856192"/>
+        <c:crossAx val="161304960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2073,10 +2087,10 @@
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2388,7 +2402,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J28"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,8 +2491,8 @@
         <v>0.31291336079903176</v>
       </c>
       <c r="J3" s="2">
-        <f>(($D3/0.15)+($E3/0.5))/(($D3/0.15)+($E3/0.5)+(($F3-(($D3/0.15)+($E3/0.5)))/0.9))</f>
-        <v>4.5346288932896141E-2</v>
+        <f>(($D3/0.15)+($E3/0.5))/(($D3/0.15)+($E3/0.5)+(($F3-(($D3/0.15)+($E3/0.5)))/0.5))</f>
+        <v>2.5710550768848112E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2513,8 +2527,8 @@
         <v>0.31696110663001692</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J28" si="3">(($D4/0.15)+($E4/0.5))/(($D4/0.15)+($E4/0.5)+(($F4-(($D4/0.15)+($E4/0.5)))/0.9))</f>
-        <v>5.221862614201879E-2</v>
+        <f t="shared" ref="J4:J28" si="3">(($D4/0.15)+($E4/0.5))/(($D4/0.15)+($E4/0.5)+(($F4-(($D4/0.15)+($E4/0.5)))/0.5))</f>
+        <v>2.9699625019090455E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2550,7 +2564,7 @@
       </c>
       <c r="J5" s="2">
         <f t="shared" si="3"/>
-        <v>4.8527854451927276E-2</v>
+        <v>2.7554206482956603E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2586,7 +2600,7 @@
       </c>
       <c r="J6" s="12">
         <f t="shared" si="3"/>
-        <v>6.5700764877829623E-2</v>
+        <v>3.7598308316348257E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2622,7 +2636,7 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="3"/>
-        <v>7.1988122820615633E-2</v>
+        <v>4.1315272184054404E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2658,7 +2672,7 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>8.2662367756665481E-2</v>
+        <v>4.7675063708869737E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2694,7 +2708,7 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>8.4276464979243265E-2</v>
+        <v>4.8642211030432578E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2730,7 +2744,7 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>9.9313486905973788E-2</v>
+        <v>5.7721968253696798E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2766,7 +2780,7 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="3"/>
-        <v>9.5433980174787908E-2</v>
+        <v>5.5367287017810858E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2802,7 +2816,7 @@
       </c>
       <c r="J12" s="12">
         <f t="shared" si="3"/>
-        <v>9.2905487302346657E-2</v>
+        <v>5.3837167747786491E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2838,7 +2852,7 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="3"/>
-        <v>0.1174960330668553</v>
+        <v>6.8872106974220498E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,7 +2888,7 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="3"/>
-        <v>0.13157754429262633</v>
+        <v>7.7638872229034789E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2910,7 +2924,7 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="3"/>
-        <v>0.12645530295920784</v>
+        <v>7.4436450016466676E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2946,7 +2960,7 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="3"/>
-        <v>0.1225168202707379</v>
+        <v>7.1984599830261092E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2982,7 +2996,7 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
-        <v>0.12643900059712318</v>
+        <v>7.4426282452373926E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3018,7 +3032,7 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="3"/>
-        <v>0.10968641899381416</v>
+        <v>6.4059783089266603E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3054,7 +3068,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
-        <v>9.8048230088917832E-2</v>
+        <v>5.6953082929089745E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3090,7 +3104,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="3"/>
-        <v>8.8303613220131097E-2</v>
+        <v>5.1061526123744261E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3126,7 +3140,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="3"/>
-        <v>9.0560523572040891E-2</v>
+        <v>5.2421313818112741E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3162,7 +3176,7 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="3"/>
-        <v>0.12329445793584255</v>
+        <v>7.2467988337594602E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3198,7 +3212,7 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="3"/>
-        <v>0.13953621098603594</v>
+        <v>8.2645466195862244E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3234,7 +3248,7 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="3"/>
-        <v>9.2789552446865001E-2</v>
+        <v>5.3767095690706534E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3270,7 +3284,7 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="3"/>
-        <v>8.5652985219278763E-2</v>
+        <v>4.9468144799758806E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3306,7 +3320,7 @@
       </c>
       <c r="J26" s="12">
         <f t="shared" si="3"/>
-        <v>9.0822554345615064E-2</v>
+        <v>5.2579371445597739E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3342,7 +3356,7 @@
       </c>
       <c r="J27" s="12">
         <f t="shared" si="3"/>
-        <v>9.9265533835264139E-2</v>
+        <v>5.7692811105290613E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3378,7 +3392,7 @@
       </c>
       <c r="J28" s="12">
         <f t="shared" si="3"/>
-        <v>8.8456951293445982E-2</v>
+        <v>5.1153822350645375E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3395,8 +3409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,6 +3457,7 @@
         <v>1990</v>
       </c>
       <c r="B2" s="7">
+        <f>DataRaw!G3</f>
         <v>1.5687027579162412E-2</v>
       </c>
       <c r="C2" s="7">
@@ -3452,16 +3467,19 @@
         <v>1990</v>
       </c>
       <c r="T2" s="2">
+        <f>DataRaw!I3</f>
         <v>0.31291336079903176</v>
       </c>
       <c r="AL2" s="6">
         <v>1990</v>
       </c>
       <c r="AM2" s="7">
+        <f>DataRaw!G3</f>
         <v>1.5687027579162412E-2</v>
       </c>
       <c r="AN2" s="7">
-        <v>4.5346288932896141E-2</v>
+        <f>DataRaw!J3</f>
+        <v>2.5710550768848112E-2</v>
       </c>
       <c r="AO2" s="7">
         <f>C2</f>
@@ -3473,6 +3491,7 @@
         <v>1991</v>
       </c>
       <c r="B3" s="7">
+        <f>DataRaw!G4</f>
         <v>1.8284217618070749E-2</v>
       </c>
       <c r="C3" s="7">
@@ -3482,16 +3501,19 @@
         <v>1991</v>
       </c>
       <c r="T3" s="2">
+        <f>DataRaw!I4</f>
         <v>0.31696110663001692</v>
       </c>
       <c r="AL3" s="6">
         <v>1991</v>
       </c>
       <c r="AM3" s="7">
+        <f>DataRaw!G4</f>
         <v>1.8284217618070749E-2</v>
       </c>
       <c r="AN3" s="7">
-        <v>5.221862614201879E-2</v>
+        <f>DataRaw!J4</f>
+        <v>2.9699625019090455E-2</v>
       </c>
       <c r="AO3" s="7">
         <f t="shared" ref="AO3:AO27" si="0">C3</f>
@@ -3503,6 +3525,7 @@
         <v>1992</v>
       </c>
       <c r="B4" s="7">
+        <f>DataRaw!G5</f>
         <v>1.7092164008498965E-2</v>
       </c>
       <c r="C4" s="7">
@@ -3512,16 +3535,19 @@
         <v>1992</v>
       </c>
       <c r="T4" s="2">
+        <f>DataRaw!I5</f>
         <v>0.31870133940698325</v>
       </c>
       <c r="AL4" s="6">
         <v>1992</v>
       </c>
       <c r="AM4" s="7">
+        <f>DataRaw!G5</f>
         <v>1.7092164008498965E-2</v>
       </c>
       <c r="AN4" s="7">
-        <v>4.8527854451927276E-2</v>
+        <f>DataRaw!J5</f>
+        <v>2.7554206482956603E-2</v>
       </c>
       <c r="AO4" s="7">
         <f t="shared" si="0"/>
@@ -3533,6 +3559,7 @@
         <v>1993</v>
       </c>
       <c r="B5" s="16">
+        <f>DataRaw!G6</f>
         <v>2.3096859591647638E-2</v>
       </c>
       <c r="C5" s="16">
@@ -3542,16 +3569,19 @@
         <v>1993</v>
       </c>
       <c r="T5" s="12">
+        <f>DataRaw!I6</f>
         <v>0.31870133940698325</v>
       </c>
       <c r="AL5" s="15">
         <v>1993</v>
       </c>
       <c r="AM5" s="16">
+        <f>DataRaw!G6</f>
         <v>2.3096859591647638E-2</v>
       </c>
       <c r="AN5" s="16">
-        <v>6.5700764877829623E-2</v>
+        <f>DataRaw!J6</f>
+        <v>3.7598308316348257E-2</v>
       </c>
       <c r="AO5" s="16">
         <f t="shared" si="0"/>
@@ -3563,6 +3593,7 @@
         <v>1994</v>
       </c>
       <c r="B6" s="7">
+        <f>DataRaw!G7</f>
         <v>2.3564254028087435E-2</v>
       </c>
       <c r="C6" s="7">
@@ -3572,16 +3603,19 @@
         <v>1994</v>
       </c>
       <c r="T6" s="2">
+        <f>DataRaw!I7</f>
         <v>0.29695819850537519</v>
       </c>
       <c r="AL6" s="6">
         <v>1994</v>
       </c>
       <c r="AM6" s="7">
+        <f>DataRaw!G7</f>
         <v>2.3564254028087435E-2</v>
       </c>
       <c r="AN6" s="7">
-        <v>7.1988122820615633E-2</v>
+        <f>DataRaw!J7</f>
+        <v>4.1315272184054404E-2</v>
       </c>
       <c r="AO6" s="7">
         <f t="shared" si="0"/>
@@ -3593,6 +3627,7 @@
         <v>1995</v>
       </c>
       <c r="B7" s="7">
+        <f>DataRaw!G8</f>
         <v>2.8593270957563973E-2</v>
       </c>
       <c r="C7" s="7">
@@ -3602,16 +3637,19 @@
         <v>1995</v>
       </c>
       <c r="T7" s="2">
+        <f>DataRaw!I8</f>
         <v>0.31417322434052192</v>
       </c>
       <c r="AL7" s="6">
         <v>1995</v>
       </c>
       <c r="AM7" s="7">
+        <f>DataRaw!G8</f>
         <v>2.8593270957563973E-2</v>
       </c>
       <c r="AN7" s="7">
-        <v>8.2662367756665481E-2</v>
+        <f>DataRaw!J8</f>
+        <v>4.7675063708869737E-2</v>
       </c>
       <c r="AO7" s="7">
         <f t="shared" si="0"/>
@@ -3623,6 +3661,7 @@
         <v>1996</v>
       </c>
       <c r="B8" s="7">
+        <f>DataRaw!G9</f>
         <v>3.0167446944406033E-2</v>
       </c>
       <c r="C8" s="7">
@@ -3632,16 +3671,19 @@
         <v>1996</v>
       </c>
       <c r="T8" s="2">
+        <f>DataRaw!I9</f>
         <v>0.32517907384116584</v>
       </c>
       <c r="AL8" s="6">
         <v>1996</v>
       </c>
       <c r="AM8" s="7">
+        <f>DataRaw!G9</f>
         <v>3.0167446944406033E-2</v>
       </c>
       <c r="AN8" s="7">
-        <v>8.4276464979243265E-2</v>
+        <f>DataRaw!J9</f>
+        <v>4.8642211030432578E-2</v>
       </c>
       <c r="AO8" s="7">
         <f t="shared" si="0"/>
@@ -3653,6 +3695,7 @@
         <v>1997</v>
       </c>
       <c r="B9" s="7">
+        <f>DataRaw!G10</f>
         <v>3.5233025560722234E-2</v>
       </c>
       <c r="C9" s="7">
@@ -3662,16 +3705,19 @@
         <v>1997</v>
       </c>
       <c r="T9" s="2">
+        <f>DataRaw!I10</f>
         <v>0.32281249471455076</v>
       </c>
       <c r="AL9" s="6">
         <v>1997</v>
       </c>
       <c r="AM9" s="7">
+        <f>DataRaw!G10</f>
         <v>3.5233025560722234E-2</v>
       </c>
       <c r="AN9" s="7">
-        <v>9.9313486905973788E-2</v>
+        <f>DataRaw!J10</f>
+        <v>5.7721968253696798E-2</v>
       </c>
       <c r="AO9" s="7">
         <f t="shared" si="0"/>
@@ -3683,6 +3729,7 @@
         <v>1998</v>
       </c>
       <c r="B10" s="7">
+        <f>DataRaw!G11</f>
         <v>3.5297669273030692E-2</v>
       </c>
       <c r="C10" s="7">
@@ -3692,16 +3739,19 @@
         <v>1998</v>
       </c>
       <c r="T10" s="2">
+        <f>DataRaw!I11</f>
         <v>0.33640808016064533</v>
       </c>
       <c r="AL10" s="6">
         <v>1998</v>
       </c>
       <c r="AM10" s="7">
+        <f>DataRaw!G11</f>
         <v>3.5297669273030692E-2</v>
       </c>
       <c r="AN10" s="7">
-        <v>9.5433980174787908E-2</v>
+        <f>DataRaw!J11</f>
+        <v>5.5367287017810858E-2</v>
       </c>
       <c r="AO10" s="7">
         <f t="shared" si="0"/>
@@ -3713,6 +3763,7 @@
         <v>1999</v>
       </c>
       <c r="B11" s="16">
+        <f>DataRaw!G12</f>
         <v>3.4372024061413653E-2</v>
       </c>
       <c r="C11" s="16">
@@ -3722,16 +3773,19 @@
         <v>1999</v>
       </c>
       <c r="T11" s="12">
+        <f>DataRaw!I12</f>
         <v>0.33640808016064533</v>
       </c>
       <c r="AL11" s="15">
         <v>1999</v>
       </c>
       <c r="AM11" s="16">
+        <f>DataRaw!G12</f>
         <v>3.4372024061413653E-2</v>
       </c>
       <c r="AN11" s="16">
-        <v>9.2905487302346657E-2</v>
+        <f>DataRaw!J12</f>
+        <v>5.3837167747786491E-2</v>
       </c>
       <c r="AO11" s="16">
         <f t="shared" si="0"/>
@@ -3743,6 +3797,7 @@
         <v>2000</v>
       </c>
       <c r="B12" s="7">
+        <f>DataRaw!G13</f>
         <v>3.9052028113747105E-2</v>
       </c>
       <c r="C12" s="7">
@@ -3752,16 +3807,19 @@
         <v>2000</v>
       </c>
       <c r="T12" s="2">
+        <f>DataRaw!I13</f>
         <v>0.30303721931421135</v>
       </c>
       <c r="AL12" s="6">
         <v>2000</v>
       </c>
       <c r="AM12" s="7">
+        <f>DataRaw!G13</f>
         <v>3.9052028113747105E-2</v>
       </c>
       <c r="AN12" s="7">
-        <v>0.1174960330668553</v>
+        <f>DataRaw!J13</f>
+        <v>6.8872106974220498E-2</v>
       </c>
       <c r="AO12" s="7">
         <f t="shared" si="0"/>
@@ -3773,6 +3831,7 @@
         <v>2001</v>
       </c>
       <c r="B13" s="7">
+        <f>DataRaw!G14</f>
         <v>4.8837151650157416E-2</v>
       </c>
       <c r="C13" s="7">
@@ -3782,16 +3841,19 @@
         <v>2001</v>
       </c>
       <c r="T13" s="2">
+        <f>DataRaw!I14</f>
         <v>0.33893339454943977</v>
       </c>
       <c r="AL13" s="6">
         <v>2001</v>
       </c>
       <c r="AM13" s="7">
+        <f>DataRaw!G14</f>
         <v>4.8837151650157416E-2</v>
       </c>
       <c r="AN13" s="7">
-        <v>0.13157754429262633</v>
+        <f>DataRaw!J14</f>
+        <v>7.7638872229034789E-2</v>
       </c>
       <c r="AO13" s="7">
         <f t="shared" si="0"/>
@@ -3803,6 +3865,7 @@
         <v>2002</v>
       </c>
       <c r="B14" s="7">
+        <f>DataRaw!G15</f>
         <v>4.0877259972808007E-2</v>
       </c>
       <c r="C14" s="7">
@@ -3812,16 +3875,19 @@
         <v>2002</v>
       </c>
       <c r="T14" s="2">
+        <f>DataRaw!I15</f>
         <v>0.29501687736228793</v>
       </c>
       <c r="AL14" s="6">
         <v>2002</v>
       </c>
       <c r="AM14" s="7">
+        <f>DataRaw!G15</f>
         <v>4.0877259972808007E-2</v>
       </c>
       <c r="AN14" s="7">
-        <v>0.12645530295920784</v>
+        <f>DataRaw!J15</f>
+        <v>7.4436450016466676E-2</v>
       </c>
       <c r="AO14" s="7">
         <f t="shared" si="0"/>
@@ -3833,6 +3899,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="7">
+        <f>DataRaw!G16</f>
         <v>4.4030667534924864E-2</v>
       </c>
       <c r="C15" s="7">
@@ -3842,16 +3909,19 @@
         <v>2003</v>
       </c>
       <c r="T15" s="2">
+        <f>DataRaw!I16</f>
         <v>0.32784927351810844</v>
       </c>
       <c r="AL15" s="6">
         <v>2003</v>
       </c>
       <c r="AM15" s="7">
+        <f>DataRaw!G16</f>
         <v>4.4030667534924864E-2</v>
       </c>
       <c r="AN15" s="7">
-        <v>0.1225168202707379</v>
+        <f>DataRaw!J16</f>
+        <v>7.1984599830261092E-2</v>
       </c>
       <c r="AO15" s="7">
         <f t="shared" si="0"/>
@@ -3863,6 +3933,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="7">
+        <f>DataRaw!G17</f>
         <v>4.4765475208358566E-2</v>
       </c>
       <c r="C16" s="7">
@@ -3872,16 +3943,19 @@
         <v>2004</v>
       </c>
       <c r="T16" s="2">
+        <f>DataRaw!I17</f>
         <v>0.32311974698661361</v>
       </c>
       <c r="AL16" s="6">
         <v>2004</v>
       </c>
       <c r="AM16" s="7">
+        <f>DataRaw!G17</f>
         <v>4.4765475208358566E-2</v>
       </c>
       <c r="AN16" s="7">
-        <v>0.12643900059712318</v>
+        <f>DataRaw!J17</f>
+        <v>7.4426282452373926E-2</v>
       </c>
       <c r="AO16" s="7">
         <f t="shared" si="0"/>
@@ -3893,6 +3967,7 @@
         <v>2005</v>
       </c>
       <c r="B17" s="7">
+        <f>DataRaw!G18</f>
         <v>4.1536939381475367E-2</v>
       </c>
       <c r="C17" s="7">
@@ -3902,16 +3977,19 @@
         <v>2005</v>
       </c>
       <c r="T17" s="2">
+        <f>DataRaw!I18</f>
         <v>0.34497296569717978</v>
       </c>
       <c r="AL17" s="6">
         <v>2005</v>
       </c>
       <c r="AM17" s="7">
+        <f>DataRaw!G18</f>
         <v>4.1536939381475367E-2</v>
       </c>
       <c r="AN17" s="7">
-        <v>0.10968641899381416</v>
+        <f>DataRaw!J18</f>
+        <v>6.4059783089266603E-2</v>
       </c>
       <c r="AO17" s="7">
         <f t="shared" si="0"/>
@@ -3923,6 +4001,7 @@
         <v>2006</v>
       </c>
       <c r="B18" s="7">
+        <f>DataRaw!G19</f>
         <v>4.0072430526595142E-2</v>
       </c>
       <c r="C18" s="7">
@@ -3932,16 +4011,19 @@
         <v>2006</v>
       </c>
       <c r="T18" s="2">
+        <f>DataRaw!I19</f>
         <v>0.37183833435567315</v>
       </c>
       <c r="AL18" s="6">
         <v>2006</v>
       </c>
       <c r="AM18" s="7">
+        <f>DataRaw!G19</f>
         <v>4.0072430526595142E-2</v>
       </c>
       <c r="AN18" s="7">
-        <v>9.8048230088917832E-2</v>
+        <f>DataRaw!J19</f>
+        <v>5.6953082929089745E-2</v>
       </c>
       <c r="AO18" s="7">
         <f t="shared" si="0"/>
@@ -3953,6 +4035,7 @@
         <v>2007</v>
       </c>
       <c r="B19" s="7">
+        <f>DataRaw!G20</f>
         <v>3.7588499213079329E-2</v>
       </c>
       <c r="C19" s="7">
@@ -3962,16 +4045,19 @@
         <v>2007</v>
       </c>
       <c r="T19" s="2">
+        <f>DataRaw!I20</f>
         <v>0.38686490932385847</v>
       </c>
       <c r="AL19" s="6">
         <v>2007</v>
       </c>
       <c r="AM19" s="7">
+        <f>DataRaw!G20</f>
         <v>3.7588499213079329E-2</v>
       </c>
       <c r="AN19" s="7">
-        <v>8.8303613220131097E-2</v>
+        <f>DataRaw!J20</f>
+        <v>5.1061526123744261E-2</v>
       </c>
       <c r="AO19" s="7">
         <f t="shared" si="0"/>
@@ -3983,6 +4069,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="7">
+        <f>DataRaw!G21</f>
         <v>3.7889508960268097E-2</v>
       </c>
       <c r="C20" s="7">
@@ -3992,16 +4079,19 @@
         <v>2008</v>
       </c>
       <c r="T20" s="2">
+        <f>DataRaw!I21</f>
         <v>0.38033887264106064</v>
       </c>
       <c r="AL20" s="6">
         <v>2008</v>
       </c>
       <c r="AM20" s="7">
+        <f>DataRaw!G21</f>
         <v>3.7889508960268097E-2</v>
       </c>
       <c r="AN20" s="7">
-        <v>9.0560523572040891E-2</v>
+        <f>DataRaw!J21</f>
+        <v>5.2421313818112741E-2</v>
       </c>
       <c r="AO20" s="7">
         <f t="shared" si="0"/>
@@ -4013,6 +4103,7 @@
         <v>2009</v>
       </c>
       <c r="B21" s="7">
+        <f>DataRaw!G22</f>
         <v>5.1054109277875501E-2</v>
       </c>
       <c r="C21" s="7">
@@ -4022,16 +4113,19 @@
         <v>2009</v>
       </c>
       <c r="T21" s="2">
+        <f>DataRaw!I22</f>
         <v>0.3777798937824654</v>
       </c>
       <c r="AL21" s="6">
         <v>2009</v>
       </c>
       <c r="AM21" s="7">
+        <f>DataRaw!G22</f>
         <v>5.1054109277875501E-2</v>
       </c>
       <c r="AN21" s="7">
-        <v>0.12329445793584255</v>
+        <f>DataRaw!J22</f>
+        <v>7.2467988337594602E-2</v>
       </c>
       <c r="AO21" s="7">
         <f t="shared" si="0"/>
@@ -4043,6 +4137,7 @@
         <v>2010</v>
       </c>
       <c r="B22" s="7">
+        <f>DataRaw!G23</f>
         <v>5.5241337110587443E-2</v>
       </c>
       <c r="C22" s="7">
@@ -4052,16 +4147,19 @@
         <v>2010</v>
       </c>
       <c r="T22" s="2">
+        <f>DataRaw!I23</f>
         <v>0.3618273688942481</v>
       </c>
       <c r="AL22" s="6">
         <v>2010</v>
       </c>
       <c r="AM22" s="7">
+        <f>DataRaw!G23</f>
         <v>5.5241337110587443E-2</v>
       </c>
       <c r="AN22" s="7">
-        <v>0.13953621098603594</v>
+        <f>DataRaw!J23</f>
+        <v>8.2645466195862244E-2</v>
       </c>
       <c r="AO22" s="7">
         <f t="shared" si="0"/>
@@ -4073,6 +4171,7 @@
         <v>2011</v>
       </c>
       <c r="B23" s="7">
+        <f>DataRaw!G24</f>
         <v>4.4343699260644381E-2</v>
       </c>
       <c r="C23" s="7">
@@ -4082,16 +4181,19 @@
         <v>2011</v>
       </c>
       <c r="T23" s="2">
+        <f>DataRaw!I24</f>
         <v>0.43454022001553017</v>
       </c>
       <c r="AL23" s="6">
         <v>2011</v>
       </c>
       <c r="AM23" s="7">
+        <f>DataRaw!G24</f>
         <v>4.4343699260644381E-2</v>
       </c>
       <c r="AN23" s="7">
-        <v>9.2789552446865001E-2</v>
+        <f>DataRaw!J24</f>
+        <v>5.3767095690706534E-2</v>
       </c>
       <c r="AO23" s="7">
         <f t="shared" si="0"/>
@@ -4103,6 +4205,7 @@
         <v>2012</v>
       </c>
       <c r="B24" s="7">
+        <f>DataRaw!G25</f>
         <v>3.7907077296420941E-2</v>
       </c>
       <c r="C24" s="7">
@@ -4112,16 +4215,19 @@
         <v>2012</v>
       </c>
       <c r="T24" s="2">
+        <f>DataRaw!I25</f>
         <v>0.40209987908471057</v>
       </c>
       <c r="AL24" s="6">
         <v>2012</v>
       </c>
       <c r="AM24" s="7">
+        <f>DataRaw!G25</f>
         <v>3.7907077296420941E-2</v>
       </c>
       <c r="AN24" s="7">
-        <v>8.5652985219278763E-2</v>
+        <f>DataRaw!J25</f>
+        <v>4.9468144799758806E-2</v>
       </c>
       <c r="AO24" s="7">
         <f t="shared" si="0"/>
@@ -4133,6 +4239,7 @@
         <v>2013</v>
       </c>
       <c r="B25" s="16">
+        <f>DataRaw!G26</f>
         <v>4.2656195131108195E-2</v>
       </c>
       <c r="C25" s="16">
@@ -4142,16 +4249,19 @@
         <v>2013</v>
       </c>
       <c r="T25" s="12">
+        <f>DataRaw!I26</f>
         <v>0.42696431913244037</v>
       </c>
       <c r="AL25" s="15">
         <v>2013</v>
       </c>
       <c r="AM25" s="16">
+        <f>DataRaw!G26</f>
         <v>4.2656195131108195E-2</v>
       </c>
       <c r="AN25" s="16">
-        <v>9.0822554345615064E-2</v>
+        <f>DataRaw!J26</f>
+        <v>5.2579371445597739E-2</v>
       </c>
       <c r="AO25" s="16">
         <f t="shared" si="0"/>
@@ -4163,6 +4273,7 @@
         <v>2014</v>
       </c>
       <c r="B26" s="16">
+        <f>DataRaw!G27</f>
         <v>4.5385307495546069E-2</v>
       </c>
       <c r="C26" s="16">
@@ -4172,16 +4283,19 @@
         <v>2014</v>
       </c>
       <c r="T26" s="12">
+        <f>DataRaw!I27</f>
         <v>0.41602855319559939</v>
       </c>
       <c r="AL26" s="15">
         <v>2014</v>
       </c>
       <c r="AM26" s="16">
+        <f>DataRaw!G27</f>
         <v>4.5385307495546069E-2</v>
       </c>
       <c r="AN26" s="16">
-        <v>9.9265533835264139E-2</v>
+        <f>DataRaw!J27</f>
+        <v>5.7692811105290613E-2</v>
       </c>
       <c r="AO26" s="16">
         <f t="shared" si="0"/>
@@ -4193,6 +4307,7 @@
         <v>2015</v>
       </c>
       <c r="B27" s="16">
+        <f>DataRaw!G28</f>
         <v>4.4417976133047585E-2</v>
       </c>
       <c r="C27" s="16">
@@ -4202,16 +4317,19 @@
         <v>2015</v>
       </c>
       <c r="T27" s="12">
+        <f>DataRaw!I28</f>
         <v>0.45636985906238581</v>
       </c>
       <c r="AL27" s="15">
         <v>2015</v>
       </c>
       <c r="AM27" s="16">
+        <f>DataRaw!G28</f>
         <v>4.4417976133047585E-2</v>
       </c>
       <c r="AN27" s="16">
-        <v>8.8456951293445982E-2</v>
+        <f>DataRaw!J28</f>
+        <v>5.1153822350645375E-2</v>
       </c>
       <c r="AO27" s="16">
         <f t="shared" si="0"/>

--- a/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
+++ b/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="DataRaw" sheetId="1" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <t>Industry</t>
   </si>
   <si>
-    <t>SBIR Pct of Industry</t>
-  </si>
-  <si>
     <t>SBIR Potential</t>
   </si>
   <si>
@@ -338,7 +335,10 @@
     <t>SBIR Potential as Pct of Industry Ideal</t>
   </si>
   <si>
-    <t>Actual SBIR Pct of Industry</t>
+    <t>Actual SBIR Pct of Industry Obligations</t>
+  </si>
+  <si>
+    <t>SBIR Pct of Industry Obligations</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual SBIR Pct of Industry</c:v>
+                  <c:v>Actual SBIR Pct of Industry Obligations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -908,11 +908,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161129216"/>
-        <c:axId val="161130752"/>
+        <c:axId val="84386560"/>
+        <c:axId val="84388096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161129216"/>
+        <c:axId val="84386560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -924,13 +924,13 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161130752"/>
+        <c:crossAx val="84388096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161130752"/>
+        <c:axId val="84388096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161129216"/>
+        <c:crossAx val="84386560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1218,11 +1218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161146752"/>
-        <c:axId val="161148288"/>
+        <c:axId val="84404480"/>
+        <c:axId val="88154112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161146752"/>
+        <c:axId val="84404480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -1234,12 +1234,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161148288"/>
+        <c:crossAx val="88154112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161148288"/>
+        <c:axId val="88154112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161146752"/>
+        <c:crossAx val="84404480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1325,7 +1325,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual SBIR Pct of Industry</c:v>
+                  <c:v>Actual SBIR Pct of Industry Obligations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1957,11 +1957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161304960"/>
-        <c:axId val="161306880"/>
+        <c:axId val="88171264"/>
+        <c:axId val="88173184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161304960"/>
+        <c:axId val="88171264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -1973,12 +1973,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161306880"/>
+        <c:crossAx val="88173184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161306880"/>
+        <c:axId val="88173184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,7 +1989,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161304960"/>
+        <c:crossAx val="88171264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
@@ -2401,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,7 +2412,7 @@
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
@@ -2447,16 +2447,16 @@
         <v>100</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3409,17 +3409,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="BD2" sqref="BD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="6.28515625" style="6" customWidth="1"/>
-    <col min="39" max="39" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="34.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3428,28 +3428,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">

--- a/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
+++ b/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
@@ -4,18 +4,42 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" tabRatio="700" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="DataRaw" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Charts A" sheetId="2" r:id="rId1"/>
+    <sheet name="SBIR Data A" sheetId="1" r:id="rId2"/>
+    <sheet name="SBIR Proposals All Agencies" sheetId="3" r:id="rId3"/>
+    <sheet name="SBIR Awards All Agencies" sheetId="6" r:id="rId4"/>
+    <sheet name="Charts B" sheetId="8" r:id="rId5"/>
+    <sheet name="Industrial R&amp;D Calculations" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="\P">#REF!</definedName>
+    <definedName name="\S">#REF!</definedName>
+    <definedName name="_94CHECK1">#REF!</definedName>
+    <definedName name="_94CHECK2">#REF!</definedName>
+    <definedName name="_95CHECK1">#REF!</definedName>
+    <definedName name="_95CHECK2">#REF!</definedName>
+    <definedName name="_CHANGE1">#REF!</definedName>
+    <definedName name="_CHANGE2">#REF!</definedName>
+    <definedName name="CHECK">#REF!</definedName>
+    <definedName name="KEY">#REF!</definedName>
+    <definedName name="NON">#REF!</definedName>
+    <definedName name="NOTE">#REF!</definedName>
+    <definedName name="PAGE1">#REF!</definedName>
+    <definedName name="PAGE2">#REF!</definedName>
+    <definedName name="PERCENT">#REF!</definedName>
+    <definedName name="SOURCE">#REF!</definedName>
+    <definedName name="STUB1">#REF!</definedName>
+    <definedName name="STUB2">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="251">
   <si>
     <t>Obligation (dollars in thousands)</t>
   </si>
@@ -317,9 +341,6 @@
     <t>1,055,674.00</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
     <t>SBIR Potential</t>
   </si>
   <si>
@@ -339,20 +360,462 @@
   </si>
   <si>
     <t>SBIR Pct of Industry Obligations</t>
+  </si>
+  <si>
+    <t>Industry Obligations</t>
+  </si>
+  <si>
+    <t># Award</t>
+  </si>
+  <si>
+    <t># Proposal</t>
+  </si>
+  <si>
+    <t># Phase I Proposal</t>
+  </si>
+  <si>
+    <t># Phase I Award</t>
+  </si>
+  <si>
+    <t># Phase II Proposal</t>
+  </si>
+  <si>
+    <t># Phase II Award</t>
+  </si>
+  <si>
+    <t>No. of Total Proposals</t>
+  </si>
+  <si>
+    <t>No. of Total Awards</t>
+  </si>
+  <si>
+    <t>No. of Phase I Awards</t>
+  </si>
+  <si>
+    <t>No. of Phase II Proposal</t>
+  </si>
+  <si>
+    <t>No. of Phase II Award</t>
+  </si>
+  <si>
+    <t>No. of Phase I Proposals</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Pct of Total</t>
+  </si>
+  <si>
+    <t>Federal funds for industrial R&amp;D performance in the United States</t>
+  </si>
+  <si>
+    <t>Total Industrial (C) in $millions</t>
+  </si>
+  <si>
+    <t>Less than 500 employees in $millions</t>
+  </si>
+  <si>
+    <t>Total Industrial (A) in $millions</t>
+  </si>
+  <si>
+    <t>Total Industrial (B) in $millions</t>
+  </si>
+  <si>
+    <t>SBIR Funding in dollars</t>
+  </si>
+  <si>
+    <t>Award Summary By Year</t>
+  </si>
+  <si>
+    <t>Award Count</t>
+  </si>
+  <si>
+    <t># Of Firms</t>
+  </si>
+  <si>
+    <t>Awarded Amount</t>
+  </si>
+  <si>
+    <t>Obligated Amount</t>
+  </si>
+  <si>
+    <t>$37,849,979.00</t>
+  </si>
+  <si>
+    <t>1,286</t>
+  </si>
+  <si>
+    <t>$148,955,308.00</t>
+  </si>
+  <si>
+    <t>1,821</t>
+  </si>
+  <si>
+    <t>1,116</t>
+  </si>
+  <si>
+    <t>$192,404,870.00</t>
+  </si>
+  <si>
+    <t>2,152</t>
+  </si>
+  <si>
+    <t>1,254</t>
+  </si>
+  <si>
+    <t>$302,535,708.00</t>
+  </si>
+  <si>
+    <t>2,742</t>
+  </si>
+  <si>
+    <t>1,511</t>
+  </si>
+  <si>
+    <t>$268,227,799.00</t>
+  </si>
+  <si>
+    <t>2,638</t>
+  </si>
+  <si>
+    <t>1,473</t>
+  </si>
+  <si>
+    <t>$389,028,245.00</t>
+  </si>
+  <si>
+    <t>2,781</t>
+  </si>
+  <si>
+    <t>1,556</t>
+  </si>
+  <si>
+    <t>$393,463,322.00</t>
+  </si>
+  <si>
+    <t>3,189</t>
+  </si>
+  <si>
+    <t>1,679</t>
+  </si>
+  <si>
+    <t>$447,566,980.00</t>
+  </si>
+  <si>
+    <t>3,362</t>
+  </si>
+  <si>
+    <t>1,783</t>
+  </si>
+  <si>
+    <t>$448,681,701.00</t>
+  </si>
+  <si>
+    <t>3,405</t>
+  </si>
+  <si>
+    <t>1,757</t>
+  </si>
+  <si>
+    <t>$517,216,900.00</t>
+  </si>
+  <si>
+    <t>3,957</t>
+  </si>
+  <si>
+    <t>1,971</t>
+  </si>
+  <si>
+    <t>$622,273,995.00</t>
+  </si>
+  <si>
+    <t>3,983</t>
+  </si>
+  <si>
+    <t>2,113</t>
+  </si>
+  <si>
+    <t>$595,029,509.00</t>
+  </si>
+  <si>
+    <t>4,322</t>
+  </si>
+  <si>
+    <t>2,263</t>
+  </si>
+  <si>
+    <t>$948,045,891.00</t>
+  </si>
+  <si>
+    <t>4,020</t>
+  </si>
+  <si>
+    <t>2,126</t>
+  </si>
+  <si>
+    <t>$914,709,862.00</t>
+  </si>
+  <si>
+    <t>4,741</t>
+  </si>
+  <si>
+    <t>2,390</t>
+  </si>
+  <si>
+    <t>$1,122,407,177.00</t>
+  </si>
+  <si>
+    <t>4,445</t>
+  </si>
+  <si>
+    <t>2,298</t>
+  </si>
+  <si>
+    <t>$1,057,829,577.00</t>
+  </si>
+  <si>
+    <t>4,944</t>
+  </si>
+  <si>
+    <t>2,474</t>
+  </si>
+  <si>
+    <t>$1,162,785,427.00</t>
+  </si>
+  <si>
+    <t>5,621</t>
+  </si>
+  <si>
+    <t>2,420</t>
+  </si>
+  <si>
+    <t>$1,110,239,194.00</t>
+  </si>
+  <si>
+    <t>6,152</t>
+  </si>
+  <si>
+    <t>2,454</t>
+  </si>
+  <si>
+    <t>$1,227,259,367.00</t>
+  </si>
+  <si>
+    <t>7,164</t>
+  </si>
+  <si>
+    <t>2,862</t>
+  </si>
+  <si>
+    <t>$1,579,678,974.00</t>
+  </si>
+  <si>
+    <t>7,389</t>
+  </si>
+  <si>
+    <t>3,170</t>
+  </si>
+  <si>
+    <t>$1,843,147,113.00</t>
+  </si>
+  <si>
+    <t>7,635</t>
+  </si>
+  <si>
+    <t>3,445</t>
+  </si>
+  <si>
+    <t>$2,481,272,852.85</t>
+  </si>
+  <si>
+    <t>7,150</t>
+  </si>
+  <si>
+    <t>3,348</t>
+  </si>
+  <si>
+    <t>$2,367,553,728.10</t>
+  </si>
+  <si>
+    <t>6,840</t>
+  </si>
+  <si>
+    <t>3,150</t>
+  </si>
+  <si>
+    <t>$2,520,434,604.23</t>
+  </si>
+  <si>
+    <t>6,309</t>
+  </si>
+  <si>
+    <t>2,982</t>
+  </si>
+  <si>
+    <t>$1,943,844,673.21</t>
+  </si>
+  <si>
+    <t>6,343</t>
+  </si>
+  <si>
+    <t>3,022</t>
+  </si>
+  <si>
+    <t>$2,358,591,859.02</t>
+  </si>
+  <si>
+    <t>6,770</t>
+  </si>
+  <si>
+    <t>3,126</t>
+  </si>
+  <si>
+    <t>$2,388,611,163.51</t>
+  </si>
+  <si>
+    <t>7,209</t>
+  </si>
+  <si>
+    <t>3,322</t>
+  </si>
+  <si>
+    <t>$2,603,667,978.44</t>
+  </si>
+  <si>
+    <t>6,207</t>
+  </si>
+  <si>
+    <t>2,924</t>
+  </si>
+  <si>
+    <t>$2,400,925,683.51</t>
+  </si>
+  <si>
+    <t>5,640</t>
+  </si>
+  <si>
+    <t>2,807</t>
+  </si>
+  <si>
+    <t>$2,267,304,655.60</t>
+  </si>
+  <si>
+    <t>5,129</t>
+  </si>
+  <si>
+    <t>2,744</t>
+  </si>
+  <si>
+    <t>$2,157,177,033.00</t>
+  </si>
+  <si>
+    <t>5,273</t>
+  </si>
+  <si>
+    <t>2,809</t>
+  </si>
+  <si>
+    <t>$2,334,786,964.46</t>
+  </si>
+  <si>
+    <t>5,158</t>
+  </si>
+  <si>
+    <t>2,779</t>
+  </si>
+  <si>
+    <t>$2,495,614,903.68</t>
+  </si>
+  <si>
+    <t>5,416</t>
+  </si>
+  <si>
+    <t>2,884</t>
+  </si>
+  <si>
+    <t>$2,586,146,535.70</t>
+  </si>
+  <si>
+    <t>5,840</t>
+  </si>
+  <si>
+    <t>3,085</t>
+  </si>
+  <si>
+    <t>$2,529,846,316.51</t>
+  </si>
+  <si>
+    <t>5,200</t>
+  </si>
+  <si>
+    <t>3,032</t>
+  </si>
+  <si>
+    <t>$2,720,404,489.15</t>
+  </si>
+  <si>
+    <t>$79,959,172.27</t>
+  </si>
+  <si>
+    <t>SBIR Pct of Total Federal Funds for Industrial R&amp;D</t>
+  </si>
+  <si>
+    <t>NSF Number of Proposals from Industry</t>
+  </si>
+  <si>
+    <t>NSF Number of Awards to Industry</t>
+  </si>
+  <si>
+    <t>NIH Number of Proposals from Industry</t>
+  </si>
+  <si>
+    <t>NIH Number of Awards to Industry</t>
+  </si>
+  <si>
+    <t>NSF Number of Proposals for SBIR</t>
+  </si>
+  <si>
+    <t>NIH Number of Proposals for SBIR</t>
+  </si>
+  <si>
+    <t>Total Industry Proposals</t>
+  </si>
+  <si>
+    <t>Total Industry Awards</t>
+  </si>
+  <si>
+    <t>Total SBIR Proposals</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>SBIR Pct of Total Industry Proposals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -375,6 +838,34 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -405,7 +896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -413,21 +904,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -445,10 +961,10 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -457,12 +973,118 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
+    <cellStyle name="Normal 2 3" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="7"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,7 +1141,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$B$1</c:f>
+              <c:f>'Charts A'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -533,7 +1155,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Chart!$A$2:$A$27</c:f>
+              <c:f>'Charts A'!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -620,7 +1242,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Chart!$B$2:$B$27</c:f>
+              <c:f>'Charts A'!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
@@ -712,7 +1334,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$C$1</c:f>
+              <c:f>'Charts A'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -726,7 +1348,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Chart!$A$2:$A$27</c:f>
+              <c:f>'Charts A'!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -813,7 +1435,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Chart!$C$2:$C$27</c:f>
+              <c:f>'Charts A'!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
@@ -908,11 +1530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84386560"/>
-        <c:axId val="84388096"/>
+        <c:axId val="81586432"/>
+        <c:axId val="81588224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84386560"/>
+        <c:axId val="81586432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -924,13 +1546,13 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84388096"/>
+        <c:crossAx val="81588224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84388096"/>
+        <c:axId val="81588224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +1563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84386560"/>
+        <c:crossAx val="81586432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1025,7 +1647,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$T$1</c:f>
+              <c:f>'Charts A'!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1036,7 +1658,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Chart!$S$2:$S$27</c:f>
+              <c:f>'Charts A'!$S$2:$S$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1123,7 +1745,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Chart!$T$2:$T$27</c:f>
+              <c:f>'Charts A'!$T$2:$T$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1218,11 +1840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84404480"/>
-        <c:axId val="88154112"/>
+        <c:axId val="82141184"/>
+        <c:axId val="82142720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84404480"/>
+        <c:axId val="82141184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -1234,12 +1856,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88154112"/>
+        <c:crossAx val="82142720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88154112"/>
+        <c:axId val="82142720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84404480"/>
+        <c:crossAx val="82141184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1321,7 +1943,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$AM$1</c:f>
+              <c:f>'Charts A'!$AM$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1351,7 +1973,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Chart!$AL$2:$AL$27</c:f>
+              <c:f>'Charts A'!$AL$2:$AL$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1438,7 +2060,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Chart!$AM$2:$AM$27</c:f>
+              <c:f>'Charts A'!$AM$2:$AM$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1530,7 +2152,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$AN$1</c:f>
+              <c:f>'Charts A'!$AN$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1566,7 +2188,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Chart!$AL$2:$AL$27</c:f>
+              <c:f>'Charts A'!$AL$2:$AL$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1653,7 +2275,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Chart!$AN$2:$AN$27</c:f>
+              <c:f>'Charts A'!$AN$2:$AN$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1745,7 +2367,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$AO$1</c:f>
+              <c:f>'Charts A'!$AO$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1775,7 +2397,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Chart!$AL$2:$AL$27</c:f>
+              <c:f>'Charts A'!$AL$2:$AL$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1862,7 +2484,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Chart!$AO$2:$AO$27</c:f>
+              <c:f>'Charts A'!$AO$2:$AO$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1957,11 +2579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88171264"/>
-        <c:axId val="88173184"/>
+        <c:axId val="83691776"/>
+        <c:axId val="83702144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88171264"/>
+        <c:axId val="83691776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -1973,12 +2595,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88173184"/>
+        <c:crossAx val="83702144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88173184"/>
+        <c:axId val="83702144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,7 +2611,995 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88171264"/>
+        <c:crossAx val="83691776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Federal Funds</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for R&amp;D Performed by Small Business</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Charts B'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SBIR Pct of Total Federal Funds for Industrial R&amp;D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Charts B'!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Charts B'!$B$2:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2.2238922542700515E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0038746077462052E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8645821911181328E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2500855660049914E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0020389828229018E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4559876231324292E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3782566213276632E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5238916581545796E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6982267662354375E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7388481348000324E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0592143849895762E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9538054927121743E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1354767678371219E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0115094653945178E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5723494062566641E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3058620595901068E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.644901140064636E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7751552886691533E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3463271805841336E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5696403540744598E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5292290432368008E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.670353216274706E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8448034969785884E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7777127880918979E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5124031224036588E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1865323674064925E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9977224227062076E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.3490289912774475E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4835046059771962E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8487537036942729E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.3545816916676257E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.6475908243209622E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2588860729277292E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Charts B'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set-aside</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Charts B'!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Charts B'!$C$2:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="130908928"/>
+        <c:axId val="128621184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130908928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2015"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128621184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="128621184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent of Total Federal Funds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> for R&amp;D Performed by Industry</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130908928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Small Business Fair Share</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Federal Funds for Research and Development</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Charts B'!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SBIR Pct of Total Industry Proposals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Charts B'!$T$2:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Charts B'!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.12064330737856878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10412270508947247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10981714458423061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10544710841406858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10604542896120127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11168527003540991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Charts B'!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SBIR Pct of Total Federal Funds for Industrial R&amp;D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Charts B'!$T$2:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Charts B'!$X$2:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3490289912774475E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4835046059771962E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8487537036942729E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3545816916676257E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6475908243209622E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2588860729277292E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Charts B'!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set-aside</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Charts B'!$T$2:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Charts B'!$Y$2:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="102161408"/>
+        <c:axId val="102159488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="102161408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2015"/>
+          <c:min val="2010"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102159488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="102159488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102161408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
@@ -2104,6 +3714,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2399,1018 +4074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1990</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>29370000</v>
-      </c>
-      <c r="G3" s="2">
-        <f>B3/F3</f>
-        <v>1.5687027579162412E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <f>($D3/0.15)+($E3/0.5)</f>
-        <v>1472382</v>
-      </c>
-      <c r="I3" s="2">
-        <f>B3/H3</f>
-        <v>0.31291336079903176</v>
-      </c>
-      <c r="J3" s="2">
-        <f>(($D3/0.15)+($E3/0.5))/(($D3/0.15)+($E3/0.5)+(($F3-(($D3/0.15)+($E3/0.5)))/0.5))</f>
-        <v>2.5710550768848112E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1991</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1">
-        <v>26420600</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G28" si="0">B4/F4</f>
-        <v>1.8284217618070749E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H28" si="1">(D4/0.15)+(E4/0.5)</f>
-        <v>1524098.6666666667</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:I28" si="2">B4/H4</f>
-        <v>0.31696110663001692</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J28" si="3">(($D4/0.15)+($E4/0.5))/(($D4/0.15)+($E4/0.5)+(($F4-(($D4/0.15)+($E4/0.5)))/0.5))</f>
-        <v>2.9699625019090455E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1992</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1">
-        <v>29744800</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7092164008498965E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>1595233.3333333335</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.31870133940698325</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="3"/>
-        <v>2.7554206482956603E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1993</v>
-      </c>
-      <c r="B6" s="9">
-        <v>697964</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
-        <f>(D5/$B5)*$B6</f>
-        <v>175643.16921812028</v>
-      </c>
-      <c r="E6" s="10">
-        <f>(E5/$B5)*$B6</f>
-        <v>509535.42484997137</v>
-      </c>
-      <c r="F6" s="11">
-        <v>30219000</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="0"/>
-        <v>2.3096859591647638E-2</v>
-      </c>
-      <c r="H6" s="11">
-        <f t="shared" si="1"/>
-        <v>2190025.3111540782</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="2"/>
-        <v>0.31870133940698325</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" si="3"/>
-        <v>3.7598308316348257E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1994</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1">
-        <v>30454900</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3564254028087435E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>2416660</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.29695819850537519</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="3"/>
-        <v>4.1315272184054404E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1995</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1">
-        <v>30236100</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8593270957563973E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>2751822.666666667</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.31417322434052192</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="3"/>
-        <v>4.7675063708869737E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1996</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1">
-        <v>30373800</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0167446944406033E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>2817832</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.32517907384116584</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="3"/>
-        <v>4.8642211030432578E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1997</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1">
-        <v>31419300</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5233025560722234E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>3429226</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.32281249471455076</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="3"/>
-        <v>5.7721968253696798E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1998</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1">
-        <v>31998600</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5297669273030692E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>3357458</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.33640808016064533</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="3"/>
-        <v>5.5367287017810858E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1999</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1096526</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10">
-        <f>(D11/$B11)*$B12</f>
-        <v>254632.43608894743</v>
-      </c>
-      <c r="E12" s="10">
-        <f>(E11/$B11)*$B12</f>
-        <v>780980.95415396162</v>
-      </c>
-      <c r="F12" s="11">
-        <v>31901700</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="0"/>
-        <v>3.4372024061413653E-2</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="1"/>
-        <v>3259511.4822342396</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="2"/>
-        <v>0.33640808016064533</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="3"/>
-        <v>5.3837167747786491E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1">
-        <v>29409100</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9052028113747105E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>3789914</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.30303721931421135</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="3"/>
-        <v>6.8872106974220498E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2001</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1">
-        <v>28236700</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8837151650157416E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>4068646</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="2"/>
-        <v>0.33893339454943977</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="3"/>
-        <v>7.7638872229034789E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2002</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="1">
-        <v>34569000</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0877259972808007E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="1"/>
-        <v>4789848</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="2"/>
-        <v>0.29501687736228793</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="3"/>
-        <v>7.4436450016466676E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2003</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="1">
-        <v>40694500</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4030667534924864E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>5465334.666666667</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.32784927351810844</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="3"/>
-        <v>7.1984599830261092E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2004</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="1">
-        <v>43758700</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4765475208358566E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="1"/>
-        <v>6062393.333333334</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="2"/>
-        <v>0.32311974698661361</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="3"/>
-        <v>7.4426282452373926E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2005</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="1">
-        <v>48867900</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1536939381475367E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
-        <v>5884006</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.34497296569717978</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="3"/>
-        <v>6.4059783089266603E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2006</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="1">
-        <v>52754000</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0072430526595142E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="1"/>
-        <v>5685215.333333334</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.37183833435567315</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="3"/>
-        <v>5.6953082929089745E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2007</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="1">
-        <v>55342300</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7588499213079329E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="1"/>
-        <v>5377158.666666667</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.38686490932385847</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="3"/>
-        <v>5.1061526123744261E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2008</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="1">
-        <v>56337600</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7889508960268097E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>5612374</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.38033887264106064</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="3"/>
-        <v>5.2421313818112741E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2009</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="1">
-        <v>46444900</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1054109277875501E-2</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="1"/>
-        <v>6276678.666666667</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3777798937824654</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="3"/>
-        <v>7.2467988337594602E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2010</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="1">
-        <v>42817700</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5241337110587443E-2</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="1"/>
-        <v>6537114.666666667</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3618273688942481</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="3"/>
-        <v>8.2645466195862244E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2011</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="1">
-        <v>49948900</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4343699260644381E-2</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="1"/>
-        <v>5097155.333333334</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.43454022001553017</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="3"/>
-        <v>5.3767095690706534E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2012</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="1">
-        <v>58782822.600000001</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7907077296420941E-2</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="1"/>
-        <v>5541620.666666667</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="2"/>
-        <v>0.40209987908471057</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="3"/>
-        <v>4.9468144799758806E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="11">
-        <v>49420933.899999999</v>
-      </c>
-      <c r="G26" s="12">
-        <f t="shared" si="0"/>
-        <v>4.2656195131108195E-2</v>
-      </c>
-      <c r="H26" s="11">
-        <f t="shared" si="1"/>
-        <v>4937436</v>
-      </c>
-      <c r="I26" s="12">
-        <f t="shared" si="2"/>
-        <v>0.42696431913244037</v>
-      </c>
-      <c r="J26" s="12">
-        <f t="shared" si="3"/>
-        <v>5.2579371445597739E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="11">
-        <v>50236500</v>
-      </c>
-      <c r="G27" s="12">
-        <f t="shared" si="0"/>
-        <v>4.5385307495546069E-2</v>
-      </c>
-      <c r="H27" s="11">
-        <f t="shared" si="1"/>
-        <v>5480390.666666667</v>
-      </c>
-      <c r="I27" s="12">
-        <f t="shared" si="2"/>
-        <v>0.41602855319559939</v>
-      </c>
-      <c r="J27" s="12">
-        <f t="shared" si="3"/>
-        <v>5.7692811105290613E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="11">
-        <v>50580400</v>
-      </c>
-      <c r="G28" s="12">
-        <f t="shared" si="0"/>
-        <v>4.4417976133047585E-2</v>
-      </c>
-      <c r="H28" s="11">
-        <f t="shared" si="1"/>
-        <v>4922934.666666667</v>
-      </c>
-      <c r="I28" s="12">
-        <f t="shared" si="2"/>
-        <v>0.45636985906238581</v>
-      </c>
-      <c r="J28" s="12">
-        <f t="shared" si="3"/>
-        <v>5.1153822350645375E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,28 +4095,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AO1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
@@ -3457,7 +4124,7 @@
         <v>1990</v>
       </c>
       <c r="B2" s="7">
-        <f>DataRaw!G3</f>
+        <f>'SBIR Data A'!M3</f>
         <v>1.5687027579162412E-2</v>
       </c>
       <c r="C2" s="7">
@@ -3467,18 +4134,18 @@
         <v>1990</v>
       </c>
       <c r="T2" s="2">
-        <f>DataRaw!I3</f>
+        <f>'SBIR Data A'!O3</f>
         <v>0.31291336079903176</v>
       </c>
       <c r="AL2" s="6">
         <v>1990</v>
       </c>
       <c r="AM2" s="7">
-        <f>DataRaw!G3</f>
+        <f>'SBIR Data A'!M3</f>
         <v>1.5687027579162412E-2</v>
       </c>
       <c r="AN2" s="7">
-        <f>DataRaw!J3</f>
+        <f>'SBIR Data A'!P3</f>
         <v>2.5710550768848112E-2</v>
       </c>
       <c r="AO2" s="7">
@@ -3491,7 +4158,7 @@
         <v>1991</v>
       </c>
       <c r="B3" s="7">
-        <f>DataRaw!G4</f>
+        <f>'SBIR Data A'!M4</f>
         <v>1.8284217618070749E-2</v>
       </c>
       <c r="C3" s="7">
@@ -3501,18 +4168,18 @@
         <v>1991</v>
       </c>
       <c r="T3" s="2">
-        <f>DataRaw!I4</f>
+        <f>'SBIR Data A'!O4</f>
         <v>0.31696110663001692</v>
       </c>
       <c r="AL3" s="6">
         <v>1991</v>
       </c>
       <c r="AM3" s="7">
-        <f>DataRaw!G4</f>
+        <f>'SBIR Data A'!M4</f>
         <v>1.8284217618070749E-2</v>
       </c>
       <c r="AN3" s="7">
-        <f>DataRaw!J4</f>
+        <f>'SBIR Data A'!P4</f>
         <v>2.9699625019090455E-2</v>
       </c>
       <c r="AO3" s="7">
@@ -3525,7 +4192,7 @@
         <v>1992</v>
       </c>
       <c r="B4" s="7">
-        <f>DataRaw!G5</f>
+        <f>'SBIR Data A'!M5</f>
         <v>1.7092164008498965E-2</v>
       </c>
       <c r="C4" s="7">
@@ -3535,18 +4202,18 @@
         <v>1992</v>
       </c>
       <c r="T4" s="2">
-        <f>DataRaw!I5</f>
+        <f>'SBIR Data A'!O5</f>
         <v>0.31870133940698325</v>
       </c>
       <c r="AL4" s="6">
         <v>1992</v>
       </c>
       <c r="AM4" s="7">
-        <f>DataRaw!G5</f>
+        <f>'SBIR Data A'!M5</f>
         <v>1.7092164008498965E-2</v>
       </c>
       <c r="AN4" s="7">
-        <f>DataRaw!J5</f>
+        <f>'SBIR Data A'!P5</f>
         <v>2.7554206482956603E-2</v>
       </c>
       <c r="AO4" s="7">
@@ -3559,7 +4226,7 @@
         <v>1993</v>
       </c>
       <c r="B5" s="16">
-        <f>DataRaw!G6</f>
+        <f>'SBIR Data A'!M6</f>
         <v>2.3096859591647638E-2</v>
       </c>
       <c r="C5" s="16">
@@ -3569,18 +4236,18 @@
         <v>1993</v>
       </c>
       <c r="T5" s="12">
-        <f>DataRaw!I6</f>
+        <f>'SBIR Data A'!O6</f>
         <v>0.31870133940698325</v>
       </c>
       <c r="AL5" s="15">
         <v>1993</v>
       </c>
       <c r="AM5" s="16">
-        <f>DataRaw!G6</f>
+        <f>'SBIR Data A'!M6</f>
         <v>2.3096859591647638E-2</v>
       </c>
       <c r="AN5" s="16">
-        <f>DataRaw!J6</f>
+        <f>'SBIR Data A'!P6</f>
         <v>3.7598308316348257E-2</v>
       </c>
       <c r="AO5" s="16">
@@ -3593,7 +4260,7 @@
         <v>1994</v>
       </c>
       <c r="B6" s="7">
-        <f>DataRaw!G7</f>
+        <f>'SBIR Data A'!M7</f>
         <v>2.3564254028087435E-2</v>
       </c>
       <c r="C6" s="7">
@@ -3603,18 +4270,18 @@
         <v>1994</v>
       </c>
       <c r="T6" s="2">
-        <f>DataRaw!I7</f>
+        <f>'SBIR Data A'!O7</f>
         <v>0.29695819850537519</v>
       </c>
       <c r="AL6" s="6">
         <v>1994</v>
       </c>
       <c r="AM6" s="7">
-        <f>DataRaw!G7</f>
+        <f>'SBIR Data A'!M7</f>
         <v>2.3564254028087435E-2</v>
       </c>
       <c r="AN6" s="7">
-        <f>DataRaw!J7</f>
+        <f>'SBIR Data A'!P7</f>
         <v>4.1315272184054404E-2</v>
       </c>
       <c r="AO6" s="7">
@@ -3627,7 +4294,7 @@
         <v>1995</v>
       </c>
       <c r="B7" s="7">
-        <f>DataRaw!G8</f>
+        <f>'SBIR Data A'!M8</f>
         <v>2.8593270957563973E-2</v>
       </c>
       <c r="C7" s="7">
@@ -3637,18 +4304,18 @@
         <v>1995</v>
       </c>
       <c r="T7" s="2">
-        <f>DataRaw!I8</f>
+        <f>'SBIR Data A'!O8</f>
         <v>0.31417322434052192</v>
       </c>
       <c r="AL7" s="6">
         <v>1995</v>
       </c>
       <c r="AM7" s="7">
-        <f>DataRaw!G8</f>
+        <f>'SBIR Data A'!M8</f>
         <v>2.8593270957563973E-2</v>
       </c>
       <c r="AN7" s="7">
-        <f>DataRaw!J8</f>
+        <f>'SBIR Data A'!P8</f>
         <v>4.7675063708869737E-2</v>
       </c>
       <c r="AO7" s="7">
@@ -3661,7 +4328,7 @@
         <v>1996</v>
       </c>
       <c r="B8" s="7">
-        <f>DataRaw!G9</f>
+        <f>'SBIR Data A'!M9</f>
         <v>3.0167446944406033E-2</v>
       </c>
       <c r="C8" s="7">
@@ -3671,18 +4338,18 @@
         <v>1996</v>
       </c>
       <c r="T8" s="2">
-        <f>DataRaw!I9</f>
+        <f>'SBIR Data A'!O9</f>
         <v>0.32517907384116584</v>
       </c>
       <c r="AL8" s="6">
         <v>1996</v>
       </c>
       <c r="AM8" s="7">
-        <f>DataRaw!G9</f>
+        <f>'SBIR Data A'!M9</f>
         <v>3.0167446944406033E-2</v>
       </c>
       <c r="AN8" s="7">
-        <f>DataRaw!J9</f>
+        <f>'SBIR Data A'!P9</f>
         <v>4.8642211030432578E-2</v>
       </c>
       <c r="AO8" s="7">
@@ -3695,7 +4362,7 @@
         <v>1997</v>
       </c>
       <c r="B9" s="7">
-        <f>DataRaw!G10</f>
+        <f>'SBIR Data A'!M10</f>
         <v>3.5233025560722234E-2</v>
       </c>
       <c r="C9" s="7">
@@ -3705,18 +4372,18 @@
         <v>1997</v>
       </c>
       <c r="T9" s="2">
-        <f>DataRaw!I10</f>
+        <f>'SBIR Data A'!O10</f>
         <v>0.32281249471455076</v>
       </c>
       <c r="AL9" s="6">
         <v>1997</v>
       </c>
       <c r="AM9" s="7">
-        <f>DataRaw!G10</f>
+        <f>'SBIR Data A'!M10</f>
         <v>3.5233025560722234E-2</v>
       </c>
       <c r="AN9" s="7">
-        <f>DataRaw!J10</f>
+        <f>'SBIR Data A'!P10</f>
         <v>5.7721968253696798E-2</v>
       </c>
       <c r="AO9" s="7">
@@ -3729,7 +4396,7 @@
         <v>1998</v>
       </c>
       <c r="B10" s="7">
-        <f>DataRaw!G11</f>
+        <f>'SBIR Data A'!M11</f>
         <v>3.5297669273030692E-2</v>
       </c>
       <c r="C10" s="7">
@@ -3739,18 +4406,18 @@
         <v>1998</v>
       </c>
       <c r="T10" s="2">
-        <f>DataRaw!I11</f>
+        <f>'SBIR Data A'!O11</f>
         <v>0.33640808016064533</v>
       </c>
       <c r="AL10" s="6">
         <v>1998</v>
       </c>
       <c r="AM10" s="7">
-        <f>DataRaw!G11</f>
+        <f>'SBIR Data A'!M11</f>
         <v>3.5297669273030692E-2</v>
       </c>
       <c r="AN10" s="7">
-        <f>DataRaw!J11</f>
+        <f>'SBIR Data A'!P11</f>
         <v>5.5367287017810858E-2</v>
       </c>
       <c r="AO10" s="7">
@@ -3763,7 +4430,7 @@
         <v>1999</v>
       </c>
       <c r="B11" s="16">
-        <f>DataRaw!G12</f>
+        <f>'SBIR Data A'!M12</f>
         <v>3.4372024061413653E-2</v>
       </c>
       <c r="C11" s="16">
@@ -3773,18 +4440,18 @@
         <v>1999</v>
       </c>
       <c r="T11" s="12">
-        <f>DataRaw!I12</f>
+        <f>'SBIR Data A'!O12</f>
         <v>0.33640808016064533</v>
       </c>
       <c r="AL11" s="15">
         <v>1999</v>
       </c>
       <c r="AM11" s="16">
-        <f>DataRaw!G12</f>
+        <f>'SBIR Data A'!M12</f>
         <v>3.4372024061413653E-2</v>
       </c>
       <c r="AN11" s="16">
-        <f>DataRaw!J12</f>
+        <f>'SBIR Data A'!P12</f>
         <v>5.3837167747786491E-2</v>
       </c>
       <c r="AO11" s="16">
@@ -3797,7 +4464,7 @@
         <v>2000</v>
       </c>
       <c r="B12" s="7">
-        <f>DataRaw!G13</f>
+        <f>'SBIR Data A'!M13</f>
         <v>3.9052028113747105E-2</v>
       </c>
       <c r="C12" s="7">
@@ -3807,18 +4474,18 @@
         <v>2000</v>
       </c>
       <c r="T12" s="2">
-        <f>DataRaw!I13</f>
+        <f>'SBIR Data A'!O13</f>
         <v>0.30303721931421135</v>
       </c>
       <c r="AL12" s="6">
         <v>2000</v>
       </c>
       <c r="AM12" s="7">
-        <f>DataRaw!G13</f>
+        <f>'SBIR Data A'!M13</f>
         <v>3.9052028113747105E-2</v>
       </c>
       <c r="AN12" s="7">
-        <f>DataRaw!J13</f>
+        <f>'SBIR Data A'!P13</f>
         <v>6.8872106974220498E-2</v>
       </c>
       <c r="AO12" s="7">
@@ -3831,7 +4498,7 @@
         <v>2001</v>
       </c>
       <c r="B13" s="7">
-        <f>DataRaw!G14</f>
+        <f>'SBIR Data A'!M14</f>
         <v>4.8837151650157416E-2</v>
       </c>
       <c r="C13" s="7">
@@ -3841,18 +4508,18 @@
         <v>2001</v>
       </c>
       <c r="T13" s="2">
-        <f>DataRaw!I14</f>
+        <f>'SBIR Data A'!O14</f>
         <v>0.33893339454943977</v>
       </c>
       <c r="AL13" s="6">
         <v>2001</v>
       </c>
       <c r="AM13" s="7">
-        <f>DataRaw!G14</f>
+        <f>'SBIR Data A'!M14</f>
         <v>4.8837151650157416E-2</v>
       </c>
       <c r="AN13" s="7">
-        <f>DataRaw!J14</f>
+        <f>'SBIR Data A'!P14</f>
         <v>7.7638872229034789E-2</v>
       </c>
       <c r="AO13" s="7">
@@ -3865,7 +4532,7 @@
         <v>2002</v>
       </c>
       <c r="B14" s="7">
-        <f>DataRaw!G15</f>
+        <f>'SBIR Data A'!M15</f>
         <v>4.0877259972808007E-2</v>
       </c>
       <c r="C14" s="7">
@@ -3875,18 +4542,18 @@
         <v>2002</v>
       </c>
       <c r="T14" s="2">
-        <f>DataRaw!I15</f>
+        <f>'SBIR Data A'!O15</f>
         <v>0.29501687736228793</v>
       </c>
       <c r="AL14" s="6">
         <v>2002</v>
       </c>
       <c r="AM14" s="7">
-        <f>DataRaw!G15</f>
+        <f>'SBIR Data A'!M15</f>
         <v>4.0877259972808007E-2</v>
       </c>
       <c r="AN14" s="7">
-        <f>DataRaw!J15</f>
+        <f>'SBIR Data A'!P15</f>
         <v>7.4436450016466676E-2</v>
       </c>
       <c r="AO14" s="7">
@@ -3899,7 +4566,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="7">
-        <f>DataRaw!G16</f>
+        <f>'SBIR Data A'!M16</f>
         <v>4.4030667534924864E-2</v>
       </c>
       <c r="C15" s="7">
@@ -3909,18 +4576,18 @@
         <v>2003</v>
       </c>
       <c r="T15" s="2">
-        <f>DataRaw!I16</f>
+        <f>'SBIR Data A'!O16</f>
         <v>0.32784927351810844</v>
       </c>
       <c r="AL15" s="6">
         <v>2003</v>
       </c>
       <c r="AM15" s="7">
-        <f>DataRaw!G16</f>
+        <f>'SBIR Data A'!M16</f>
         <v>4.4030667534924864E-2</v>
       </c>
       <c r="AN15" s="7">
-        <f>DataRaw!J16</f>
+        <f>'SBIR Data A'!P16</f>
         <v>7.1984599830261092E-2</v>
       </c>
       <c r="AO15" s="7">
@@ -3933,7 +4600,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="7">
-        <f>DataRaw!G17</f>
+        <f>'SBIR Data A'!M17</f>
         <v>4.4765475208358566E-2</v>
       </c>
       <c r="C16" s="7">
@@ -3943,18 +4610,18 @@
         <v>2004</v>
       </c>
       <c r="T16" s="2">
-        <f>DataRaw!I17</f>
+        <f>'SBIR Data A'!O17</f>
         <v>0.32311974698661361</v>
       </c>
       <c r="AL16" s="6">
         <v>2004</v>
       </c>
       <c r="AM16" s="7">
-        <f>DataRaw!G17</f>
+        <f>'SBIR Data A'!M17</f>
         <v>4.4765475208358566E-2</v>
       </c>
       <c r="AN16" s="7">
-        <f>DataRaw!J17</f>
+        <f>'SBIR Data A'!P17</f>
         <v>7.4426282452373926E-2</v>
       </c>
       <c r="AO16" s="7">
@@ -3967,7 +4634,7 @@
         <v>2005</v>
       </c>
       <c r="B17" s="7">
-        <f>DataRaw!G18</f>
+        <f>'SBIR Data A'!M18</f>
         <v>4.1536939381475367E-2</v>
       </c>
       <c r="C17" s="7">
@@ -3977,18 +4644,18 @@
         <v>2005</v>
       </c>
       <c r="T17" s="2">
-        <f>DataRaw!I18</f>
+        <f>'SBIR Data A'!O18</f>
         <v>0.34497296569717978</v>
       </c>
       <c r="AL17" s="6">
         <v>2005</v>
       </c>
       <c r="AM17" s="7">
-        <f>DataRaw!G18</f>
+        <f>'SBIR Data A'!M18</f>
         <v>4.1536939381475367E-2</v>
       </c>
       <c r="AN17" s="7">
-        <f>DataRaw!J18</f>
+        <f>'SBIR Data A'!P18</f>
         <v>6.4059783089266603E-2</v>
       </c>
       <c r="AO17" s="7">
@@ -4001,7 +4668,7 @@
         <v>2006</v>
       </c>
       <c r="B18" s="7">
-        <f>DataRaw!G19</f>
+        <f>'SBIR Data A'!M19</f>
         <v>4.0072430526595142E-2</v>
       </c>
       <c r="C18" s="7">
@@ -4011,18 +4678,18 @@
         <v>2006</v>
       </c>
       <c r="T18" s="2">
-        <f>DataRaw!I19</f>
+        <f>'SBIR Data A'!O19</f>
         <v>0.37183833435567315</v>
       </c>
       <c r="AL18" s="6">
         <v>2006</v>
       </c>
       <c r="AM18" s="7">
-        <f>DataRaw!G19</f>
+        <f>'SBIR Data A'!M19</f>
         <v>4.0072430526595142E-2</v>
       </c>
       <c r="AN18" s="7">
-        <f>DataRaw!J19</f>
+        <f>'SBIR Data A'!P19</f>
         <v>5.6953082929089745E-2</v>
       </c>
       <c r="AO18" s="7">
@@ -4035,7 +4702,7 @@
         <v>2007</v>
       </c>
       <c r="B19" s="7">
-        <f>DataRaw!G20</f>
+        <f>'SBIR Data A'!M20</f>
         <v>3.7588499213079329E-2</v>
       </c>
       <c r="C19" s="7">
@@ -4045,18 +4712,18 @@
         <v>2007</v>
       </c>
       <c r="T19" s="2">
-        <f>DataRaw!I20</f>
+        <f>'SBIR Data A'!O20</f>
         <v>0.38686490932385847</v>
       </c>
       <c r="AL19" s="6">
         <v>2007</v>
       </c>
       <c r="AM19" s="7">
-        <f>DataRaw!G20</f>
+        <f>'SBIR Data A'!M20</f>
         <v>3.7588499213079329E-2</v>
       </c>
       <c r="AN19" s="7">
-        <f>DataRaw!J20</f>
+        <f>'SBIR Data A'!P20</f>
         <v>5.1061526123744261E-2</v>
       </c>
       <c r="AO19" s="7">
@@ -4069,7 +4736,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="7">
-        <f>DataRaw!G21</f>
+        <f>'SBIR Data A'!M21</f>
         <v>3.7889508960268097E-2</v>
       </c>
       <c r="C20" s="7">
@@ -4079,18 +4746,18 @@
         <v>2008</v>
       </c>
       <c r="T20" s="2">
-        <f>DataRaw!I21</f>
+        <f>'SBIR Data A'!O21</f>
         <v>0.38033887264106064</v>
       </c>
       <c r="AL20" s="6">
         <v>2008</v>
       </c>
       <c r="AM20" s="7">
-        <f>DataRaw!G21</f>
+        <f>'SBIR Data A'!M21</f>
         <v>3.7889508960268097E-2</v>
       </c>
       <c r="AN20" s="7">
-        <f>DataRaw!J21</f>
+        <f>'SBIR Data A'!P21</f>
         <v>5.2421313818112741E-2</v>
       </c>
       <c r="AO20" s="7">
@@ -4103,7 +4770,7 @@
         <v>2009</v>
       </c>
       <c r="B21" s="7">
-        <f>DataRaw!G22</f>
+        <f>'SBIR Data A'!M22</f>
         <v>5.1054109277875501E-2</v>
       </c>
       <c r="C21" s="7">
@@ -4113,18 +4780,18 @@
         <v>2009</v>
       </c>
       <c r="T21" s="2">
-        <f>DataRaw!I22</f>
+        <f>'SBIR Data A'!O22</f>
         <v>0.3777798937824654</v>
       </c>
       <c r="AL21" s="6">
         <v>2009</v>
       </c>
       <c r="AM21" s="7">
-        <f>DataRaw!G22</f>
+        <f>'SBIR Data A'!M22</f>
         <v>5.1054109277875501E-2</v>
       </c>
       <c r="AN21" s="7">
-        <f>DataRaw!J22</f>
+        <f>'SBIR Data A'!P22</f>
         <v>7.2467988337594602E-2</v>
       </c>
       <c r="AO21" s="7">
@@ -4137,7 +4804,7 @@
         <v>2010</v>
       </c>
       <c r="B22" s="7">
-        <f>DataRaw!G23</f>
+        <f>'SBIR Data A'!M23</f>
         <v>5.5241337110587443E-2</v>
       </c>
       <c r="C22" s="7">
@@ -4147,18 +4814,18 @@
         <v>2010</v>
       </c>
       <c r="T22" s="2">
-        <f>DataRaw!I23</f>
+        <f>'SBIR Data A'!O23</f>
         <v>0.3618273688942481</v>
       </c>
       <c r="AL22" s="6">
         <v>2010</v>
       </c>
       <c r="AM22" s="7">
-        <f>DataRaw!G23</f>
+        <f>'SBIR Data A'!M23</f>
         <v>5.5241337110587443E-2</v>
       </c>
       <c r="AN22" s="7">
-        <f>DataRaw!J23</f>
+        <f>'SBIR Data A'!P23</f>
         <v>8.2645466195862244E-2</v>
       </c>
       <c r="AO22" s="7">
@@ -4171,7 +4838,7 @@
         <v>2011</v>
       </c>
       <c r="B23" s="7">
-        <f>DataRaw!G24</f>
+        <f>'SBIR Data A'!M24</f>
         <v>4.4343699260644381E-2</v>
       </c>
       <c r="C23" s="7">
@@ -4181,18 +4848,18 @@
         <v>2011</v>
       </c>
       <c r="T23" s="2">
-        <f>DataRaw!I24</f>
+        <f>'SBIR Data A'!O24</f>
         <v>0.43454022001553017</v>
       </c>
       <c r="AL23" s="6">
         <v>2011</v>
       </c>
       <c r="AM23" s="7">
-        <f>DataRaw!G24</f>
+        <f>'SBIR Data A'!M24</f>
         <v>4.4343699260644381E-2</v>
       </c>
       <c r="AN23" s="7">
-        <f>DataRaw!J24</f>
+        <f>'SBIR Data A'!P24</f>
         <v>5.3767095690706534E-2</v>
       </c>
       <c r="AO23" s="7">
@@ -4205,7 +4872,7 @@
         <v>2012</v>
       </c>
       <c r="B24" s="7">
-        <f>DataRaw!G25</f>
+        <f>'SBIR Data A'!M25</f>
         <v>3.7907077296420941E-2</v>
       </c>
       <c r="C24" s="7">
@@ -4215,18 +4882,18 @@
         <v>2012</v>
       </c>
       <c r="T24" s="2">
-        <f>DataRaw!I25</f>
+        <f>'SBIR Data A'!O25</f>
         <v>0.40209987908471057</v>
       </c>
       <c r="AL24" s="6">
         <v>2012</v>
       </c>
       <c r="AM24" s="7">
-        <f>DataRaw!G25</f>
+        <f>'SBIR Data A'!M25</f>
         <v>3.7907077296420941E-2</v>
       </c>
       <c r="AN24" s="7">
-        <f>DataRaw!J25</f>
+        <f>'SBIR Data A'!P25</f>
         <v>4.9468144799758806E-2</v>
       </c>
       <c r="AO24" s="7">
@@ -4239,7 +4906,7 @@
         <v>2013</v>
       </c>
       <c r="B25" s="16">
-        <f>DataRaw!G26</f>
+        <f>'SBIR Data A'!M26</f>
         <v>4.2656195131108195E-2</v>
       </c>
       <c r="C25" s="16">
@@ -4249,18 +4916,18 @@
         <v>2013</v>
       </c>
       <c r="T25" s="12">
-        <f>DataRaw!I26</f>
+        <f>'SBIR Data A'!O26</f>
         <v>0.42696431913244037</v>
       </c>
       <c r="AL25" s="15">
         <v>2013</v>
       </c>
       <c r="AM25" s="16">
-        <f>DataRaw!G26</f>
+        <f>'SBIR Data A'!M26</f>
         <v>4.2656195131108195E-2</v>
       </c>
       <c r="AN25" s="16">
-        <f>DataRaw!J26</f>
+        <f>'SBIR Data A'!P26</f>
         <v>5.2579371445597739E-2</v>
       </c>
       <c r="AO25" s="16">
@@ -4273,7 +4940,7 @@
         <v>2014</v>
       </c>
       <c r="B26" s="16">
-        <f>DataRaw!G27</f>
+        <f>'SBIR Data A'!M27</f>
         <v>4.5385307495546069E-2</v>
       </c>
       <c r="C26" s="16">
@@ -4283,18 +4950,18 @@
         <v>2014</v>
       </c>
       <c r="T26" s="12">
-        <f>DataRaw!I27</f>
+        <f>'SBIR Data A'!O27</f>
         <v>0.41602855319559939</v>
       </c>
       <c r="AL26" s="15">
         <v>2014</v>
       </c>
       <c r="AM26" s="16">
-        <f>DataRaw!G27</f>
+        <f>'SBIR Data A'!M27</f>
         <v>4.5385307495546069E-2</v>
       </c>
       <c r="AN26" s="16">
-        <f>DataRaw!J27</f>
+        <f>'SBIR Data A'!P27</f>
         <v>5.7692811105290613E-2</v>
       </c>
       <c r="AO26" s="16">
@@ -4307,7 +4974,7 @@
         <v>2015</v>
       </c>
       <c r="B27" s="16">
-        <f>DataRaw!G28</f>
+        <f>'SBIR Data A'!M28</f>
         <v>4.4417976133047585E-2</v>
       </c>
       <c r="C27" s="16">
@@ -4317,18 +4984,18 @@
         <v>2015</v>
       </c>
       <c r="T27" s="12">
-        <f>DataRaw!I28</f>
+        <f>'SBIR Data A'!O28</f>
         <v>0.45636985906238581</v>
       </c>
       <c r="AL27" s="15">
         <v>2015</v>
       </c>
       <c r="AM27" s="16">
-        <f>DataRaw!G28</f>
+        <f>'SBIR Data A'!M28</f>
         <v>4.4417976133047585E-2</v>
       </c>
       <c r="AN27" s="16">
-        <f>DataRaw!J28</f>
+        <f>'SBIR Data A'!P28</f>
         <v>5.1153822350645375E-2</v>
       </c>
       <c r="AO27" s="16">
@@ -4340,4 +5007,5122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1990</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="23">
+        <v>22935</v>
+      </c>
+      <c r="G3" s="23">
+        <v>3183</v>
+      </c>
+      <c r="H3" s="23">
+        <v>20957</v>
+      </c>
+      <c r="I3" s="23">
+        <v>2346</v>
+      </c>
+      <c r="J3" s="23">
+        <v>1978</v>
+      </c>
+      <c r="K3" s="23">
+        <v>837</v>
+      </c>
+      <c r="L3" s="1">
+        <v>29370000</v>
+      </c>
+      <c r="M3" s="2">
+        <f>B3/L3</f>
+        <v>1.5687027579162412E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f>($D3/0.15)+($E3/0.5)</f>
+        <v>1472382</v>
+      </c>
+      <c r="O3" s="2">
+        <f>B3/N3</f>
+        <v>0.31291336079903176</v>
+      </c>
+      <c r="P3" s="2">
+        <f>(($D3/0.15)+($E3/0.5))/(($D3/0.15)+($E3/0.5)+(($L3-(($D3/0.15)+($E3/0.5)))/0.5))</f>
+        <v>2.5710550768848112E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1991</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="23">
+        <v>22654</v>
+      </c>
+      <c r="G4" s="23">
+        <v>3341</v>
+      </c>
+      <c r="H4" s="23">
+        <v>20920</v>
+      </c>
+      <c r="I4" s="23">
+        <v>2553</v>
+      </c>
+      <c r="J4" s="23">
+        <v>1734</v>
+      </c>
+      <c r="K4" s="23">
+        <v>788</v>
+      </c>
+      <c r="L4" s="1">
+        <v>26420600</v>
+      </c>
+      <c r="M4" s="2">
+        <f>B4/L4</f>
+        <v>1.8284217618070749E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f>(D4/0.15)+(E4/0.5)</f>
+        <v>1524098.6666666667</v>
+      </c>
+      <c r="O4" s="2">
+        <f>B4/N4</f>
+        <v>0.31696110663001692</v>
+      </c>
+      <c r="P4" s="2">
+        <f>(($D4/0.15)+($E4/0.5))/(($D4/0.15)+($E4/0.5)+(($L4-(($D4/0.15)+($E4/0.5)))/0.5))</f>
+        <v>2.9699625019090455E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1992</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="23">
+        <v>21890</v>
+      </c>
+      <c r="G5" s="23">
+        <v>3475</v>
+      </c>
+      <c r="H5" s="23">
+        <v>19579</v>
+      </c>
+      <c r="I5" s="23">
+        <v>2559</v>
+      </c>
+      <c r="J5" s="23">
+        <v>2311</v>
+      </c>
+      <c r="K5" s="23">
+        <v>916</v>
+      </c>
+      <c r="L5" s="1">
+        <v>29744800</v>
+      </c>
+      <c r="M5" s="2">
+        <f>B5/L5</f>
+        <v>1.7092164008498965E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f>(D5/0.15)+(E5/0.5)</f>
+        <v>1595233.3333333335</v>
+      </c>
+      <c r="O5" s="2">
+        <f>B5/N5</f>
+        <v>0.31870133940698325</v>
+      </c>
+      <c r="P5" s="2">
+        <f>(($D5/0.15)+($E5/0.5))/(($D5/0.15)+($E5/0.5)+(($L5-(($D5/0.15)+($E5/0.5)))/0.5))</f>
+        <v>2.7554206482956603E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1993</v>
+      </c>
+      <c r="B6" s="9">
+        <v>697964</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
+        <f>(D5/$B5)*$B6</f>
+        <v>175643.16921812028</v>
+      </c>
+      <c r="E6" s="10">
+        <f>(E5/$B5)*$B6</f>
+        <v>509535.42484997137</v>
+      </c>
+      <c r="F6" s="24">
+        <v>27832</v>
+      </c>
+      <c r="G6" s="24">
+        <v>4030</v>
+      </c>
+      <c r="H6" s="24">
+        <v>25588</v>
+      </c>
+      <c r="I6" s="24">
+        <v>3102</v>
+      </c>
+      <c r="J6" s="24">
+        <v>2244</v>
+      </c>
+      <c r="K6" s="24">
+        <v>928</v>
+      </c>
+      <c r="L6" s="11">
+        <v>30219000</v>
+      </c>
+      <c r="M6" s="12">
+        <f>B6/L6</f>
+        <v>2.3096859591647638E-2</v>
+      </c>
+      <c r="N6" s="11">
+        <f>(D6/0.15)+(E6/0.5)</f>
+        <v>2190025.3111540782</v>
+      </c>
+      <c r="O6" s="12">
+        <f>B6/N6</f>
+        <v>0.31870133940698325</v>
+      </c>
+      <c r="P6" s="12">
+        <f>(($D6/0.15)+($E6/0.5))/(($D6/0.15)+($E6/0.5)+(($L6-(($D6/0.15)+($E6/0.5)))/0.5))</f>
+        <v>3.7598308316348257E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1994</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="23">
+        <v>23041</v>
+      </c>
+      <c r="G7" s="23">
+        <v>4348</v>
+      </c>
+      <c r="H7" s="23">
+        <v>20185</v>
+      </c>
+      <c r="I7" s="23">
+        <v>3085</v>
+      </c>
+      <c r="J7" s="23">
+        <v>2856</v>
+      </c>
+      <c r="K7" s="23">
+        <v>1263</v>
+      </c>
+      <c r="L7" s="1">
+        <v>30454900</v>
+      </c>
+      <c r="M7" s="2">
+        <f>B7/L7</f>
+        <v>2.3564254028087435E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f>(D7/0.15)+(E7/0.5)</f>
+        <v>2416660</v>
+      </c>
+      <c r="O7" s="2">
+        <f>B7/N7</f>
+        <v>0.29695819850537519</v>
+      </c>
+      <c r="P7" s="2">
+        <f>(($D7/0.15)+($E7/0.5))/(($D7/0.15)+($E7/0.5)+(($L7-(($D7/0.15)+($E7/0.5)))/0.5))</f>
+        <v>4.1315272184054404E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1995</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="23">
+        <v>21056</v>
+      </c>
+      <c r="G8" s="23">
+        <v>4032</v>
+      </c>
+      <c r="H8" s="23">
+        <v>18378</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2841</v>
+      </c>
+      <c r="J8" s="23">
+        <v>2678</v>
+      </c>
+      <c r="K8" s="23">
+        <v>1191</v>
+      </c>
+      <c r="L8" s="1">
+        <v>30236100</v>
+      </c>
+      <c r="M8" s="2">
+        <f>B8/L8</f>
+        <v>2.8593270957563973E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f>(D8/0.15)+(E8/0.5)</f>
+        <v>2751822.666666667</v>
+      </c>
+      <c r="O8" s="2">
+        <f>B8/N8</f>
+        <v>0.31417322434052192</v>
+      </c>
+      <c r="P8" s="2">
+        <f>(($D8/0.15)+($E8/0.5))/(($D8/0.15)+($E8/0.5)+(($L8-(($D8/0.15)+($E8/0.5)))/0.5))</f>
+        <v>4.7675063708869737E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1996</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="23">
+        <v>22005</v>
+      </c>
+      <c r="G9" s="23">
+        <v>4775</v>
+      </c>
+      <c r="H9" s="23">
+        <v>19585</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3371</v>
+      </c>
+      <c r="J9" s="23">
+        <v>2420</v>
+      </c>
+      <c r="K9" s="23">
+        <v>1404</v>
+      </c>
+      <c r="L9" s="1">
+        <v>30373800</v>
+      </c>
+      <c r="M9" s="2">
+        <f>B9/L9</f>
+        <v>3.0167446944406033E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f>(D9/0.15)+(E9/0.5)</f>
+        <v>2817832</v>
+      </c>
+      <c r="O9" s="2">
+        <f>B9/N9</f>
+        <v>0.32517907384116584</v>
+      </c>
+      <c r="P9" s="2">
+        <f>(($D9/0.15)+($E9/0.5))/(($D9/0.15)+($E9/0.5)+(($L9-(($D9/0.15)+($E9/0.5)))/0.5))</f>
+        <v>4.8642211030432578E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1997</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="23">
+        <v>21255</v>
+      </c>
+      <c r="G10" s="23">
+        <v>4342</v>
+      </c>
+      <c r="H10" s="23">
+        <v>18775</v>
+      </c>
+      <c r="I10" s="23">
+        <v>3022</v>
+      </c>
+      <c r="J10" s="23">
+        <v>2480</v>
+      </c>
+      <c r="K10" s="23">
+        <v>1320</v>
+      </c>
+      <c r="L10" s="1">
+        <v>31419300</v>
+      </c>
+      <c r="M10" s="2">
+        <f>B10/L10</f>
+        <v>3.5233025560722234E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f>(D10/0.15)+(E10/0.5)</f>
+        <v>3429226</v>
+      </c>
+      <c r="O10" s="2">
+        <f>B10/N10</f>
+        <v>0.32281249471455076</v>
+      </c>
+      <c r="P10" s="2">
+        <f>(($D10/0.15)+($E10/0.5))/(($D10/0.15)+($E10/0.5)+(($L10-(($D10/0.15)+($E10/0.5)))/0.5))</f>
+        <v>5.7721968253696798E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1998</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="23">
+        <v>20174</v>
+      </c>
+      <c r="G11" s="23">
+        <v>4496</v>
+      </c>
+      <c r="H11" s="23">
+        <v>17641</v>
+      </c>
+      <c r="I11" s="23">
+        <v>3166</v>
+      </c>
+      <c r="J11" s="23">
+        <v>2533</v>
+      </c>
+      <c r="K11" s="23">
+        <v>1330</v>
+      </c>
+      <c r="L11" s="1">
+        <v>31998600</v>
+      </c>
+      <c r="M11" s="2">
+        <f>B11/L11</f>
+        <v>3.5297669273030692E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f>(D11/0.15)+(E11/0.5)</f>
+        <v>3357458</v>
+      </c>
+      <c r="O11" s="2">
+        <f>B11/N11</f>
+        <v>0.33640808016064533</v>
+      </c>
+      <c r="P11" s="2">
+        <f>(($D11/0.15)+($E11/0.5))/(($D11/0.15)+($E11/0.5)+(($L11-(($D11/0.15)+($E11/0.5)))/0.5))</f>
+        <v>5.5367287017810858E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1999</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1096526</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10">
+        <f>(D11/$B11)*$B12</f>
+        <v>254632.43608894743</v>
+      </c>
+      <c r="E12" s="10">
+        <f>(E11/$B11)*$B12</f>
+        <v>780980.95415396162</v>
+      </c>
+      <c r="F12" s="24">
+        <v>19232</v>
+      </c>
+      <c r="G12" s="24">
+        <v>4748</v>
+      </c>
+      <c r="H12" s="24">
+        <v>16666</v>
+      </c>
+      <c r="I12" s="24">
+        <v>3215</v>
+      </c>
+      <c r="J12" s="24">
+        <v>2566</v>
+      </c>
+      <c r="K12" s="24">
+        <v>1533</v>
+      </c>
+      <c r="L12" s="11">
+        <v>31901700</v>
+      </c>
+      <c r="M12" s="12">
+        <f>B12/L12</f>
+        <v>3.4372024061413653E-2</v>
+      </c>
+      <c r="N12" s="11">
+        <f>(D12/0.15)+(E12/0.5)</f>
+        <v>3259511.4822342396</v>
+      </c>
+      <c r="O12" s="12">
+        <f>B12/N12</f>
+        <v>0.33640808016064533</v>
+      </c>
+      <c r="P12" s="12">
+        <f>(($D12/0.15)+($E12/0.5))/(($D12/0.15)+($E12/0.5)+(($L12-(($D12/0.15)+($E12/0.5)))/0.5))</f>
+        <v>5.3837167747786491E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="23">
+        <v>25254</v>
+      </c>
+      <c r="G13" s="23">
+        <v>5820</v>
+      </c>
+      <c r="H13" s="23">
+        <v>22340</v>
+      </c>
+      <c r="I13" s="23">
+        <v>4243</v>
+      </c>
+      <c r="J13" s="23">
+        <v>2914</v>
+      </c>
+      <c r="K13" s="23">
+        <v>1577</v>
+      </c>
+      <c r="L13" s="1">
+        <v>29409100</v>
+      </c>
+      <c r="M13" s="2">
+        <f>B13/L13</f>
+        <v>3.9052028113747105E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <f>(D13/0.15)+(E13/0.5)</f>
+        <v>3789914</v>
+      </c>
+      <c r="O13" s="2">
+        <f>B13/N13</f>
+        <v>0.30303721931421135</v>
+      </c>
+      <c r="P13" s="2">
+        <f>(($D13/0.15)+($E13/0.5))/(($D13/0.15)+($E13/0.5)+(($L13-(($D13/0.15)+($E13/0.5)))/0.5))</f>
+        <v>6.8872106974220498E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="23">
+        <v>31259</v>
+      </c>
+      <c r="G14" s="23">
+        <v>6224</v>
+      </c>
+      <c r="H14" s="23">
+        <v>27992</v>
+      </c>
+      <c r="I14" s="23">
+        <v>4465</v>
+      </c>
+      <c r="J14" s="23">
+        <v>3267</v>
+      </c>
+      <c r="K14" s="23">
+        <v>1759</v>
+      </c>
+      <c r="L14" s="1">
+        <v>28236700</v>
+      </c>
+      <c r="M14" s="2">
+        <f>B14/L14</f>
+        <v>4.8837151650157416E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <f>(D14/0.15)+(E14/0.5)</f>
+        <v>4068646</v>
+      </c>
+      <c r="O14" s="2">
+        <f>B14/N14</f>
+        <v>0.33893339454943977</v>
+      </c>
+      <c r="P14" s="2">
+        <f>(($D14/0.15)+($E14/0.5))/(($D14/0.15)+($E14/0.5)+(($L14-(($D14/0.15)+($E14/0.5)))/0.5))</f>
+        <v>7.7638872229034789E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="23">
+        <v>34370</v>
+      </c>
+      <c r="G15" s="23">
+        <v>6651</v>
+      </c>
+      <c r="H15" s="23">
+        <v>30766</v>
+      </c>
+      <c r="I15" s="23">
+        <v>4638</v>
+      </c>
+      <c r="J15" s="23">
+        <v>3604</v>
+      </c>
+      <c r="K15" s="23">
+        <v>2013</v>
+      </c>
+      <c r="L15" s="1">
+        <v>34569000</v>
+      </c>
+      <c r="M15" s="2">
+        <f>B15/L15</f>
+        <v>4.0877259972808007E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <f>(D15/0.15)+(E15/0.5)</f>
+        <v>4789848</v>
+      </c>
+      <c r="O15" s="2">
+        <f>B15/N15</f>
+        <v>0.29501687736228793</v>
+      </c>
+      <c r="P15" s="2">
+        <f>(($D15/0.15)+($E15/0.5))/(($D15/0.15)+($E15/0.5)+(($L15-(($D15/0.15)+($E15/0.5)))/0.5))</f>
+        <v>7.4436450016466676E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2003</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="23">
+        <v>30183</v>
+      </c>
+      <c r="G16" s="23">
+        <v>6171</v>
+      </c>
+      <c r="H16" s="23">
+        <v>26003</v>
+      </c>
+      <c r="I16" s="23">
+        <v>4300</v>
+      </c>
+      <c r="J16" s="23">
+        <v>4180</v>
+      </c>
+      <c r="K16" s="23">
+        <v>1871</v>
+      </c>
+      <c r="L16" s="1">
+        <v>40694500</v>
+      </c>
+      <c r="M16" s="2">
+        <f>B16/L16</f>
+        <v>4.4030667534924864E-2</v>
+      </c>
+      <c r="N16" s="1">
+        <f>(D16/0.15)+(E16/0.5)</f>
+        <v>5465334.666666667</v>
+      </c>
+      <c r="O16" s="2">
+        <f>B16/N16</f>
+        <v>0.32784927351810844</v>
+      </c>
+      <c r="P16" s="2">
+        <f>(($D16/0.15)+($E16/0.5))/(($D16/0.15)+($E16/0.5)+(($L16-(($D16/0.15)+($E16/0.5)))/0.5))</f>
+        <v>7.1984599830261092E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="23">
+        <v>27572</v>
+      </c>
+      <c r="G17" s="23">
+        <v>5862</v>
+      </c>
+      <c r="H17" s="23">
+        <v>24305</v>
+      </c>
+      <c r="I17" s="23">
+        <v>3836</v>
+      </c>
+      <c r="J17" s="23">
+        <v>3267</v>
+      </c>
+      <c r="K17" s="23">
+        <v>2026</v>
+      </c>
+      <c r="L17" s="1">
+        <v>43758700</v>
+      </c>
+      <c r="M17" s="2">
+        <f>B17/L17</f>
+        <v>4.4765475208358566E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <f>(D17/0.15)+(E17/0.5)</f>
+        <v>6062393.333333334</v>
+      </c>
+      <c r="O17" s="2">
+        <f>B17/N17</f>
+        <v>0.32311974698661361</v>
+      </c>
+      <c r="P17" s="2">
+        <f>(($D17/0.15)+($E17/0.5))/(($D17/0.15)+($E17/0.5)+(($L17-(($D17/0.15)+($E17/0.5)))/0.5))</f>
+        <v>7.4426282452373926E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="23">
+        <v>25190</v>
+      </c>
+      <c r="G18" s="23">
+        <v>5356</v>
+      </c>
+      <c r="H18" s="23">
+        <v>22278</v>
+      </c>
+      <c r="I18" s="23">
+        <v>3814</v>
+      </c>
+      <c r="J18" s="23">
+        <v>2912</v>
+      </c>
+      <c r="K18" s="23">
+        <v>1542</v>
+      </c>
+      <c r="L18" s="1">
+        <v>48867900</v>
+      </c>
+      <c r="M18" s="2">
+        <f>B18/L18</f>
+        <v>4.1536939381475367E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <f>(D18/0.15)+(E18/0.5)</f>
+        <v>5884006</v>
+      </c>
+      <c r="O18" s="2">
+        <f>B18/N18</f>
+        <v>0.34497296569717978</v>
+      </c>
+      <c r="P18" s="2">
+        <f>(($D18/0.15)+($E18/0.5))/(($D18/0.15)+($E18/0.5)+(($L18-(($D18/0.15)+($E18/0.5)))/0.5))</f>
+        <v>6.4059783089266603E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="23">
+        <v>25308</v>
+      </c>
+      <c r="G19" s="23">
+        <v>5397</v>
+      </c>
+      <c r="H19" s="23">
+        <v>22081</v>
+      </c>
+      <c r="I19" s="23">
+        <v>3626</v>
+      </c>
+      <c r="J19" s="23">
+        <v>3227</v>
+      </c>
+      <c r="K19" s="23">
+        <v>1771</v>
+      </c>
+      <c r="L19" s="1">
+        <v>52754000</v>
+      </c>
+      <c r="M19" s="2">
+        <f>B19/L19</f>
+        <v>4.0072430526595142E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <f>(D19/0.15)+(E19/0.5)</f>
+        <v>5685215.333333334</v>
+      </c>
+      <c r="O19" s="2">
+        <f>B19/N19</f>
+        <v>0.37183833435567315</v>
+      </c>
+      <c r="P19" s="2">
+        <f>(($D19/0.15)+($E19/0.5))/(($D19/0.15)+($E19/0.5)+(($L19-(($D19/0.15)+($E19/0.5)))/0.5))</f>
+        <v>5.6953082929089745E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2007</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="23">
+        <v>25859</v>
+      </c>
+      <c r="G20" s="23">
+        <v>5800</v>
+      </c>
+      <c r="H20" s="23">
+        <v>22598</v>
+      </c>
+      <c r="I20" s="23">
+        <v>4007</v>
+      </c>
+      <c r="J20" s="23">
+        <v>3261</v>
+      </c>
+      <c r="K20" s="23">
+        <v>1793</v>
+      </c>
+      <c r="L20" s="1">
+        <v>55342300</v>
+      </c>
+      <c r="M20" s="2">
+        <f>B20/L20</f>
+        <v>3.7588499213079329E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <f>(D20/0.15)+(E20/0.5)</f>
+        <v>5377158.666666667</v>
+      </c>
+      <c r="O20" s="2">
+        <f>B20/N20</f>
+        <v>0.38686490932385847</v>
+      </c>
+      <c r="P20" s="2">
+        <f>(($D20/0.15)+($E20/0.5))/(($D20/0.15)+($E20/0.5)+(($L20-(($D20/0.15)+($E20/0.5)))/0.5))</f>
+        <v>5.1061526123744261E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="23">
+        <v>28234</v>
+      </c>
+      <c r="G21" s="23">
+        <v>5891</v>
+      </c>
+      <c r="H21" s="23">
+        <v>24878</v>
+      </c>
+      <c r="I21" s="23">
+        <v>4045</v>
+      </c>
+      <c r="J21" s="23">
+        <v>3356</v>
+      </c>
+      <c r="K21" s="23">
+        <v>1846</v>
+      </c>
+      <c r="L21" s="1">
+        <v>56337600</v>
+      </c>
+      <c r="M21" s="2">
+        <f>B21/L21</f>
+        <v>3.7889508960268097E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <f>(D21/0.15)+(E21/0.5)</f>
+        <v>5612374</v>
+      </c>
+      <c r="O21" s="2">
+        <f>B21/N21</f>
+        <v>0.38033887264106064</v>
+      </c>
+      <c r="P21" s="2">
+        <f>(($D21/0.15)+($E21/0.5))/(($D21/0.15)+($E21/0.5)+(($L21-(($D21/0.15)+($E21/0.5)))/0.5))</f>
+        <v>5.2421313818112741E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2009</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="23">
+        <v>28245</v>
+      </c>
+      <c r="G22" s="23">
+        <v>5498</v>
+      </c>
+      <c r="H22" s="23">
+        <v>24661</v>
+      </c>
+      <c r="I22" s="23">
+        <v>3739</v>
+      </c>
+      <c r="J22" s="23">
+        <v>3584</v>
+      </c>
+      <c r="K22" s="23">
+        <v>1759</v>
+      </c>
+      <c r="L22" s="1">
+        <v>46444900</v>
+      </c>
+      <c r="M22" s="2">
+        <f>B22/L22</f>
+        <v>5.1054109277875501E-2</v>
+      </c>
+      <c r="N22" s="1">
+        <f>(D22/0.15)+(E22/0.5)</f>
+        <v>6276678.666666667</v>
+      </c>
+      <c r="O22" s="2">
+        <f>B22/N22</f>
+        <v>0.3777798937824654</v>
+      </c>
+      <c r="P22" s="2">
+        <f>(($D22/0.15)+($E22/0.5))/(($D22/0.15)+($E22/0.5)+(($L22-(($D22/0.15)+($E22/0.5)))/0.5))</f>
+        <v>7.2467988337594602E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="23">
+        <v>24961</v>
+      </c>
+      <c r="G23" s="23">
+        <v>5510</v>
+      </c>
+      <c r="H23" s="23">
+        <v>21576</v>
+      </c>
+      <c r="I23" s="23">
+        <v>3528</v>
+      </c>
+      <c r="J23" s="23">
+        <v>3385</v>
+      </c>
+      <c r="K23" s="23">
+        <v>1982</v>
+      </c>
+      <c r="L23" s="1">
+        <v>42817700</v>
+      </c>
+      <c r="M23" s="2">
+        <f>B23/L23</f>
+        <v>5.5241337110587443E-2</v>
+      </c>
+      <c r="N23" s="1">
+        <f>(D23/0.15)+(E23/0.5)</f>
+        <v>6537114.666666667</v>
+      </c>
+      <c r="O23" s="2">
+        <f>B23/N23</f>
+        <v>0.3618273688942481</v>
+      </c>
+      <c r="P23" s="2">
+        <f>(($D23/0.15)+($E23/0.5))/(($D23/0.15)+($E23/0.5)+(($L23-(($D23/0.15)+($E23/0.5)))/0.5))</f>
+        <v>8.2645466195862244E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="23">
+        <v>22919</v>
+      </c>
+      <c r="G24" s="23">
+        <v>4485</v>
+      </c>
+      <c r="H24" s="23">
+        <v>20213</v>
+      </c>
+      <c r="I24" s="23">
+        <v>3011</v>
+      </c>
+      <c r="J24" s="23">
+        <v>2706</v>
+      </c>
+      <c r="K24" s="23">
+        <v>1474</v>
+      </c>
+      <c r="L24" s="1">
+        <v>49948900</v>
+      </c>
+      <c r="M24" s="2">
+        <f>B24/L24</f>
+        <v>4.4343699260644381E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <f>(D24/0.15)+(E24/0.5)</f>
+        <v>5097155.333333334</v>
+      </c>
+      <c r="O24" s="2">
+        <f>B24/N24</f>
+        <v>0.43454022001553017</v>
+      </c>
+      <c r="P24" s="2">
+        <f>(($D24/0.15)+($E24/0.5))/(($D24/0.15)+($E24/0.5)+(($L24-(($D24/0.15)+($E24/0.5)))/0.5))</f>
+        <v>5.3767095690706534E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="23">
+        <v>20137</v>
+      </c>
+      <c r="G25" s="23">
+        <v>4677</v>
+      </c>
+      <c r="H25" s="23">
+        <v>17141</v>
+      </c>
+      <c r="I25" s="23">
+        <v>3164</v>
+      </c>
+      <c r="J25" s="23">
+        <v>2996</v>
+      </c>
+      <c r="K25" s="23">
+        <v>1513</v>
+      </c>
+      <c r="L25" s="1">
+        <v>58782822.600000001</v>
+      </c>
+      <c r="M25" s="2">
+        <f>B25/L25</f>
+        <v>3.7907077296420941E-2</v>
+      </c>
+      <c r="N25" s="1">
+        <f>(D25/0.15)+(E25/0.5)</f>
+        <v>5541620.666666667</v>
+      </c>
+      <c r="O25" s="2">
+        <f>B25/N25</f>
+        <v>0.40209987908471057</v>
+      </c>
+      <c r="P25" s="2">
+        <f>(($D25/0.15)+($E25/0.5))/(($D25/0.15)+($E25/0.5)+(($L25-(($D25/0.15)+($E25/0.5)))/0.5))</f>
+        <v>4.9468144799758806E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="24">
+        <v>19958</v>
+      </c>
+      <c r="G26" s="24">
+        <v>4324</v>
+      </c>
+      <c r="H26" s="24">
+        <v>17158</v>
+      </c>
+      <c r="I26" s="24">
+        <v>2870</v>
+      </c>
+      <c r="J26" s="24">
+        <v>2800</v>
+      </c>
+      <c r="K26" s="24">
+        <v>1454</v>
+      </c>
+      <c r="L26" s="11">
+        <v>49420933.899999999</v>
+      </c>
+      <c r="M26" s="12">
+        <f>B26/L26</f>
+        <v>4.2656195131108195E-2</v>
+      </c>
+      <c r="N26" s="11">
+        <f>(D26/0.15)+(E26/0.5)</f>
+        <v>4937436</v>
+      </c>
+      <c r="O26" s="12">
+        <f>B26/N26</f>
+        <v>0.42696431913244037</v>
+      </c>
+      <c r="P26" s="12">
+        <f>(($D26/0.15)+($E26/0.5))/(($D26/0.15)+($E26/0.5)+(($L26-(($D26/0.15)+($E26/0.5)))/0.5))</f>
+        <v>5.2579371445597739E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="11">
+        <v>50236500</v>
+      </c>
+      <c r="M27" s="12">
+        <f>B27/L27</f>
+        <v>4.5385307495546069E-2</v>
+      </c>
+      <c r="N27" s="11">
+        <f>(D27/0.15)+(E27/0.5)</f>
+        <v>5480390.666666667</v>
+      </c>
+      <c r="O27" s="12">
+        <f>B27/N27</f>
+        <v>0.41602855319559939</v>
+      </c>
+      <c r="P27" s="12">
+        <f>(($D27/0.15)+($E27/0.5))/(($D27/0.15)+($E27/0.5)+(($L27-(($D27/0.15)+($E27/0.5)))/0.5))</f>
+        <v>5.7692811105290613E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="11">
+        <v>50580400</v>
+      </c>
+      <c r="M28" s="12">
+        <f>B28/L28</f>
+        <v>4.4417976133047585E-2</v>
+      </c>
+      <c r="N28" s="11">
+        <f>(D28/0.15)+(E28/0.5)</f>
+        <v>4922934.666666667</v>
+      </c>
+      <c r="O28" s="12">
+        <f>B28/N28</f>
+        <v>0.45636985906238581</v>
+      </c>
+      <c r="P28" s="12">
+        <f>(($D28/0.15)+($E28/0.5))/(($D28/0.15)+($E28/0.5)+(($L28-(($D28/0.15)+($E28/0.5)))/0.5))</f>
+        <v>5.1153822350645375E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="40"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>1990</v>
+      </c>
+      <c r="B3">
+        <v>22935</v>
+      </c>
+      <c r="C3">
+        <v>3183</v>
+      </c>
+      <c r="D3">
+        <v>20957</v>
+      </c>
+      <c r="E3">
+        <v>2346</v>
+      </c>
+      <c r="F3">
+        <v>1978</v>
+      </c>
+      <c r="G3">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>1991</v>
+      </c>
+      <c r="B4">
+        <v>22654</v>
+      </c>
+      <c r="C4">
+        <v>3341</v>
+      </c>
+      <c r="D4">
+        <v>20920</v>
+      </c>
+      <c r="E4">
+        <v>2553</v>
+      </c>
+      <c r="F4">
+        <v>1734</v>
+      </c>
+      <c r="G4">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>1992</v>
+      </c>
+      <c r="B5">
+        <v>21890</v>
+      </c>
+      <c r="C5">
+        <v>3475</v>
+      </c>
+      <c r="D5">
+        <v>19579</v>
+      </c>
+      <c r="E5">
+        <v>2559</v>
+      </c>
+      <c r="F5">
+        <v>2311</v>
+      </c>
+      <c r="G5">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>1994</v>
+      </c>
+      <c r="B6">
+        <v>27832</v>
+      </c>
+      <c r="C6">
+        <v>4030</v>
+      </c>
+      <c r="D6">
+        <v>25588</v>
+      </c>
+      <c r="E6">
+        <v>3102</v>
+      </c>
+      <c r="F6">
+        <v>2244</v>
+      </c>
+      <c r="G6">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>1995</v>
+      </c>
+      <c r="B7">
+        <v>23041</v>
+      </c>
+      <c r="C7">
+        <v>4348</v>
+      </c>
+      <c r="D7">
+        <v>20185</v>
+      </c>
+      <c r="E7">
+        <v>3085</v>
+      </c>
+      <c r="F7">
+        <v>2856</v>
+      </c>
+      <c r="G7">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>1996</v>
+      </c>
+      <c r="B8">
+        <v>21056</v>
+      </c>
+      <c r="C8">
+        <v>4032</v>
+      </c>
+      <c r="D8">
+        <v>18378</v>
+      </c>
+      <c r="E8">
+        <v>2841</v>
+      </c>
+      <c r="F8">
+        <v>2678</v>
+      </c>
+      <c r="G8">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>1997</v>
+      </c>
+      <c r="B9">
+        <v>22005</v>
+      </c>
+      <c r="C9">
+        <v>4775</v>
+      </c>
+      <c r="D9">
+        <v>19585</v>
+      </c>
+      <c r="E9">
+        <v>3371</v>
+      </c>
+      <c r="F9">
+        <v>2420</v>
+      </c>
+      <c r="G9">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>1998</v>
+      </c>
+      <c r="B10">
+        <v>21255</v>
+      </c>
+      <c r="C10">
+        <v>4342</v>
+      </c>
+      <c r="D10">
+        <v>18775</v>
+      </c>
+      <c r="E10">
+        <v>3022</v>
+      </c>
+      <c r="F10">
+        <v>2480</v>
+      </c>
+      <c r="G10">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>2000</v>
+      </c>
+      <c r="B11">
+        <v>20174</v>
+      </c>
+      <c r="C11">
+        <v>4496</v>
+      </c>
+      <c r="D11">
+        <v>17641</v>
+      </c>
+      <c r="E11">
+        <v>3166</v>
+      </c>
+      <c r="F11">
+        <v>2533</v>
+      </c>
+      <c r="G11">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>2001</v>
+      </c>
+      <c r="B12">
+        <v>19232</v>
+      </c>
+      <c r="C12">
+        <v>4748</v>
+      </c>
+      <c r="D12">
+        <v>16666</v>
+      </c>
+      <c r="E12">
+        <v>3215</v>
+      </c>
+      <c r="F12">
+        <v>2566</v>
+      </c>
+      <c r="G12">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>2002</v>
+      </c>
+      <c r="B13">
+        <v>25254</v>
+      </c>
+      <c r="C13">
+        <v>5820</v>
+      </c>
+      <c r="D13">
+        <v>22340</v>
+      </c>
+      <c r="E13">
+        <v>4243</v>
+      </c>
+      <c r="F13">
+        <v>2914</v>
+      </c>
+      <c r="G13">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>2003</v>
+      </c>
+      <c r="B14">
+        <v>31259</v>
+      </c>
+      <c r="C14">
+        <v>6224</v>
+      </c>
+      <c r="D14">
+        <v>27992</v>
+      </c>
+      <c r="E14">
+        <v>4465</v>
+      </c>
+      <c r="F14">
+        <v>3267</v>
+      </c>
+      <c r="G14">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>2004</v>
+      </c>
+      <c r="B15">
+        <v>34370</v>
+      </c>
+      <c r="C15">
+        <v>6651</v>
+      </c>
+      <c r="D15">
+        <v>30766</v>
+      </c>
+      <c r="E15">
+        <v>4638</v>
+      </c>
+      <c r="F15">
+        <v>3604</v>
+      </c>
+      <c r="G15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>2005</v>
+      </c>
+      <c r="B16">
+        <v>30183</v>
+      </c>
+      <c r="C16">
+        <v>6171</v>
+      </c>
+      <c r="D16">
+        <v>26003</v>
+      </c>
+      <c r="E16">
+        <v>4300</v>
+      </c>
+      <c r="F16">
+        <v>4180</v>
+      </c>
+      <c r="G16">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>2006</v>
+      </c>
+      <c r="B17">
+        <v>27572</v>
+      </c>
+      <c r="C17">
+        <v>5862</v>
+      </c>
+      <c r="D17">
+        <v>24305</v>
+      </c>
+      <c r="E17">
+        <v>3836</v>
+      </c>
+      <c r="F17">
+        <v>3267</v>
+      </c>
+      <c r="G17">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>2007</v>
+      </c>
+      <c r="B18">
+        <v>25190</v>
+      </c>
+      <c r="C18">
+        <v>5356</v>
+      </c>
+      <c r="D18">
+        <v>22278</v>
+      </c>
+      <c r="E18">
+        <v>3814</v>
+      </c>
+      <c r="F18">
+        <v>2912</v>
+      </c>
+      <c r="G18">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>2008</v>
+      </c>
+      <c r="B19">
+        <v>25308</v>
+      </c>
+      <c r="C19">
+        <v>5397</v>
+      </c>
+      <c r="D19">
+        <v>22081</v>
+      </c>
+      <c r="E19">
+        <v>3626</v>
+      </c>
+      <c r="F19">
+        <v>3227</v>
+      </c>
+      <c r="G19">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>2009</v>
+      </c>
+      <c r="B20">
+        <v>25859</v>
+      </c>
+      <c r="C20">
+        <v>5800</v>
+      </c>
+      <c r="D20">
+        <v>22598</v>
+      </c>
+      <c r="E20">
+        <v>4007</v>
+      </c>
+      <c r="F20">
+        <v>3261</v>
+      </c>
+      <c r="G20">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>2010</v>
+      </c>
+      <c r="B21">
+        <v>28234</v>
+      </c>
+      <c r="C21">
+        <v>5891</v>
+      </c>
+      <c r="D21">
+        <v>24878</v>
+      </c>
+      <c r="E21">
+        <v>4045</v>
+      </c>
+      <c r="F21">
+        <v>3356</v>
+      </c>
+      <c r="G21">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>2011</v>
+      </c>
+      <c r="B22">
+        <v>28245</v>
+      </c>
+      <c r="C22">
+        <v>5498</v>
+      </c>
+      <c r="D22">
+        <v>24661</v>
+      </c>
+      <c r="E22">
+        <v>3739</v>
+      </c>
+      <c r="F22">
+        <v>3584</v>
+      </c>
+      <c r="G22">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>2012</v>
+      </c>
+      <c r="B23">
+        <v>24961</v>
+      </c>
+      <c r="C23">
+        <v>5510</v>
+      </c>
+      <c r="D23">
+        <v>21576</v>
+      </c>
+      <c r="E23">
+        <v>3528</v>
+      </c>
+      <c r="F23">
+        <v>3385</v>
+      </c>
+      <c r="G23">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>2013</v>
+      </c>
+      <c r="B24">
+        <v>22919</v>
+      </c>
+      <c r="C24">
+        <v>4485</v>
+      </c>
+      <c r="D24">
+        <v>20213</v>
+      </c>
+      <c r="E24">
+        <v>3011</v>
+      </c>
+      <c r="F24">
+        <v>2706</v>
+      </c>
+      <c r="G24">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>2014</v>
+      </c>
+      <c r="B25">
+        <v>20137</v>
+      </c>
+      <c r="C25">
+        <v>4677</v>
+      </c>
+      <c r="D25">
+        <v>17141</v>
+      </c>
+      <c r="E25">
+        <v>3164</v>
+      </c>
+      <c r="F25">
+        <v>2996</v>
+      </c>
+      <c r="G25">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>2015</v>
+      </c>
+      <c r="B26">
+        <v>19958</v>
+      </c>
+      <c r="C26">
+        <v>4324</v>
+      </c>
+      <c r="D26">
+        <v>17158</v>
+      </c>
+      <c r="E26">
+        <v>2870</v>
+      </c>
+      <c r="F26">
+        <v>2800</v>
+      </c>
+      <c r="G26">
+        <v>1454</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <v>1983</v>
+      </c>
+      <c r="B3" s="36">
+        <v>785</v>
+      </c>
+      <c r="C3" s="36">
+        <v>543</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <v>1984</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="36">
+        <v>825</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>1985</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>1986</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <v>1987</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>1988</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>1989</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>1990</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>1991</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>1992</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>1993</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>1994</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>1995</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>1996</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>1997</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>1998</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>1999</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>2000</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>2001</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>2002</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
+        <v>2004</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
+        <v>2005</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>2006</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
+        <v>2007</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="38">
+        <v>2009</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="38">
+        <v>2010</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="38">
+        <v>2016</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="38">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B39" s="36">
+        <v>245</v>
+      </c>
+      <c r="C39" s="36">
+        <v>239</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="40"/>
+    <col min="21" max="21" width="11.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="X1" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y1" s="47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1983</v>
+      </c>
+      <c r="B2" s="45">
+        <v>2.2238922542700515E-3</v>
+      </c>
+      <c r="C2" s="45">
+        <v>2E-3</v>
+      </c>
+      <c r="T2" s="40">
+        <v>2010</v>
+      </c>
+      <c r="U2" s="60">
+        <v>107880</v>
+      </c>
+      <c r="V2" s="60">
+        <v>13015</v>
+      </c>
+      <c r="W2" s="2">
+        <f>V2/U2</f>
+        <v>0.12064330737856878</v>
+      </c>
+      <c r="X2" s="45">
+        <v>4.3490289912774475E-2</v>
+      </c>
+      <c r="Y2" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>1984</v>
+      </c>
+      <c r="B3" s="45">
+        <v>8.0038746077462052E-3</v>
+      </c>
+      <c r="C3" s="45">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T3" s="40">
+        <v>2011</v>
+      </c>
+      <c r="U3" s="60">
+        <v>107575</v>
+      </c>
+      <c r="V3" s="60">
+        <v>11201</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" ref="W3:W7" si="0">V3/U3</f>
+        <v>0.10412270508947247</v>
+      </c>
+      <c r="X3" s="45">
+        <v>4.4835046059771962E-2</v>
+      </c>
+      <c r="Y3" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>1985</v>
+      </c>
+      <c r="B4" s="45">
+        <v>8.8645821911181328E-3</v>
+      </c>
+      <c r="C4" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="40">
+        <v>2012</v>
+      </c>
+      <c r="U4" s="60">
+        <v>105876</v>
+      </c>
+      <c r="V4" s="60">
+        <v>11627</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10981714458423061</v>
+      </c>
+      <c r="X4" s="45">
+        <v>3.8487537036942729E-2</v>
+      </c>
+      <c r="Y4" s="45">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>1986</v>
+      </c>
+      <c r="B5" s="45">
+        <v>1.2500855660049914E-2</v>
+      </c>
+      <c r="C5" s="45">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T5" s="40">
+        <v>2013</v>
+      </c>
+      <c r="U5" s="60">
+        <v>104147</v>
+      </c>
+      <c r="V5" s="60">
+        <v>10982</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10544710841406858</v>
+      </c>
+      <c r="X5" s="45">
+        <v>4.3545816916676257E-2</v>
+      </c>
+      <c r="Y5" s="45">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>1987</v>
+      </c>
+      <c r="B6" s="45">
+        <v>1.0020389828229018E-2</v>
+      </c>
+      <c r="C6" s="45">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T6" s="40">
+        <v>2014</v>
+      </c>
+      <c r="U6" s="60">
+        <v>104823</v>
+      </c>
+      <c r="V6" s="60">
+        <v>11116</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10604542896120127</v>
+      </c>
+      <c r="X6" s="45">
+        <v>4.6475908243209622E-2</v>
+      </c>
+      <c r="Y6" s="45">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>1988</v>
+      </c>
+      <c r="B7" s="45">
+        <v>1.4559876231324292E-2</v>
+      </c>
+      <c r="C7" s="45">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T7" s="40">
+        <v>2015</v>
+      </c>
+      <c r="U7" s="60">
+        <v>107597</v>
+      </c>
+      <c r="V7" s="60">
+        <v>12017</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11168527003540991</v>
+      </c>
+      <c r="X7" s="45">
+        <v>5.2588860729277292E-2</v>
+      </c>
+      <c r="Y7" s="45">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>1989</v>
+      </c>
+      <c r="B8" s="45">
+        <v>1.3782566213276632E-2</v>
+      </c>
+      <c r="C8" s="45">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>1990</v>
+      </c>
+      <c r="B9" s="45">
+        <v>1.5238916581545796E-2</v>
+      </c>
+      <c r="C9" s="45">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>1991</v>
+      </c>
+      <c r="B10" s="45">
+        <v>1.6982267662354375E-2</v>
+      </c>
+      <c r="C10" s="45">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>1992</v>
+      </c>
+      <c r="B11" s="45">
+        <v>1.7388481348000324E-2</v>
+      </c>
+      <c r="C11" s="45">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>1993</v>
+      </c>
+      <c r="B12" s="45">
+        <v>2.0592143849895762E-2</v>
+      </c>
+      <c r="C12" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>1994</v>
+      </c>
+      <c r="B13" s="45">
+        <v>1.9538054927121743E-2</v>
+      </c>
+      <c r="C13" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>1995</v>
+      </c>
+      <c r="B14" s="45">
+        <v>3.1354767678371219E-2</v>
+      </c>
+      <c r="C14" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>1996</v>
+      </c>
+      <c r="B15" s="45">
+        <v>3.0115094653945178E-2</v>
+      </c>
+      <c r="C15" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>1997</v>
+      </c>
+      <c r="B16" s="45">
+        <v>3.5723494062566641E-2</v>
+      </c>
+      <c r="C16" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>1998</v>
+      </c>
+      <c r="B17" s="45">
+        <v>3.3058620595901068E-2</v>
+      </c>
+      <c r="C17" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>1999</v>
+      </c>
+      <c r="B18" s="45">
+        <v>3.644901140064636E-2</v>
+      </c>
+      <c r="C18" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>2000</v>
+      </c>
+      <c r="B19" s="45">
+        <v>3.7751552886691533E-2</v>
+      </c>
+      <c r="C19" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>2001</v>
+      </c>
+      <c r="B20" s="45">
+        <v>4.3463271805841336E-2</v>
+      </c>
+      <c r="C20" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>2002</v>
+      </c>
+      <c r="B21" s="45">
+        <v>4.5696403540744598E-2</v>
+      </c>
+      <c r="C21" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>2003</v>
+      </c>
+      <c r="B22" s="45">
+        <v>4.5292290432368008E-2</v>
+      </c>
+      <c r="C22" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>2004</v>
+      </c>
+      <c r="B23" s="45">
+        <v>5.670353216274706E-2</v>
+      </c>
+      <c r="C23" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>2005</v>
+      </c>
+      <c r="B24" s="45">
+        <v>4.8448034969785884E-2</v>
+      </c>
+      <c r="C24" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>2006</v>
+      </c>
+      <c r="B25" s="45">
+        <v>4.7777127880918979E-2</v>
+      </c>
+      <c r="C25" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="45">
+        <v>3.5124031224036588E-2</v>
+      </c>
+      <c r="C26" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>2008</v>
+      </c>
+      <c r="B27" s="45">
+        <v>4.1865323674064925E-2</v>
+      </c>
+      <c r="C27" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>2009</v>
+      </c>
+      <c r="B28" s="45">
+        <v>3.9977224227062076E-2</v>
+      </c>
+      <c r="C28" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>2010</v>
+      </c>
+      <c r="B29" s="45">
+        <v>4.3490289912774475E-2</v>
+      </c>
+      <c r="C29" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>2011</v>
+      </c>
+      <c r="B30" s="45">
+        <v>4.4835046059771962E-2</v>
+      </c>
+      <c r="C30" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>2012</v>
+      </c>
+      <c r="B31" s="45">
+        <v>3.8487537036942729E-2</v>
+      </c>
+      <c r="C31" s="45">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>2013</v>
+      </c>
+      <c r="B32" s="45">
+        <v>4.3545816916676257E-2</v>
+      </c>
+      <c r="C32" s="45">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <v>2014</v>
+      </c>
+      <c r="B33" s="45">
+        <v>4.6475908243209622E-2</v>
+      </c>
+      <c r="C33" s="45">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <v>2015</v>
+      </c>
+      <c r="B34" s="45">
+        <v>5.2588860729277292E-2</v>
+      </c>
+      <c r="C34" s="45">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="Q37" sqref="Q37:Q42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="20.5703125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="15" style="43" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="43" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="25"/>
+    <col min="11" max="11" width="10.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="54" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="57" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="57" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="P3" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="R3" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="S3" s="55" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>1977</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="28">
+        <v>10717.2</v>
+      </c>
+      <c r="F4" s="28">
+        <v>10717.2</v>
+      </c>
+      <c r="H4" s="45" t="str">
+        <f t="shared" ref="H4:H8" si="0">IF(ISBLANK(G4),"NA",IF(F4=0,"NA",(G4/1000000)/F4))</f>
+        <v>NA</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="56"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>1978</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="28">
+        <v>11400</v>
+      </c>
+      <c r="F5" s="28">
+        <v>11400</v>
+      </c>
+      <c r="H5" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="56"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>1979</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="28">
+        <v>12172.4</v>
+      </c>
+      <c r="F6" s="28">
+        <v>12172.4</v>
+      </c>
+      <c r="H6" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="56"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>1980</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="28">
+        <v>12969.1</v>
+      </c>
+      <c r="F7" s="28">
+        <v>12969.1</v>
+      </c>
+      <c r="H7" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="56"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>1981</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="28">
+        <v>14867.9</v>
+      </c>
+      <c r="F8" s="28">
+        <v>14867.9</v>
+      </c>
+      <c r="H8" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="56"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>1982</v>
+      </c>
+      <c r="B9" s="26">
+        <v>18545</v>
+      </c>
+      <c r="C9" s="26">
+        <v>523</v>
+      </c>
+      <c r="D9" s="45">
+        <f>C9/B9</f>
+        <v>2.8201671609598276E-2</v>
+      </c>
+      <c r="E9" s="28">
+        <v>17192.2</v>
+      </c>
+      <c r="F9" s="28">
+        <v>17192.2</v>
+      </c>
+      <c r="H9" s="45" t="str">
+        <f>IF(ISBLANK(G9),"NA",IF(F9=0,"NA",(G9/1000000)/F9))</f>
+        <v>NA</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="56"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>1983</v>
+      </c>
+      <c r="B10" s="26">
+        <v>20680</v>
+      </c>
+      <c r="C10" s="26">
+        <v>641</v>
+      </c>
+      <c r="D10" s="45">
+        <f t="shared" ref="D10:D31" si="1">C10/B10</f>
+        <v>3.0996131528046422E-2</v>
+      </c>
+      <c r="E10" s="28">
+        <v>17019.7</v>
+      </c>
+      <c r="F10" s="28">
+        <v>17019.7</v>
+      </c>
+      <c r="G10" s="46">
+        <v>37849979</v>
+      </c>
+      <c r="H10" s="45">
+        <f>IF(ISBLANK(G10),"NA",IF(F10=0,"NA",(G10/1000000)/F10))</f>
+        <v>2.2238922542700515E-3</v>
+      </c>
+      <c r="I10" s="29">
+        <v>2E-3</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="56"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>1984</v>
+      </c>
+      <c r="B11" s="26">
+        <v>23396</v>
+      </c>
+      <c r="C11" s="26">
+        <v>621</v>
+      </c>
+      <c r="D11" s="45">
+        <f t="shared" si="1"/>
+        <v>2.6542998803214226E-2</v>
+      </c>
+      <c r="E11" s="28">
+        <v>18610.400000000001</v>
+      </c>
+      <c r="F11" s="28">
+        <v>18610.400000000001</v>
+      </c>
+      <c r="G11" s="46">
+        <v>148955308</v>
+      </c>
+      <c r="H11" s="45">
+        <f t="shared" ref="H11:H42" si="2">IF(ISBLANK(G11),"NA",IF(F11=0,"NA",(G11/1000000)/F11))</f>
+        <v>8.0038746077462052E-3</v>
+      </c>
+      <c r="I11" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="56"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>1985</v>
+      </c>
+      <c r="B12" s="26">
+        <v>27196</v>
+      </c>
+      <c r="C12" s="26">
+        <v>739</v>
+      </c>
+      <c r="D12" s="45">
+        <f t="shared" si="1"/>
+        <v>2.7173113693190174E-2</v>
+      </c>
+      <c r="E12" s="28">
+        <v>21704.9</v>
+      </c>
+      <c r="F12" s="28">
+        <v>21704.9</v>
+      </c>
+      <c r="G12" s="46">
+        <v>192404870</v>
+      </c>
+      <c r="H12" s="45">
+        <f t="shared" si="2"/>
+        <v>8.8645821911181328E-3</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="56"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>1986</v>
+      </c>
+      <c r="B13" s="26">
+        <v>27891</v>
+      </c>
+      <c r="C13" s="26">
+        <v>868</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" si="1"/>
+        <v>3.1121150191818148E-2</v>
+      </c>
+      <c r="E13" s="28">
+        <v>24201.200000000001</v>
+      </c>
+      <c r="F13" s="28">
+        <v>24201.200000000001</v>
+      </c>
+      <c r="G13" s="46">
+        <v>302535708</v>
+      </c>
+      <c r="H13" s="45">
+        <f t="shared" si="2"/>
+        <v>1.2500855660049914E-2</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="56"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>1987</v>
+      </c>
+      <c r="B14" s="27">
+        <v>30752</v>
+      </c>
+      <c r="C14" s="26">
+        <v>963</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="1"/>
+        <v>3.1315036420395424E-2</v>
+      </c>
+      <c r="E14" s="28">
+        <v>26768.2</v>
+      </c>
+      <c r="F14" s="28">
+        <v>26768.2</v>
+      </c>
+      <c r="G14" s="46">
+        <v>268227799</v>
+      </c>
+      <c r="H14" s="45">
+        <f t="shared" si="2"/>
+        <v>1.0020389828229018E-2</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="56"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>1988</v>
+      </c>
+      <c r="B15" s="27">
+        <v>30343.265026505775</v>
+      </c>
+      <c r="C15" s="27">
+        <v>816.27648908677645</v>
+      </c>
+      <c r="D15" s="45">
+        <f t="shared" si="1"/>
+        <v>2.6901405909144381E-2</v>
+      </c>
+      <c r="E15" s="28">
+        <v>26719.200000000001</v>
+      </c>
+      <c r="F15" s="28">
+        <v>26719.200000000001</v>
+      </c>
+      <c r="G15" s="46">
+        <v>389028245</v>
+      </c>
+      <c r="H15" s="45">
+        <f t="shared" si="2"/>
+        <v>1.4559876231324292E-2</v>
+      </c>
+      <c r="I15" s="29">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="56"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>1989</v>
+      </c>
+      <c r="B16" s="27">
+        <v>28554.365568516918</v>
+      </c>
+      <c r="C16" s="27">
+        <v>901</v>
+      </c>
+      <c r="D16" s="45">
+        <f t="shared" si="1"/>
+        <v>3.1553844116691293E-2</v>
+      </c>
+      <c r="E16" s="28">
+        <v>28547.9</v>
+      </c>
+      <c r="F16" s="28">
+        <v>28547.9</v>
+      </c>
+      <c r="G16" s="46">
+        <v>393463322</v>
+      </c>
+      <c r="H16" s="45">
+        <f t="shared" si="2"/>
+        <v>1.3782566213276632E-2</v>
+      </c>
+      <c r="I16" s="29">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="56"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>1990</v>
+      </c>
+      <c r="B17" s="27">
+        <v>28125</v>
+      </c>
+      <c r="C17" s="27">
+        <v>895.34709070724216</v>
+      </c>
+      <c r="D17" s="45">
+        <f t="shared" si="1"/>
+        <v>3.1834563225146391E-2</v>
+      </c>
+      <c r="E17" s="28">
+        <v>29370</v>
+      </c>
+      <c r="F17" s="28">
+        <v>29370</v>
+      </c>
+      <c r="G17" s="46">
+        <v>447566980</v>
+      </c>
+      <c r="H17" s="45">
+        <f t="shared" si="2"/>
+        <v>1.5238916581545796E-2</v>
+      </c>
+      <c r="I17" s="29">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="53">
+        <v>1459</v>
+      </c>
+      <c r="S17" s="56"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>1991</v>
+      </c>
+      <c r="B18" s="27">
+        <v>26372</v>
+      </c>
+      <c r="C18" s="27">
+        <v>1887</v>
+      </c>
+      <c r="D18" s="45">
+        <f t="shared" si="1"/>
+        <v>7.1553162445017443E-2</v>
+      </c>
+      <c r="E18" s="28">
+        <v>26420.6</v>
+      </c>
+      <c r="F18" s="28">
+        <v>26420.6</v>
+      </c>
+      <c r="G18" s="46">
+        <v>448681701</v>
+      </c>
+      <c r="H18" s="45">
+        <f t="shared" si="2"/>
+        <v>1.6982267662354375E-2</v>
+      </c>
+      <c r="I18" s="29">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="53">
+        <v>1623</v>
+      </c>
+      <c r="S18" s="56"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>1992</v>
+      </c>
+      <c r="B19" s="27">
+        <v>24722</v>
+      </c>
+      <c r="C19" s="27">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="45">
+        <f t="shared" si="1"/>
+        <v>8.1910848636841685E-2</v>
+      </c>
+      <c r="E19" s="28">
+        <v>29744.799999999999</v>
+      </c>
+      <c r="F19" s="28">
+        <v>29744.799999999999</v>
+      </c>
+      <c r="G19" s="46">
+        <v>517216900</v>
+      </c>
+      <c r="H19" s="45">
+        <f t="shared" si="2"/>
+        <v>1.7388481348000324E-2</v>
+      </c>
+      <c r="I19" s="29">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="53">
+        <v>1854</v>
+      </c>
+      <c r="S19" s="56"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>1993</v>
+      </c>
+      <c r="B20" s="27">
+        <v>22809</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1614</v>
+      </c>
+      <c r="D20" s="45">
+        <f t="shared" si="1"/>
+        <v>7.0761541496777589E-2</v>
+      </c>
+      <c r="E20" s="28">
+        <v>30219</v>
+      </c>
+      <c r="F20" s="28">
+        <v>30219</v>
+      </c>
+      <c r="G20" s="46">
+        <v>622273995</v>
+      </c>
+      <c r="H20" s="45">
+        <f t="shared" si="2"/>
+        <v>2.0592143849895762E-2</v>
+      </c>
+      <c r="I20" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="59"/>
+      <c r="S20" s="56"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>1994</v>
+      </c>
+      <c r="B21" s="27">
+        <v>22463</v>
+      </c>
+      <c r="C21" s="27">
+        <v>1164</v>
+      </c>
+      <c r="D21" s="45">
+        <f t="shared" si="1"/>
+        <v>5.1818546053510217E-2</v>
+      </c>
+      <c r="E21" s="28">
+        <v>30454.9</v>
+      </c>
+      <c r="F21" s="28">
+        <v>30454.9</v>
+      </c>
+      <c r="G21" s="46">
+        <v>595029509</v>
+      </c>
+      <c r="H21" s="45">
+        <f t="shared" si="2"/>
+        <v>1.9538054927121743E-2</v>
+      </c>
+      <c r="I21" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="53">
+        <v>2374</v>
+      </c>
+      <c r="S21" s="56"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>1995</v>
+      </c>
+      <c r="B22" s="28">
+        <v>23451</v>
+      </c>
+      <c r="C22" s="28">
+        <v>1978</v>
+      </c>
+      <c r="D22" s="45">
+        <f t="shared" si="1"/>
+        <v>8.4346083322672807E-2</v>
+      </c>
+      <c r="E22" s="28">
+        <v>30236.1</v>
+      </c>
+      <c r="F22" s="28">
+        <v>30236.1</v>
+      </c>
+      <c r="G22" s="46">
+        <v>948045891</v>
+      </c>
+      <c r="H22" s="45">
+        <f t="shared" si="2"/>
+        <v>3.1354767678371219E-2</v>
+      </c>
+      <c r="I22" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="53">
+        <v>2287</v>
+      </c>
+      <c r="S22" s="56"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>1996</v>
+      </c>
+      <c r="B23" s="28">
+        <v>23653</v>
+      </c>
+      <c r="C23" s="28">
+        <v>2301</v>
+      </c>
+      <c r="D23" s="45">
+        <f t="shared" si="1"/>
+        <v>9.7281528770134865E-2</v>
+      </c>
+      <c r="E23" s="28">
+        <v>30373.8</v>
+      </c>
+      <c r="F23" s="28">
+        <v>30373.8</v>
+      </c>
+      <c r="G23" s="46">
+        <v>914709862</v>
+      </c>
+      <c r="H23" s="45">
+        <f t="shared" si="2"/>
+        <v>3.0115094653945178E-2</v>
+      </c>
+      <c r="I23" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="53">
+        <v>2080</v>
+      </c>
+      <c r="S23" s="56"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>1997</v>
+      </c>
+      <c r="B24" s="28">
+        <v>23928</v>
+      </c>
+      <c r="C24" s="28">
+        <v>2209</v>
+      </c>
+      <c r="D24" s="45">
+        <f t="shared" si="1"/>
+        <v>9.2318622534269479E-2</v>
+      </c>
+      <c r="E24" s="28">
+        <v>31419.3</v>
+      </c>
+      <c r="F24" s="28">
+        <v>31419.3</v>
+      </c>
+      <c r="G24" s="46">
+        <v>1122407177</v>
+      </c>
+      <c r="H24" s="45">
+        <f t="shared" si="2"/>
+        <v>3.5723494062566641E-2</v>
+      </c>
+      <c r="I24" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="56">
+        <v>24222</v>
+      </c>
+      <c r="N24" s="59"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="53">
+        <v>1967</v>
+      </c>
+      <c r="S24" s="56">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>1998</v>
+      </c>
+      <c r="B25" s="28">
+        <v>24164</v>
+      </c>
+      <c r="C25" s="28">
+        <v>3436</v>
+      </c>
+      <c r="D25" s="45">
+        <f t="shared" si="1"/>
+        <v>0.14219500082767753</v>
+      </c>
+      <c r="E25" s="28">
+        <v>31998.6</v>
+      </c>
+      <c r="F25" s="28">
+        <v>31998.6</v>
+      </c>
+      <c r="G25" s="46">
+        <v>1057829577</v>
+      </c>
+      <c r="H25" s="45">
+        <f t="shared" si="2"/>
+        <v>3.3058620595901068E-2</v>
+      </c>
+      <c r="I25" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="56">
+        <v>24151</v>
+      </c>
+      <c r="N25" s="59"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="53">
+        <v>1798</v>
+      </c>
+      <c r="S25" s="56">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>1999</v>
+      </c>
+      <c r="B26" s="28">
+        <v>22535</v>
+      </c>
+      <c r="C26" s="28">
+        <v>2741</v>
+      </c>
+      <c r="D26" s="45">
+        <f t="shared" si="1"/>
+        <v>0.12163301530951853</v>
+      </c>
+      <c r="E26" s="28">
+        <v>31901.7</v>
+      </c>
+      <c r="F26" s="28">
+        <v>31901.7</v>
+      </c>
+      <c r="G26" s="46">
+        <v>1162785427</v>
+      </c>
+      <c r="H26" s="45">
+        <f t="shared" si="2"/>
+        <v>3.644901140064636E-2</v>
+      </c>
+      <c r="I26" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="56">
+        <v>26408</v>
+      </c>
+      <c r="N26" s="59"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="59"/>
+      <c r="S26" s="56">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>2000</v>
+      </c>
+      <c r="B27" s="28">
+        <v>19118</v>
+      </c>
+      <c r="C27" s="28">
+        <v>2987</v>
+      </c>
+      <c r="D27" s="45">
+        <f t="shared" si="1"/>
+        <v>0.15624019248875406</v>
+      </c>
+      <c r="E27" s="28">
+        <v>29409.1</v>
+      </c>
+      <c r="F27" s="28">
+        <v>29409.1</v>
+      </c>
+      <c r="G27" s="46">
+        <v>1110239194</v>
+      </c>
+      <c r="H27" s="45">
+        <f t="shared" si="2"/>
+        <v>3.7751552886691533E-2</v>
+      </c>
+      <c r="I27" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="56">
+        <v>27798</v>
+      </c>
+      <c r="N27" s="59"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="53">
+        <v>1611</v>
+      </c>
+      <c r="S27" s="56">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>2001</v>
+      </c>
+      <c r="B28" s="28">
+        <v>16899</v>
+      </c>
+      <c r="C28" s="50">
+        <v>2865</v>
+      </c>
+      <c r="D28" s="51">
+        <f t="shared" si="1"/>
+        <v>0.16953665897390377</v>
+      </c>
+      <c r="E28" s="28">
+        <v>28236.7</v>
+      </c>
+      <c r="F28" s="28">
+        <v>28236.7</v>
+      </c>
+      <c r="G28" s="46">
+        <v>1227259367</v>
+      </c>
+      <c r="H28" s="45">
+        <f t="shared" si="2"/>
+        <v>4.3463271805841336E-2</v>
+      </c>
+      <c r="I28" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J28" s="29"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="56">
+        <v>28368</v>
+      </c>
+      <c r="N28" s="59"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="53">
+        <v>1417</v>
+      </c>
+      <c r="S28" s="56">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>2002</v>
+      </c>
+      <c r="B29" s="28">
+        <v>16401</v>
+      </c>
+      <c r="C29" s="50">
+        <v>2807</v>
+      </c>
+      <c r="D29" s="51">
+        <f t="shared" si="1"/>
+        <v>0.17114810072556552</v>
+      </c>
+      <c r="E29" s="28">
+        <v>34569</v>
+      </c>
+      <c r="F29" s="28">
+        <v>34569</v>
+      </c>
+      <c r="G29" s="46">
+        <v>1579678974</v>
+      </c>
+      <c r="H29" s="45">
+        <f t="shared" si="2"/>
+        <v>4.5696403540744598E-2</v>
+      </c>
+      <c r="I29" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="56">
+        <v>30068</v>
+      </c>
+      <c r="N29" s="59"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="53">
+        <v>1625</v>
+      </c>
+      <c r="S29" s="56">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>2003</v>
+      </c>
+      <c r="B30" s="28">
+        <v>20699</v>
+      </c>
+      <c r="C30" s="50">
+        <v>3527</v>
+      </c>
+      <c r="D30" s="51">
+        <f t="shared" si="1"/>
+        <v>0.17039470505821538</v>
+      </c>
+      <c r="E30" s="28">
+        <v>40694.5</v>
+      </c>
+      <c r="F30" s="28">
+        <v>40694.5</v>
+      </c>
+      <c r="G30" s="46">
+        <v>1843147113</v>
+      </c>
+      <c r="H30" s="45">
+        <f t="shared" si="2"/>
+        <v>4.5292290432368008E-2</v>
+      </c>
+      <c r="I30" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J30" s="29"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="56">
+        <v>34710</v>
+      </c>
+      <c r="N30" s="59"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="53">
+        <v>2929</v>
+      </c>
+      <c r="S30" s="56">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>2004</v>
+      </c>
+      <c r="B31" s="28">
+        <v>20266</v>
+      </c>
+      <c r="C31" s="28">
+        <v>3510</v>
+      </c>
+      <c r="D31" s="51">
+        <f t="shared" si="1"/>
+        <v>0.17319648672653706</v>
+      </c>
+      <c r="E31" s="28">
+        <v>43758.7</v>
+      </c>
+      <c r="F31" s="28">
+        <v>43758.7</v>
+      </c>
+      <c r="G31" s="46">
+        <v>2481272852.8499999</v>
+      </c>
+      <c r="H31" s="45">
+        <f t="shared" si="2"/>
+        <v>5.670353216274706E-2</v>
+      </c>
+      <c r="I31" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J31" s="29"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="56">
+        <v>40861</v>
+      </c>
+      <c r="N31" s="59"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="53">
+        <v>2929</v>
+      </c>
+      <c r="S31" s="56">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <v>2005</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="E32" s="28">
+        <v>48867.9</v>
+      </c>
+      <c r="F32" s="28">
+        <v>48867.9</v>
+      </c>
+      <c r="G32" s="46">
+        <v>2367553728.0999999</v>
+      </c>
+      <c r="H32" s="45">
+        <f t="shared" si="2"/>
+        <v>4.8448034969785884E-2</v>
+      </c>
+      <c r="I32" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J32" s="29"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="56">
+        <v>43069</v>
+      </c>
+      <c r="N32" s="59"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="53">
+        <v>1753</v>
+      </c>
+      <c r="S32" s="56">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <v>2006</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="E33" s="28">
+        <v>52754</v>
+      </c>
+      <c r="F33" s="28">
+        <v>52754</v>
+      </c>
+      <c r="G33" s="46">
+        <v>2520434604.23</v>
+      </c>
+      <c r="H33" s="45">
+        <f t="shared" si="2"/>
+        <v>4.7777127880918979E-2</v>
+      </c>
+      <c r="I33" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J33" s="29"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="56">
+        <v>45688</v>
+      </c>
+      <c r="N33" s="59"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="53">
+        <v>1760</v>
+      </c>
+      <c r="S33" s="56">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>2007</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="E34" s="28">
+        <v>55342.3</v>
+      </c>
+      <c r="F34" s="28">
+        <v>55342.3</v>
+      </c>
+      <c r="G34" s="46">
+        <v>1943844673.21</v>
+      </c>
+      <c r="H34" s="45">
+        <f t="shared" si="2"/>
+        <v>3.5124031224036588E-2</v>
+      </c>
+      <c r="I34" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J34" s="29"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="56">
+        <v>47455</v>
+      </c>
+      <c r="N34" s="59"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="53">
+        <v>1990</v>
+      </c>
+      <c r="S34" s="56">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <v>2008</v>
+      </c>
+      <c r="B35" s="28">
+        <v>36360</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="28">
+        <v>56337.599999999999</v>
+      </c>
+      <c r="F35" s="28">
+        <v>56337.599999999999</v>
+      </c>
+      <c r="G35" s="46">
+        <v>2358591859.02</v>
+      </c>
+      <c r="H35" s="45">
+        <f t="shared" si="2"/>
+        <v>4.1865323674064925E-2</v>
+      </c>
+      <c r="I35" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J35" s="29"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="56">
+        <v>43467</v>
+      </c>
+      <c r="N35" s="59"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="53">
+        <v>1686</v>
+      </c>
+      <c r="S35" s="56">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>2009</v>
+      </c>
+      <c r="B36" s="28">
+        <v>39573</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="E36" s="28">
+        <v>59749.3</v>
+      </c>
+      <c r="F36" s="28">
+        <v>59749.3</v>
+      </c>
+      <c r="G36" s="46">
+        <v>2388611163.5100002</v>
+      </c>
+      <c r="H36" s="45">
+        <f t="shared" si="2"/>
+        <v>3.9977224227062076E-2</v>
+      </c>
+      <c r="I36" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J36" s="29"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="53">
+        <v>45214</v>
+      </c>
+      <c r="O36" s="53">
+        <v>14640</v>
+      </c>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="53">
+        <v>1767</v>
+      </c>
+      <c r="S36" s="56"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>2010</v>
+      </c>
+      <c r="B37" s="28">
+        <v>34199</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="E37" s="28">
+        <v>59867.8</v>
+      </c>
+      <c r="F37" s="28">
+        <v>59867.8</v>
+      </c>
+      <c r="G37" s="46">
+        <v>2603667978.4400001</v>
+      </c>
+      <c r="H37" s="45">
+        <f t="shared" si="2"/>
+        <v>4.3490289912774475E-2</v>
+      </c>
+      <c r="I37" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J37" s="29"/>
+      <c r="K37" s="59">
+        <f>SUM(L37:M37)</f>
+        <v>107880</v>
+      </c>
+      <c r="L37" s="53">
+        <v>55559</v>
+      </c>
+      <c r="M37" s="56">
+        <v>52321</v>
+      </c>
+      <c r="N37" s="59"/>
+      <c r="O37" s="53">
+        <v>13015</v>
+      </c>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="59">
+        <f>SUM(O37:P37)</f>
+        <v>13015</v>
+      </c>
+      <c r="R37" s="53">
+        <v>2738</v>
+      </c>
+      <c r="S37" s="56">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
+        <v>2011</v>
+      </c>
+      <c r="B38" s="28">
+        <v>31309</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="E38" s="28">
+        <v>54781.5</v>
+      </c>
+      <c r="F38" s="28">
+        <v>53550.2</v>
+      </c>
+      <c r="G38" s="46">
+        <v>2400925683.5100002</v>
+      </c>
+      <c r="H38" s="45">
+        <f t="shared" si="2"/>
+        <v>4.4835046059771962E-2</v>
+      </c>
+      <c r="I38" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J38" s="29"/>
+      <c r="K38" s="59">
+        <f t="shared" ref="K38:K44" si="3">SUM(L38:M38)</f>
+        <v>107575</v>
+      </c>
+      <c r="L38" s="53">
+        <v>51568</v>
+      </c>
+      <c r="M38" s="56">
+        <v>56007</v>
+      </c>
+      <c r="N38" s="59"/>
+      <c r="O38" s="53">
+        <v>11201</v>
+      </c>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="59">
+        <f t="shared" ref="Q38:Q42" si="4">SUM(O38:P38)</f>
+        <v>11201</v>
+      </c>
+      <c r="R38" s="53">
+        <v>2800</v>
+      </c>
+      <c r="S38" s="56">
+        <v>6415</v>
+      </c>
+      <c r="T38" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="31">
+        <v>2012</v>
+      </c>
+      <c r="B39" s="28">
+        <v>30621</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="E39" s="28">
+        <v>55080.2</v>
+      </c>
+      <c r="F39" s="28">
+        <v>58910.1</v>
+      </c>
+      <c r="G39" s="46">
+        <v>2267304655.5999999</v>
+      </c>
+      <c r="H39" s="45">
+        <f t="shared" si="2"/>
+        <v>3.8487537036942729E-2</v>
+      </c>
+      <c r="I39" s="29">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J39" s="29"/>
+      <c r="K39" s="59">
+        <f t="shared" si="3"/>
+        <v>105876</v>
+      </c>
+      <c r="L39" s="53">
+        <v>48716</v>
+      </c>
+      <c r="M39" s="56">
+        <v>57160</v>
+      </c>
+      <c r="N39" s="59"/>
+      <c r="O39" s="53">
+        <v>11627</v>
+      </c>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="59">
+        <f t="shared" si="4"/>
+        <v>11627</v>
+      </c>
+      <c r="R39" s="53">
+        <v>2370</v>
+      </c>
+      <c r="S39" s="56">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>2013</v>
+      </c>
+      <c r="B40" s="28">
+        <v>29362</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28">
+        <v>49538.1</v>
+      </c>
+      <c r="G40" s="46">
+        <v>2157177033</v>
+      </c>
+      <c r="H40" s="45">
+        <f t="shared" si="2"/>
+        <v>4.3545816916676257E-2</v>
+      </c>
+      <c r="I40" s="29">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J40" s="29"/>
+      <c r="K40" s="59">
+        <f t="shared" si="3"/>
+        <v>104147</v>
+      </c>
+      <c r="L40" s="53">
+        <v>49151</v>
+      </c>
+      <c r="M40" s="56">
+        <v>54996</v>
+      </c>
+      <c r="N40" s="59"/>
+      <c r="O40" s="53">
+        <v>10982</v>
+      </c>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="59">
+        <f t="shared" si="4"/>
+        <v>10982</v>
+      </c>
+      <c r="R40" s="53">
+        <v>1878</v>
+      </c>
+      <c r="S40" s="56">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
+        <v>2014</v>
+      </c>
+      <c r="B41" s="28">
+        <v>26554</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="F41" s="28">
+        <v>50236.5</v>
+      </c>
+      <c r="G41" s="46">
+        <v>2334786964.46</v>
+      </c>
+      <c r="H41" s="45">
+        <f t="shared" si="2"/>
+        <v>4.6475908243209622E-2</v>
+      </c>
+      <c r="I41" s="29">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J41" s="29"/>
+      <c r="K41" s="59">
+        <f t="shared" si="3"/>
+        <v>104823</v>
+      </c>
+      <c r="L41" s="53">
+        <v>48201</v>
+      </c>
+      <c r="M41" s="56">
+        <v>56622</v>
+      </c>
+      <c r="N41" s="59"/>
+      <c r="O41" s="53">
+        <v>11116</v>
+      </c>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="59">
+        <f t="shared" si="4"/>
+        <v>11116</v>
+      </c>
+      <c r="R41" s="53">
+        <v>1947</v>
+      </c>
+      <c r="S41" s="56">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="31">
+        <v>2015</v>
+      </c>
+      <c r="B42" s="28">
+        <v>26990</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="F42" s="28">
+        <v>47455.199999999997</v>
+      </c>
+      <c r="G42" s="46">
+        <v>2495614903.6799998</v>
+      </c>
+      <c r="H42" s="45">
+        <f t="shared" si="2"/>
+        <v>5.2588860729277292E-2</v>
+      </c>
+      <c r="I42" s="29">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J42" s="29"/>
+      <c r="K42" s="59">
+        <f t="shared" si="3"/>
+        <v>107597</v>
+      </c>
+      <c r="L42" s="53">
+        <v>49631</v>
+      </c>
+      <c r="M42" s="56">
+        <v>57966</v>
+      </c>
+      <c r="N42" s="59"/>
+      <c r="O42" s="53">
+        <v>12017</v>
+      </c>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="59">
+        <f t="shared" si="4"/>
+        <v>12017</v>
+      </c>
+      <c r="R42" s="53">
+        <v>2215</v>
+      </c>
+      <c r="S42" s="56">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>2016</v>
+      </c>
+      <c r="K43" s="59">
+        <f t="shared" si="3"/>
+        <v>96514</v>
+      </c>
+      <c r="L43" s="53">
+        <v>49307</v>
+      </c>
+      <c r="M43" s="56">
+        <v>47207</v>
+      </c>
+      <c r="N43" s="59"/>
+      <c r="O43" s="53">
+        <v>11894</v>
+      </c>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="56">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="31">
+        <v>2017</v>
+      </c>
+      <c r="K44" s="59">
+        <f t="shared" si="3"/>
+        <v>109615</v>
+      </c>
+      <c r="L44" s="53">
+        <v>49425</v>
+      </c>
+      <c r="M44" s="56">
+        <v>60190</v>
+      </c>
+      <c r="N44" s="59"/>
+      <c r="O44" s="53">
+        <v>11457</v>
+      </c>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="56">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
+        <v>2018</v>
+      </c>
+      <c r="K45" s="59"/>
+      <c r="L45" s="53">
+        <v>48334</v>
+      </c>
+      <c r="M45" s="56"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="53">
+        <v>11716</v>
+      </c>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
+++ b/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" tabRatio="700" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" tabRatio="700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Charts A" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="252">
   <si>
     <t>Obligation (dollars in thousands)</t>
   </si>
@@ -792,6 +792,9 @@
   </si>
   <si>
     <t>SBIR Pct of Total Industry Proposals</t>
+  </si>
+  <si>
+    <t>1 pct point</t>
   </si>
 </sst>
 </file>
@@ -801,8 +804,8 @@
   <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -974,10 +977,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -986,13 +985,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1002,8 +1001,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1050,7 +1047,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,23 +1056,29 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1127,7 +1130,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1530,11 +1532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81586432"/>
-        <c:axId val="81588224"/>
+        <c:axId val="53444608"/>
+        <c:axId val="53446144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81586432"/>
+        <c:axId val="53444608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -1546,13 +1548,13 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81588224"/>
+        <c:crossAx val="53446144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81588224"/>
+        <c:axId val="53446144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,14 +1565,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81586432"/>
+        <c:crossAx val="53444608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1633,7 +1634,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1840,11 +1840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82141184"/>
-        <c:axId val="82142720"/>
+        <c:axId val="53474816"/>
+        <c:axId val="53476352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82141184"/>
+        <c:axId val="53474816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -1856,12 +1856,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82142720"/>
+        <c:crossAx val="53476352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82142720"/>
+        <c:axId val="53476352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,7 +1872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82141184"/>
+        <c:crossAx val="53474816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1929,7 +1929,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2579,11 +2578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83691776"/>
-        <c:axId val="83702144"/>
+        <c:axId val="53706752"/>
+        <c:axId val="53708672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83691776"/>
+        <c:axId val="53706752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -2595,12 +2594,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83702144"/>
+        <c:crossAx val="53708672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83702144"/>
+        <c:axId val="53708672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,7 +2610,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83691776"/>
+        <c:crossAx val="53706752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
@@ -2619,7 +2618,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3155,11 +3153,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130908928"/>
-        <c:axId val="128621184"/>
+        <c:axId val="83049472"/>
+        <c:axId val="83067648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130908928"/>
+        <c:axId val="83049472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -3170,12 +3168,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128621184"/>
+        <c:crossAx val="83067648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128621184"/>
+        <c:axId val="83067648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,7 +3208,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130908928"/>
+        <c:crossAx val="83049472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3277,7 +3275,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3567,11 +3564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102161408"/>
-        <c:axId val="102159488"/>
+        <c:axId val="83085568"/>
+        <c:axId val="83095936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102161408"/>
+        <c:axId val="83085568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -3583,12 +3580,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102159488"/>
+        <c:crossAx val="83095936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102159488"/>
+        <c:axId val="83095936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3599,7 +3596,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102161408"/>
+        <c:crossAx val="83085568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
@@ -3607,7 +3604,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5011,13 +5007,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5040,13 +5036,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -5120,29 +5116,29 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="19">
         <v>22935</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="19">
         <v>3183</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="19">
         <v>20957</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="19">
         <v>2346</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="19">
         <v>1978</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="19">
         <v>837</v>
       </c>
       <c r="L3" s="1">
         <v>29370000</v>
       </c>
       <c r="M3" s="2">
-        <f>B3/L3</f>
+        <f t="shared" ref="M3:M28" si="0">B3/L3</f>
         <v>1.5687027579162412E-2</v>
       </c>
       <c r="N3" s="1">
@@ -5150,11 +5146,11 @@
         <v>1472382</v>
       </c>
       <c r="O3" s="2">
-        <f>B3/N3</f>
+        <f t="shared" ref="O3:O28" si="1">B3/N3</f>
         <v>0.31291336079903176</v>
       </c>
       <c r="P3" s="2">
-        <f>(($D3/0.15)+($E3/0.5))/(($D3/0.15)+($E3/0.5)+(($L3-(($D3/0.15)+($E3/0.5)))/0.5))</f>
+        <f t="shared" ref="P3:P28" si="2">(($D3/0.15)+($E3/0.5))/(($D3/0.15)+($E3/0.5)+(($L3-(($D3/0.15)+($E3/0.5)))/0.5))</f>
         <v>2.5710550768848112E-2</v>
       </c>
     </row>
@@ -5174,41 +5170,41 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="19">
         <v>22654</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="19">
         <v>3341</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="19">
         <v>20920</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="19">
         <v>2553</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="19">
         <v>1734</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="19">
         <v>788</v>
       </c>
       <c r="L4" s="1">
         <v>26420600</v>
       </c>
       <c r="M4" s="2">
-        <f>B4/L4</f>
+        <f t="shared" si="0"/>
         <v>1.8284217618070749E-2</v>
       </c>
       <c r="N4" s="1">
-        <f>(D4/0.15)+(E4/0.5)</f>
+        <f t="shared" ref="N4:N28" si="3">(D4/0.15)+(E4/0.5)</f>
         <v>1524098.6666666667</v>
       </c>
       <c r="O4" s="2">
-        <f>B4/N4</f>
+        <f t="shared" si="1"/>
         <v>0.31696110663001692</v>
       </c>
       <c r="P4" s="2">
-        <f>(($D4/0.15)+($E4/0.5))/(($D4/0.15)+($E4/0.5)+(($L4-(($D4/0.15)+($E4/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>2.9699625019090455E-2</v>
       </c>
     </row>
@@ -5228,41 +5224,41 @@
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="19">
         <v>21890</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="19">
         <v>3475</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="19">
         <v>19579</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="19">
         <v>2559</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="19">
         <v>2311</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="19">
         <v>916</v>
       </c>
       <c r="L5" s="1">
         <v>29744800</v>
       </c>
       <c r="M5" s="2">
-        <f>B5/L5</f>
+        <f t="shared" si="0"/>
         <v>1.7092164008498965E-2</v>
       </c>
       <c r="N5" s="1">
-        <f>(D5/0.15)+(E5/0.5)</f>
+        <f t="shared" si="3"/>
         <v>1595233.3333333335</v>
       </c>
       <c r="O5" s="2">
-        <f>B5/N5</f>
+        <f t="shared" si="1"/>
         <v>0.31870133940698325</v>
       </c>
       <c r="P5" s="2">
-        <f>(($D5/0.15)+($E5/0.5))/(($D5/0.15)+($E5/0.5)+(($L5-(($D5/0.15)+($E5/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>2.7554206482956603E-2</v>
       </c>
     </row>
@@ -5282,41 +5278,41 @@
         <f>(E5/$B5)*$B6</f>
         <v>509535.42484997137</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="20">
         <v>27832</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="20">
         <v>4030</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="20">
         <v>25588</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="20">
         <v>3102</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="20">
         <v>2244</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="20">
         <v>928</v>
       </c>
       <c r="L6" s="11">
         <v>30219000</v>
       </c>
       <c r="M6" s="12">
-        <f>B6/L6</f>
+        <f t="shared" si="0"/>
         <v>2.3096859591647638E-2</v>
       </c>
       <c r="N6" s="11">
-        <f>(D6/0.15)+(E6/0.5)</f>
+        <f t="shared" si="3"/>
         <v>2190025.3111540782</v>
       </c>
       <c r="O6" s="12">
-        <f>B6/N6</f>
+        <f t="shared" si="1"/>
         <v>0.31870133940698325</v>
       </c>
       <c r="P6" s="12">
-        <f>(($D6/0.15)+($E6/0.5))/(($D6/0.15)+($E6/0.5)+(($L6-(($D6/0.15)+($E6/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>3.7598308316348257E-2</v>
       </c>
     </row>
@@ -5336,41 +5332,41 @@
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="19">
         <v>23041</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="19">
         <v>4348</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="19">
         <v>20185</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="19">
         <v>3085</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="19">
         <v>2856</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="19">
         <v>1263</v>
       </c>
       <c r="L7" s="1">
         <v>30454900</v>
       </c>
       <c r="M7" s="2">
-        <f>B7/L7</f>
+        <f t="shared" si="0"/>
         <v>2.3564254028087435E-2</v>
       </c>
       <c r="N7" s="1">
-        <f>(D7/0.15)+(E7/0.5)</f>
+        <f t="shared" si="3"/>
         <v>2416660</v>
       </c>
       <c r="O7" s="2">
-        <f>B7/N7</f>
+        <f t="shared" si="1"/>
         <v>0.29695819850537519</v>
       </c>
       <c r="P7" s="2">
-        <f>(($D7/0.15)+($E7/0.5))/(($D7/0.15)+($E7/0.5)+(($L7-(($D7/0.15)+($E7/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>4.1315272184054404E-2</v>
       </c>
     </row>
@@ -5390,41 +5386,41 @@
       <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="19">
         <v>21056</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="19">
         <v>4032</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="19">
         <v>18378</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="19">
         <v>2841</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="19">
         <v>2678</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="19">
         <v>1191</v>
       </c>
       <c r="L8" s="1">
         <v>30236100</v>
       </c>
       <c r="M8" s="2">
-        <f>B8/L8</f>
+        <f t="shared" si="0"/>
         <v>2.8593270957563973E-2</v>
       </c>
       <c r="N8" s="1">
-        <f>(D8/0.15)+(E8/0.5)</f>
+        <f t="shared" si="3"/>
         <v>2751822.666666667</v>
       </c>
       <c r="O8" s="2">
-        <f>B8/N8</f>
+        <f t="shared" si="1"/>
         <v>0.31417322434052192</v>
       </c>
       <c r="P8" s="2">
-        <f>(($D8/0.15)+($E8/0.5))/(($D8/0.15)+($E8/0.5)+(($L8-(($D8/0.15)+($E8/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>4.7675063708869737E-2</v>
       </c>
     </row>
@@ -5444,41 +5440,41 @@
       <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="19">
         <v>22005</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="19">
         <v>4775</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="19">
         <v>19585</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="19">
         <v>3371</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="19">
         <v>2420</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="19">
         <v>1404</v>
       </c>
       <c r="L9" s="1">
         <v>30373800</v>
       </c>
       <c r="M9" s="2">
-        <f>B9/L9</f>
+        <f t="shared" si="0"/>
         <v>3.0167446944406033E-2</v>
       </c>
       <c r="N9" s="1">
-        <f>(D9/0.15)+(E9/0.5)</f>
+        <f t="shared" si="3"/>
         <v>2817832</v>
       </c>
       <c r="O9" s="2">
-        <f>B9/N9</f>
+        <f t="shared" si="1"/>
         <v>0.32517907384116584</v>
       </c>
       <c r="P9" s="2">
-        <f>(($D9/0.15)+($E9/0.5))/(($D9/0.15)+($E9/0.5)+(($L9-(($D9/0.15)+($E9/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>4.8642211030432578E-2</v>
       </c>
     </row>
@@ -5498,41 +5494,41 @@
       <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="19">
         <v>21255</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="19">
         <v>4342</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="19">
         <v>18775</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="19">
         <v>3022</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="19">
         <v>2480</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="19">
         <v>1320</v>
       </c>
       <c r="L10" s="1">
         <v>31419300</v>
       </c>
       <c r="M10" s="2">
-        <f>B10/L10</f>
+        <f t="shared" si="0"/>
         <v>3.5233025560722234E-2</v>
       </c>
       <c r="N10" s="1">
-        <f>(D10/0.15)+(E10/0.5)</f>
+        <f t="shared" si="3"/>
         <v>3429226</v>
       </c>
       <c r="O10" s="2">
-        <f>B10/N10</f>
+        <f t="shared" si="1"/>
         <v>0.32281249471455076</v>
       </c>
       <c r="P10" s="2">
-        <f>(($D10/0.15)+($E10/0.5))/(($D10/0.15)+($E10/0.5)+(($L10-(($D10/0.15)+($E10/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>5.7721968253696798E-2</v>
       </c>
     </row>
@@ -5552,41 +5548,41 @@
       <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="19">
         <v>20174</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="19">
         <v>4496</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="19">
         <v>17641</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="19">
         <v>3166</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="19">
         <v>2533</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="19">
         <v>1330</v>
       </c>
       <c r="L11" s="1">
         <v>31998600</v>
       </c>
       <c r="M11" s="2">
-        <f>B11/L11</f>
+        <f t="shared" si="0"/>
         <v>3.5297669273030692E-2</v>
       </c>
       <c r="N11" s="1">
-        <f>(D11/0.15)+(E11/0.5)</f>
+        <f t="shared" si="3"/>
         <v>3357458</v>
       </c>
       <c r="O11" s="2">
-        <f>B11/N11</f>
+        <f t="shared" si="1"/>
         <v>0.33640808016064533</v>
       </c>
       <c r="P11" s="2">
-        <f>(($D11/0.15)+($E11/0.5))/(($D11/0.15)+($E11/0.5)+(($L11-(($D11/0.15)+($E11/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>5.5367287017810858E-2</v>
       </c>
     </row>
@@ -5606,41 +5602,41 @@
         <f>(E11/$B11)*$B12</f>
         <v>780980.95415396162</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <v>19232</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="20">
         <v>4748</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="20">
         <v>16666</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="20">
         <v>3215</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="20">
         <v>2566</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="20">
         <v>1533</v>
       </c>
       <c r="L12" s="11">
         <v>31901700</v>
       </c>
       <c r="M12" s="12">
-        <f>B12/L12</f>
+        <f t="shared" si="0"/>
         <v>3.4372024061413653E-2</v>
       </c>
       <c r="N12" s="11">
-        <f>(D12/0.15)+(E12/0.5)</f>
+        <f t="shared" si="3"/>
         <v>3259511.4822342396</v>
       </c>
       <c r="O12" s="12">
-        <f>B12/N12</f>
+        <f t="shared" si="1"/>
         <v>0.33640808016064533</v>
       </c>
       <c r="P12" s="12">
-        <f>(($D12/0.15)+($E12/0.5))/(($D12/0.15)+($E12/0.5)+(($L12-(($D12/0.15)+($E12/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>5.3837167747786491E-2</v>
       </c>
     </row>
@@ -5660,41 +5656,41 @@
       <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="19">
         <v>25254</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="19">
         <v>5820</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="19">
         <v>22340</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="19">
         <v>4243</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="19">
         <v>2914</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="19">
         <v>1577</v>
       </c>
       <c r="L13" s="1">
         <v>29409100</v>
       </c>
       <c r="M13" s="2">
-        <f>B13/L13</f>
+        <f t="shared" si="0"/>
         <v>3.9052028113747105E-2</v>
       </c>
       <c r="N13" s="1">
-        <f>(D13/0.15)+(E13/0.5)</f>
+        <f t="shared" si="3"/>
         <v>3789914</v>
       </c>
       <c r="O13" s="2">
-        <f>B13/N13</f>
+        <f t="shared" si="1"/>
         <v>0.30303721931421135</v>
       </c>
       <c r="P13" s="2">
-        <f>(($D13/0.15)+($E13/0.5))/(($D13/0.15)+($E13/0.5)+(($L13-(($D13/0.15)+($E13/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>6.8872106974220498E-2</v>
       </c>
     </row>
@@ -5714,41 +5710,41 @@
       <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="19">
         <v>31259</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="19">
         <v>6224</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="19">
         <v>27992</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="19">
         <v>4465</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="19">
         <v>3267</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="19">
         <v>1759</v>
       </c>
       <c r="L14" s="1">
         <v>28236700</v>
       </c>
       <c r="M14" s="2">
-        <f>B14/L14</f>
+        <f t="shared" si="0"/>
         <v>4.8837151650157416E-2</v>
       </c>
       <c r="N14" s="1">
-        <f>(D14/0.15)+(E14/0.5)</f>
+        <f t="shared" si="3"/>
         <v>4068646</v>
       </c>
       <c r="O14" s="2">
-        <f>B14/N14</f>
+        <f t="shared" si="1"/>
         <v>0.33893339454943977</v>
       </c>
       <c r="P14" s="2">
-        <f>(($D14/0.15)+($E14/0.5))/(($D14/0.15)+($E14/0.5)+(($L14-(($D14/0.15)+($E14/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>7.7638872229034789E-2</v>
       </c>
     </row>
@@ -5768,41 +5764,41 @@
       <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="19">
         <v>34370</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="19">
         <v>6651</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="19">
         <v>30766</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="19">
         <v>4638</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="19">
         <v>3604</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="19">
         <v>2013</v>
       </c>
       <c r="L15" s="1">
         <v>34569000</v>
       </c>
       <c r="M15" s="2">
-        <f>B15/L15</f>
+        <f t="shared" si="0"/>
         <v>4.0877259972808007E-2</v>
       </c>
       <c r="N15" s="1">
-        <f>(D15/0.15)+(E15/0.5)</f>
+        <f t="shared" si="3"/>
         <v>4789848</v>
       </c>
       <c r="O15" s="2">
-        <f>B15/N15</f>
+        <f t="shared" si="1"/>
         <v>0.29501687736228793</v>
       </c>
       <c r="P15" s="2">
-        <f>(($D15/0.15)+($E15/0.5))/(($D15/0.15)+($E15/0.5)+(($L15-(($D15/0.15)+($E15/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>7.4436450016466676E-2</v>
       </c>
     </row>
@@ -5822,41 +5818,41 @@
       <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="19">
         <v>30183</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="19">
         <v>6171</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="19">
         <v>26003</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="19">
         <v>4300</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="19">
         <v>4180</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="19">
         <v>1871</v>
       </c>
       <c r="L16" s="1">
         <v>40694500</v>
       </c>
       <c r="M16" s="2">
-        <f>B16/L16</f>
+        <f t="shared" si="0"/>
         <v>4.4030667534924864E-2</v>
       </c>
       <c r="N16" s="1">
-        <f>(D16/0.15)+(E16/0.5)</f>
+        <f t="shared" si="3"/>
         <v>5465334.666666667</v>
       </c>
       <c r="O16" s="2">
-        <f>B16/N16</f>
+        <f t="shared" si="1"/>
         <v>0.32784927351810844</v>
       </c>
       <c r="P16" s="2">
-        <f>(($D16/0.15)+($E16/0.5))/(($D16/0.15)+($E16/0.5)+(($L16-(($D16/0.15)+($E16/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>7.1984599830261092E-2</v>
       </c>
     </row>
@@ -5876,41 +5872,41 @@
       <c r="E17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="19">
         <v>27572</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="19">
         <v>5862</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="19">
         <v>24305</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="19">
         <v>3836</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="19">
         <v>3267</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="19">
         <v>2026</v>
       </c>
       <c r="L17" s="1">
         <v>43758700</v>
       </c>
       <c r="M17" s="2">
-        <f>B17/L17</f>
+        <f t="shared" si="0"/>
         <v>4.4765475208358566E-2</v>
       </c>
       <c r="N17" s="1">
-        <f>(D17/0.15)+(E17/0.5)</f>
+        <f t="shared" si="3"/>
         <v>6062393.333333334</v>
       </c>
       <c r="O17" s="2">
-        <f>B17/N17</f>
+        <f t="shared" si="1"/>
         <v>0.32311974698661361</v>
       </c>
       <c r="P17" s="2">
-        <f>(($D17/0.15)+($E17/0.5))/(($D17/0.15)+($E17/0.5)+(($L17-(($D17/0.15)+($E17/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>7.4426282452373926E-2</v>
       </c>
     </row>
@@ -5930,41 +5926,41 @@
       <c r="E18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="19">
         <v>25190</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="19">
         <v>5356</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="19">
         <v>22278</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="19">
         <v>3814</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="19">
         <v>2912</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="19">
         <v>1542</v>
       </c>
       <c r="L18" s="1">
         <v>48867900</v>
       </c>
       <c r="M18" s="2">
-        <f>B18/L18</f>
+        <f t="shared" si="0"/>
         <v>4.1536939381475367E-2</v>
       </c>
       <c r="N18" s="1">
-        <f>(D18/0.15)+(E18/0.5)</f>
+        <f t="shared" si="3"/>
         <v>5884006</v>
       </c>
       <c r="O18" s="2">
-        <f>B18/N18</f>
+        <f t="shared" si="1"/>
         <v>0.34497296569717978</v>
       </c>
       <c r="P18" s="2">
-        <f>(($D18/0.15)+($E18/0.5))/(($D18/0.15)+($E18/0.5)+(($L18-(($D18/0.15)+($E18/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>6.4059783089266603E-2</v>
       </c>
     </row>
@@ -5984,41 +5980,41 @@
       <c r="E19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="19">
         <v>25308</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="19">
         <v>5397</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="19">
         <v>22081</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="19">
         <v>3626</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="19">
         <v>3227</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="19">
         <v>1771</v>
       </c>
       <c r="L19" s="1">
         <v>52754000</v>
       </c>
       <c r="M19" s="2">
-        <f>B19/L19</f>
+        <f t="shared" si="0"/>
         <v>4.0072430526595142E-2</v>
       </c>
       <c r="N19" s="1">
-        <f>(D19/0.15)+(E19/0.5)</f>
+        <f t="shared" si="3"/>
         <v>5685215.333333334</v>
       </c>
       <c r="O19" s="2">
-        <f>B19/N19</f>
+        <f t="shared" si="1"/>
         <v>0.37183833435567315</v>
       </c>
       <c r="P19" s="2">
-        <f>(($D19/0.15)+($E19/0.5))/(($D19/0.15)+($E19/0.5)+(($L19-(($D19/0.15)+($E19/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>5.6953082929089745E-2</v>
       </c>
     </row>
@@ -6038,41 +6034,41 @@
       <c r="E20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="19">
         <v>25859</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="19">
         <v>5800</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="19">
         <v>22598</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="19">
         <v>4007</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="19">
         <v>3261</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="19">
         <v>1793</v>
       </c>
       <c r="L20" s="1">
         <v>55342300</v>
       </c>
       <c r="M20" s="2">
-        <f>B20/L20</f>
+        <f t="shared" si="0"/>
         <v>3.7588499213079329E-2</v>
       </c>
       <c r="N20" s="1">
-        <f>(D20/0.15)+(E20/0.5)</f>
+        <f t="shared" si="3"/>
         <v>5377158.666666667</v>
       </c>
       <c r="O20" s="2">
-        <f>B20/N20</f>
+        <f t="shared" si="1"/>
         <v>0.38686490932385847</v>
       </c>
       <c r="P20" s="2">
-        <f>(($D20/0.15)+($E20/0.5))/(($D20/0.15)+($E20/0.5)+(($L20-(($D20/0.15)+($E20/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>5.1061526123744261E-2</v>
       </c>
     </row>
@@ -6092,41 +6088,41 @@
       <c r="E21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="19">
         <v>28234</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="19">
         <v>5891</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="19">
         <v>24878</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="19">
         <v>4045</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="19">
         <v>3356</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="19">
         <v>1846</v>
       </c>
       <c r="L21" s="1">
         <v>56337600</v>
       </c>
       <c r="M21" s="2">
-        <f>B21/L21</f>
+        <f t="shared" si="0"/>
         <v>3.7889508960268097E-2</v>
       </c>
       <c r="N21" s="1">
-        <f>(D21/0.15)+(E21/0.5)</f>
+        <f t="shared" si="3"/>
         <v>5612374</v>
       </c>
       <c r="O21" s="2">
-        <f>B21/N21</f>
+        <f t="shared" si="1"/>
         <v>0.38033887264106064</v>
       </c>
       <c r="P21" s="2">
-        <f>(($D21/0.15)+($E21/0.5))/(($D21/0.15)+($E21/0.5)+(($L21-(($D21/0.15)+($E21/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>5.2421313818112741E-2</v>
       </c>
     </row>
@@ -6146,41 +6142,41 @@
       <c r="E22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="19">
         <v>28245</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="19">
         <v>5498</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="19">
         <v>24661</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="19">
         <v>3739</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="19">
         <v>3584</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="19">
         <v>1759</v>
       </c>
       <c r="L22" s="1">
         <v>46444900</v>
       </c>
       <c r="M22" s="2">
-        <f>B22/L22</f>
+        <f t="shared" si="0"/>
         <v>5.1054109277875501E-2</v>
       </c>
       <c r="N22" s="1">
-        <f>(D22/0.15)+(E22/0.5)</f>
+        <f t="shared" si="3"/>
         <v>6276678.666666667</v>
       </c>
       <c r="O22" s="2">
-        <f>B22/N22</f>
+        <f t="shared" si="1"/>
         <v>0.3777798937824654</v>
       </c>
       <c r="P22" s="2">
-        <f>(($D22/0.15)+($E22/0.5))/(($D22/0.15)+($E22/0.5)+(($L22-(($D22/0.15)+($E22/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>7.2467988337594602E-2</v>
       </c>
     </row>
@@ -6200,41 +6196,41 @@
       <c r="E23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="19">
         <v>24961</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="19">
         <v>5510</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="19">
         <v>21576</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="19">
         <v>3528</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="19">
         <v>3385</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="19">
         <v>1982</v>
       </c>
       <c r="L23" s="1">
         <v>42817700</v>
       </c>
       <c r="M23" s="2">
-        <f>B23/L23</f>
+        <f t="shared" si="0"/>
         <v>5.5241337110587443E-2</v>
       </c>
       <c r="N23" s="1">
-        <f>(D23/0.15)+(E23/0.5)</f>
+        <f t="shared" si="3"/>
         <v>6537114.666666667</v>
       </c>
       <c r="O23" s="2">
-        <f>B23/N23</f>
+        <f t="shared" si="1"/>
         <v>0.3618273688942481</v>
       </c>
       <c r="P23" s="2">
-        <f>(($D23/0.15)+($E23/0.5))/(($D23/0.15)+($E23/0.5)+(($L23-(($D23/0.15)+($E23/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>8.2645466195862244E-2</v>
       </c>
     </row>
@@ -6254,41 +6250,41 @@
       <c r="E24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="19">
         <v>22919</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="19">
         <v>4485</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="19">
         <v>20213</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="19">
         <v>3011</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="19">
         <v>2706</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="19">
         <v>1474</v>
       </c>
       <c r="L24" s="1">
         <v>49948900</v>
       </c>
       <c r="M24" s="2">
-        <f>B24/L24</f>
+        <f t="shared" si="0"/>
         <v>4.4343699260644381E-2</v>
       </c>
       <c r="N24" s="1">
-        <f>(D24/0.15)+(E24/0.5)</f>
+        <f t="shared" si="3"/>
         <v>5097155.333333334</v>
       </c>
       <c r="O24" s="2">
-        <f>B24/N24</f>
+        <f t="shared" si="1"/>
         <v>0.43454022001553017</v>
       </c>
       <c r="P24" s="2">
-        <f>(($D24/0.15)+($E24/0.5))/(($D24/0.15)+($E24/0.5)+(($L24-(($D24/0.15)+($E24/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>5.3767095690706534E-2</v>
       </c>
     </row>
@@ -6308,41 +6304,41 @@
       <c r="E25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="19">
         <v>20137</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="19">
         <v>4677</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="19">
         <v>17141</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="19">
         <v>3164</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="19">
         <v>2996</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="19">
         <v>1513</v>
       </c>
       <c r="L25" s="1">
         <v>58782822.600000001</v>
       </c>
       <c r="M25" s="2">
-        <f>B25/L25</f>
+        <f t="shared" si="0"/>
         <v>3.7907077296420941E-2</v>
       </c>
       <c r="N25" s="1">
-        <f>(D25/0.15)+(E25/0.5)</f>
+        <f t="shared" si="3"/>
         <v>5541620.666666667</v>
       </c>
       <c r="O25" s="2">
-        <f>B25/N25</f>
+        <f t="shared" si="1"/>
         <v>0.40209987908471057</v>
       </c>
       <c r="P25" s="2">
-        <f>(($D25/0.15)+($E25/0.5))/(($D25/0.15)+($E25/0.5)+(($L25-(($D25/0.15)+($E25/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>4.9468144799758806E-2</v>
       </c>
     </row>
@@ -6362,41 +6358,41 @@
       <c r="E26" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="20">
         <v>19958</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="20">
         <v>4324</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="20">
         <v>17158</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="20">
         <v>2870</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="20">
         <v>2800</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="20">
         <v>1454</v>
       </c>
       <c r="L26" s="11">
         <v>49420933.899999999</v>
       </c>
       <c r="M26" s="12">
-        <f>B26/L26</f>
+        <f t="shared" si="0"/>
         <v>4.2656195131108195E-2</v>
       </c>
       <c r="N26" s="11">
-        <f>(D26/0.15)+(E26/0.5)</f>
+        <f t="shared" si="3"/>
         <v>4937436</v>
       </c>
       <c r="O26" s="12">
-        <f>B26/N26</f>
+        <f t="shared" si="1"/>
         <v>0.42696431913244037</v>
       </c>
       <c r="P26" s="12">
-        <f>(($D26/0.15)+($E26/0.5))/(($D26/0.15)+($E26/0.5)+(($L26-(($D26/0.15)+($E26/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>5.2579371445597739E-2</v>
       </c>
     </row>
@@ -6416,29 +6412,29 @@
       <c r="E27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="11">
         <v>50236500</v>
       </c>
       <c r="M27" s="12">
-        <f>B27/L27</f>
+        <f t="shared" si="0"/>
         <v>4.5385307495546069E-2</v>
       </c>
       <c r="N27" s="11">
-        <f>(D27/0.15)+(E27/0.5)</f>
+        <f t="shared" si="3"/>
         <v>5480390.666666667</v>
       </c>
       <c r="O27" s="12">
-        <f>B27/N27</f>
+        <f t="shared" si="1"/>
         <v>0.41602855319559939</v>
       </c>
       <c r="P27" s="12">
-        <f>(($D27/0.15)+($E27/0.5))/(($D27/0.15)+($E27/0.5)+(($L27-(($D27/0.15)+($E27/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>5.7692811105290613E-2</v>
       </c>
     </row>
@@ -6458,30 +6454,42 @@
       <c r="E28" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="11">
         <v>50580400</v>
       </c>
       <c r="M28" s="12">
-        <f>B28/L28</f>
+        <f t="shared" si="0"/>
         <v>4.4417976133047585E-2</v>
       </c>
       <c r="N28" s="11">
-        <f>(D28/0.15)+(E28/0.5)</f>
+        <f t="shared" si="3"/>
         <v>4922934.666666667</v>
       </c>
       <c r="O28" s="12">
-        <f>B28/N28</f>
+        <f t="shared" si="1"/>
         <v>0.45636985906238581</v>
       </c>
       <c r="P28" s="12">
-        <f>(($D28/0.15)+($E28/0.5))/(($D28/0.15)+($E28/0.5)+(($L28-(($D28/0.15)+($E28/0.5)))/0.5))</f>
+        <f t="shared" si="2"/>
         <v>5.1153822350645375E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="1">
+        <f>((C25*1000)/0.029)/100</f>
+        <v>732407586.20689654</v>
       </c>
     </row>
   </sheetData>
@@ -6504,7 +6512,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="40"/>
+    <col min="1" max="1" width="9.140625" style="34"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
@@ -6514,41 +6522,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="34">
         <v>1990</v>
       </c>
       <c r="B3">
@@ -6571,7 +6579,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="34">
         <v>1991</v>
       </c>
       <c r="B4">
@@ -6594,7 +6602,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="A5" s="34">
         <v>1992</v>
       </c>
       <c r="B5">
@@ -6617,7 +6625,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="34">
         <v>1994</v>
       </c>
       <c r="B6">
@@ -6640,7 +6648,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+      <c r="A7" s="34">
         <v>1995</v>
       </c>
       <c r="B7">
@@ -6663,7 +6671,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="34">
         <v>1996</v>
       </c>
       <c r="B8">
@@ -6686,7 +6694,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="34">
         <v>1997</v>
       </c>
       <c r="B9">
@@ -6709,7 +6717,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="34">
         <v>1998</v>
       </c>
       <c r="B10">
@@ -6732,7 +6740,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="34">
         <v>2000</v>
       </c>
       <c r="B11">
@@ -6755,7 +6763,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="34">
         <v>2001</v>
       </c>
       <c r="B12">
@@ -6778,7 +6786,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="A13" s="34">
         <v>2002</v>
       </c>
       <c r="B13">
@@ -6801,7 +6809,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+      <c r="A14" s="34">
         <v>2003</v>
       </c>
       <c r="B14">
@@ -6824,7 +6832,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="A15" s="34">
         <v>2004</v>
       </c>
       <c r="B15">
@@ -6847,7 +6855,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="A16" s="34">
         <v>2005</v>
       </c>
       <c r="B16">
@@ -6870,7 +6878,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+      <c r="A17" s="34">
         <v>2006</v>
       </c>
       <c r="B17">
@@ -6893,7 +6901,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="A18" s="34">
         <v>2007</v>
       </c>
       <c r="B18">
@@ -6916,7 +6924,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
+      <c r="A19" s="34">
         <v>2008</v>
       </c>
       <c r="B19">
@@ -6939,7 +6947,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="34">
         <v>2009</v>
       </c>
       <c r="B20">
@@ -6962,7 +6970,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+      <c r="A21" s="34">
         <v>2010</v>
       </c>
       <c r="B21">
@@ -6985,7 +6993,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+      <c r="A22" s="34">
         <v>2011</v>
       </c>
       <c r="B22">
@@ -7008,7 +7016,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+      <c r="A23" s="34">
         <v>2012</v>
       </c>
       <c r="B23">
@@ -7031,7 +7039,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
+      <c r="A24" s="34">
         <v>2013</v>
       </c>
       <c r="B24">
@@ -7054,7 +7062,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="A25" s="34">
         <v>2014</v>
       </c>
       <c r="B25">
@@ -7077,7 +7085,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="A26" s="34">
         <v>2015</v>
       </c>
       <c r="B26">
@@ -7118,666 +7126,666 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="6.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="29" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="32">
         <v>1983</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="30">
         <v>785</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="30">
         <v>543</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="32">
         <v>1984</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="30">
         <v>825</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="32">
         <v>1985</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="32">
         <v>1986</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="32">
         <v>1987</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="32">
         <v>1988</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="32">
         <v>1989</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="32">
         <v>1990</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="32">
         <v>1991</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="32">
         <v>1992</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="32">
         <v>1993</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="32">
         <v>1994</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="32">
         <v>1995</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="32">
         <v>1996</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="32">
         <v>1997</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="32">
         <v>1998</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="32">
         <v>1999</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="32">
         <v>2000</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="A21" s="32">
         <v>2001</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="A22" s="32">
         <v>2002</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="32">
         <v>2003</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="A24" s="32">
         <v>2004</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="A25" s="32">
         <v>2005</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+      <c r="A26" s="32">
         <v>2006</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+      <c r="A27" s="32">
         <v>2007</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+      <c r="A28" s="32">
         <v>2008</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
+      <c r="A29" s="32">
         <v>2009</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
+      <c r="A30" s="32">
         <v>2010</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
+      <c r="A31" s="32">
         <v>2011</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
+      <c r="A32" s="32">
         <v>2012</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
+      <c r="A33" s="32">
         <v>2013</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38">
+      <c r="A34" s="32">
         <v>2014</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
+      <c r="A35" s="32">
         <v>2015</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="30" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38">
+      <c r="A36" s="32">
         <v>2016</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="30" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38">
+      <c r="A37" s="32">
         <v>2017</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
+      <c r="A38" s="32">
         <v>2018</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="30" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="A39" s="32">
         <v>2019</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="30">
         <v>245</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="30">
         <v>239</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="30" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7794,521 +7802,521 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="40"/>
-    <col min="21" max="21" width="11.5703125" style="60" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="34"/>
+    <col min="21" max="21" width="11.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="41" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="26">
         <v>1983</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="39">
         <v>2.2238922542700515E-3</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="39">
         <v>2E-3</v>
       </c>
-      <c r="T2" s="40">
+      <c r="T2" s="34">
         <v>2010</v>
       </c>
-      <c r="U2" s="60">
+      <c r="U2" s="54">
         <v>107880</v>
       </c>
-      <c r="V2" s="60">
+      <c r="V2" s="54">
         <v>13015</v>
       </c>
       <c r="W2" s="2">
         <f>V2/U2</f>
         <v>0.12064330737856878</v>
       </c>
-      <c r="X2" s="45">
+      <c r="X2" s="39">
         <v>4.3490289912774475E-2</v>
       </c>
-      <c r="Y2" s="45">
+      <c r="Y2" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="26">
         <v>1984</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="39">
         <v>8.0038746077462052E-3</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="39">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="T3" s="40">
+      <c r="T3" s="34">
         <v>2011</v>
       </c>
-      <c r="U3" s="60">
+      <c r="U3" s="54">
         <v>107575</v>
       </c>
-      <c r="V3" s="60">
+      <c r="V3" s="54">
         <v>11201</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W7" si="0">V3/U3</f>
         <v>0.10412270508947247</v>
       </c>
-      <c r="X3" s="45">
+      <c r="X3" s="39">
         <v>4.4835046059771962E-2</v>
       </c>
-      <c r="Y3" s="45">
+      <c r="Y3" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="26">
         <v>1985</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="39">
         <v>8.8645821911181328E-3</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="39">
         <v>0.01</v>
       </c>
-      <c r="T4" s="40">
+      <c r="T4" s="34">
         <v>2012</v>
       </c>
-      <c r="U4" s="60">
+      <c r="U4" s="54">
         <v>105876</v>
       </c>
-      <c r="V4" s="60">
+      <c r="V4" s="54">
         <v>11627</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
         <v>0.10981714458423061</v>
       </c>
-      <c r="X4" s="45">
+      <c r="X4" s="39">
         <v>3.8487537036942729E-2</v>
       </c>
-      <c r="Y4" s="45">
+      <c r="Y4" s="39">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="26">
         <v>1986</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="39">
         <v>1.2500855660049914E-2</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="39">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="T5" s="40">
+      <c r="T5" s="34">
         <v>2013</v>
       </c>
-      <c r="U5" s="60">
+      <c r="U5" s="54">
         <v>104147</v>
       </c>
-      <c r="V5" s="60">
+      <c r="V5" s="54">
         <v>10982</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
         <v>0.10544710841406858</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="39">
         <v>4.3545816916676257E-2</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="39">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="26">
         <v>1987</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="39">
         <v>1.0020389828229018E-2</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="39">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="T6" s="40">
+      <c r="T6" s="34">
         <v>2014</v>
       </c>
-      <c r="U6" s="60">
+      <c r="U6" s="54">
         <v>104823</v>
       </c>
-      <c r="V6" s="60">
+      <c r="V6" s="54">
         <v>11116</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
         <v>0.10604542896120127</v>
       </c>
-      <c r="X6" s="45">
+      <c r="X6" s="39">
         <v>4.6475908243209622E-2</v>
       </c>
-      <c r="Y6" s="45">
+      <c r="Y6" s="39">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="26">
         <v>1988</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="39">
         <v>1.4559876231324292E-2</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="39">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="34">
         <v>2015</v>
       </c>
-      <c r="U7" s="60">
+      <c r="U7" s="54">
         <v>107597</v>
       </c>
-      <c r="V7" s="60">
+      <c r="V7" s="54">
         <v>12017</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
         <v>0.11168527003540991</v>
       </c>
-      <c r="X7" s="45">
+      <c r="X7" s="39">
         <v>5.2588860729277292E-2</v>
       </c>
-      <c r="Y7" s="45">
+      <c r="Y7" s="39">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="26">
         <v>1989</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="39">
         <v>1.3782566213276632E-2</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="39">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="26">
         <v>1990</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="39">
         <v>1.5238916581545796E-2</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="39">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="26">
         <v>1991</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="39">
         <v>1.6982267662354375E-2</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="39">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="26">
         <v>1992</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="39">
         <v>1.7388481348000324E-2</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="39">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="26">
         <v>1993</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="39">
         <v>2.0592143849895762E-2</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="26">
         <v>1994</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="39">
         <v>1.9538054927121743E-2</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="26">
         <v>1995</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="39">
         <v>3.1354767678371219E-2</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="26">
         <v>1996</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="39">
         <v>3.0115094653945178E-2</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="26">
         <v>1997</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="39">
         <v>3.5723494062566641E-2</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="A17" s="26">
         <v>1998</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="39">
         <v>3.3058620595901068E-2</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+      <c r="A18" s="27">
         <v>1999</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="39">
         <v>3.644901140064636E-2</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="A19" s="27">
         <v>2000</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="39">
         <v>3.7751552886691533E-2</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
+      <c r="A20" s="27">
         <v>2001</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="39">
         <v>4.3463271805841336E-2</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+      <c r="A21" s="27">
         <v>2002</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="39">
         <v>4.5696403540744598E-2</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+      <c r="A22" s="27">
         <v>2003</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="39">
         <v>4.5292290432368008E-2</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="26">
         <v>2004</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="39">
         <v>5.670353216274706E-2</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
+      <c r="A24" s="27">
         <v>2005</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="39">
         <v>4.8448034969785884E-2</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="A25" s="27">
         <v>2006</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="39">
         <v>4.7777127880918979E-2</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="26">
         <v>2007</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="39">
         <v>3.5124031224036588E-2</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
+      <c r="A27" s="27">
         <v>2008</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="39">
         <v>4.1865323674064925E-2</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
+      <c r="A28" s="27">
         <v>2009</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="39">
         <v>3.9977224227062076E-2</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="A29" s="26">
         <v>2010</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="39">
         <v>4.3490289912774475E-2</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
+      <c r="A30" s="27">
         <v>2011</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="39">
         <v>4.4835046059771962E-2</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
+      <c r="A31" s="27">
         <v>2012</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="39">
         <v>3.8487537036942729E-2</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="39">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
+      <c r="A32" s="26">
         <v>2013</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="39">
         <v>4.3545816916676257E-2</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="39">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
+      <c r="A33" s="27">
         <v>2014</v>
       </c>
-      <c r="B33" s="45">
+      <c r="B33" s="39">
         <v>4.6475908243209622E-2</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="39">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
+      <c r="A34" s="27">
         <v>2015</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="39">
         <v>5.2588860729277292E-2</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="39">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -8331,1795 +8339,1795 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="20.5703125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="15" style="43" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="43" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="25"/>
-    <col min="11" max="11" width="10.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="54" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="57" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="57" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="9.140625" style="26"/>
+    <col min="2" max="2" width="20.5703125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="15" style="37" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="37" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="21"/>
+    <col min="11" max="11" width="10.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="48" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="51" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="51" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:19" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="N3" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="Q3" s="58" t="s">
+      <c r="Q3" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="S3" s="55" t="s">
+      <c r="S3" s="49" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="26">
         <v>1977</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="28">
+      <c r="D4" s="43"/>
+      <c r="E4" s="24">
         <v>10717.2</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="24">
         <v>10717.2</v>
       </c>
-      <c r="H4" s="45" t="str">
+      <c r="H4" s="39" t="str">
         <f t="shared" ref="H4:H8" si="0">IF(ISBLANK(G4),"NA",IF(F4=0,"NA",(G4/1000000)/F4))</f>
         <v>NA</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="56"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="50"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="26">
         <v>1978</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="28">
+      <c r="D5" s="43"/>
+      <c r="E5" s="24">
         <v>11400</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="24">
         <v>11400</v>
       </c>
-      <c r="H5" s="45" t="str">
+      <c r="H5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="56"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="50"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="26">
         <v>1979</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="28">
+      <c r="D6" s="43"/>
+      <c r="E6" s="24">
         <v>12172.4</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="24">
         <v>12172.4</v>
       </c>
-      <c r="H6" s="45" t="str">
+      <c r="H6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="56"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="50"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="26">
         <v>1980</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="28">
+      <c r="D7" s="43"/>
+      <c r="E7" s="24">
         <v>12969.1</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="24">
         <v>12969.1</v>
       </c>
-      <c r="H7" s="45" t="str">
+      <c r="H7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="56"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="50"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="26">
         <v>1981</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="28">
+      <c r="D8" s="43"/>
+      <c r="E8" s="24">
         <v>14867.9</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="24">
         <v>14867.9</v>
       </c>
-      <c r="H8" s="45" t="str">
+      <c r="H8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>NA</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="56"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="50"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="26">
         <v>1982</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>18545</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>523</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="39">
         <f>C9/B9</f>
         <v>2.8201671609598276E-2</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="24">
         <v>17192.2</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="24">
         <v>17192.2</v>
       </c>
-      <c r="H9" s="45" t="str">
+      <c r="H9" s="39" t="str">
         <f>IF(ISBLANK(G9),"NA",IF(F9=0,"NA",(G9/1000000)/F9))</f>
         <v>NA</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="56"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="50"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="26">
         <v>1983</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>20680</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>641</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="39">
         <f t="shared" ref="D10:D31" si="1">C10/B10</f>
         <v>3.0996131528046422E-2</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="24">
         <v>17019.7</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="24">
         <v>17019.7</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="40">
         <v>37849979</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="39">
         <f>IF(ISBLANK(G10),"NA",IF(F10=0,"NA",(G10/1000000)/F10))</f>
         <v>2.2238922542700515E-3</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="25">
         <v>2E-3</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="56"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="50"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="26">
         <v>1984</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>23396</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <v>621</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="39">
         <f t="shared" si="1"/>
         <v>2.6542998803214226E-2</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="24">
         <v>18610.400000000001</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="24">
         <v>18610.400000000001</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="40">
         <v>148955308</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="39">
         <f t="shared" ref="H11:H42" si="2">IF(ISBLANK(G11),"NA",IF(F11=0,"NA",(G11/1000000)/F11))</f>
         <v>8.0038746077462052E-3</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="25">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="56"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="50"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="26">
         <v>1985</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>27196</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>739</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="39">
         <f t="shared" si="1"/>
         <v>2.7173113693190174E-2</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>21704.9</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="24">
         <v>21704.9</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="40">
         <v>192404870</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="39">
         <f t="shared" si="2"/>
         <v>8.8645821911181328E-3</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="25">
         <v>0.01</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="56"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="26">
         <v>1986</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>27891</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>868</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="39">
         <f t="shared" si="1"/>
         <v>3.1121150191818148E-2</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="24">
         <v>24201.200000000001</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="24">
         <v>24201.200000000001</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="40">
         <v>302535708</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="39">
         <f t="shared" si="2"/>
         <v>1.2500855660049914E-2</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="25">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="56"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="50"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="26">
         <v>1987</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="23">
         <v>30752</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="22">
         <v>963</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="39">
         <f t="shared" si="1"/>
         <v>3.1315036420395424E-2</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="24">
         <v>26768.2</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="24">
         <v>26768.2</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="40">
         <v>268227799</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="39">
         <f t="shared" si="2"/>
         <v>1.0020389828229018E-2</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="25">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="56"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="50"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="26">
         <v>1988</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="23">
         <v>30343.265026505775</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="23">
         <v>816.27648908677645</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="39">
         <f t="shared" si="1"/>
         <v>2.6901405909144381E-2</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="24">
         <v>26719.200000000001</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="24">
         <v>26719.200000000001</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="40">
         <v>389028245</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="39">
         <f t="shared" si="2"/>
         <v>1.4559876231324292E-2</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="25">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="56"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="50"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="26">
         <v>1989</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="23">
         <v>28554.365568516918</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="23">
         <v>901</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="39">
         <f t="shared" si="1"/>
         <v>3.1553844116691293E-2</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="24">
         <v>28547.9</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="24">
         <v>28547.9</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="40">
         <v>393463322</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="39">
         <f t="shared" si="2"/>
         <v>1.3782566213276632E-2</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="25">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="56"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="50"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="A17" s="26">
         <v>1990</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="23">
         <v>28125</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="23">
         <v>895.34709070724216</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="39">
         <f t="shared" si="1"/>
         <v>3.1834563225146391E-2</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="24">
         <v>29370</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="24">
         <v>29370</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="40">
         <v>447566980</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="39">
         <f t="shared" si="2"/>
         <v>1.5238916581545796E-2</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="25">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="53">
+      <c r="J17" s="25"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="47">
         <v>1459</v>
       </c>
-      <c r="S17" s="56"/>
+      <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="26">
         <v>1991</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="23">
         <v>26372</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="23">
         <v>1887</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="39">
         <f t="shared" si="1"/>
         <v>7.1553162445017443E-2</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="24">
         <v>26420.6</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="24">
         <v>26420.6</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="40">
         <v>448681701</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="39">
         <f t="shared" si="2"/>
         <v>1.6982267662354375E-2</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="25">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="53">
+      <c r="J18" s="25"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="47">
         <v>1623</v>
       </c>
-      <c r="S18" s="56"/>
+      <c r="S18" s="50"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="26">
         <v>1992</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="23">
         <v>24722</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="23">
         <v>2025</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="39">
         <f t="shared" si="1"/>
         <v>8.1910848636841685E-2</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="24">
         <v>29744.799999999999</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="24">
         <v>29744.799999999999</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="40">
         <v>517216900</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="39">
         <f t="shared" si="2"/>
         <v>1.7388481348000324E-2</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="25">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="53">
+      <c r="J19" s="25"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="47">
         <v>1854</v>
       </c>
-      <c r="S19" s="56"/>
+      <c r="S19" s="50"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="26">
         <v>1993</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="23">
         <v>22809</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="23">
         <v>1614</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="39">
         <f t="shared" si="1"/>
         <v>7.0761541496777589E-2</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="24">
         <v>30219</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="24">
         <v>30219</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="40">
         <v>622273995</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="39">
         <f t="shared" si="2"/>
         <v>2.0592143849895762E-2</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="59"/>
-      <c r="S20" s="56"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="53"/>
+      <c r="S20" s="50"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="26">
         <v>1994</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="23">
         <v>22463</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="23">
         <v>1164</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="39">
         <f t="shared" si="1"/>
         <v>5.1818546053510217E-2</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="24">
         <v>30454.9</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="24">
         <v>30454.9</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="40">
         <v>595029509</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="39">
         <f t="shared" si="2"/>
         <v>1.9538054927121743E-2</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="53">
+      <c r="J21" s="25"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="47">
         <v>2374</v>
       </c>
-      <c r="S21" s="56"/>
+      <c r="S21" s="50"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="26">
         <v>1995</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="24">
         <v>23451</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="24">
         <v>1978</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="39">
         <f t="shared" si="1"/>
         <v>8.4346083322672807E-2</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="24">
         <v>30236.1</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="24">
         <v>30236.1</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="40">
         <v>948045891</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="39">
         <f t="shared" si="2"/>
         <v>3.1354767678371219E-2</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="53">
+      <c r="J22" s="25"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="47">
         <v>2287</v>
       </c>
-      <c r="S22" s="56"/>
+      <c r="S22" s="50"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="26">
         <v>1996</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="24">
         <v>23653</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="24">
         <v>2301</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="39">
         <f t="shared" si="1"/>
         <v>9.7281528770134865E-2</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="24">
         <v>30373.8</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="24">
         <v>30373.8</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="40">
         <v>914709862</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="39">
         <f t="shared" si="2"/>
         <v>3.0115094653945178E-2</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="53">
+      <c r="J23" s="25"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="47">
         <v>2080</v>
       </c>
-      <c r="S23" s="56"/>
+      <c r="S23" s="50"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="26">
         <v>1997</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="24">
         <v>23928</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="24">
         <v>2209</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="39">
         <f t="shared" si="1"/>
         <v>9.2318622534269479E-2</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="24">
         <v>31419.3</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="24">
         <v>31419.3</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="40">
         <v>1122407177</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="39">
         <f t="shared" si="2"/>
         <v>3.5723494062566641E-2</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="56">
+      <c r="J24" s="25"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="50">
         <v>24222</v>
       </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="53">
+      <c r="N24" s="53"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="47">
         <v>1967</v>
       </c>
-      <c r="S24" s="56">
+      <c r="S24" s="50">
         <v>3108</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="26">
         <v>1998</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="24">
         <v>24164</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="24">
         <v>3436</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="39">
         <f t="shared" si="1"/>
         <v>0.14219500082767753</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="24">
         <v>31998.6</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="24">
         <v>31998.6</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="40">
         <v>1057829577</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="39">
         <f t="shared" si="2"/>
         <v>3.3058620595901068E-2</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="56">
+      <c r="J25" s="25"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="50">
         <v>24151</v>
       </c>
-      <c r="N25" s="59"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="53">
+      <c r="N25" s="53"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="47">
         <v>1798</v>
       </c>
-      <c r="S25" s="56">
+      <c r="S25" s="50">
         <v>2964</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
+      <c r="A26" s="27">
         <v>1999</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="24">
         <v>22535</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="24">
         <v>2741</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="39">
         <f t="shared" si="1"/>
         <v>0.12163301530951853</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="24">
         <v>31901.7</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="24">
         <v>31901.7</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="40">
         <v>1162785427</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="39">
         <f t="shared" si="2"/>
         <v>3.644901140064636E-2</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="56">
+      <c r="J26" s="25"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="50">
         <v>26408</v>
       </c>
-      <c r="N26" s="59"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="59"/>
-      <c r="S26" s="56">
+      <c r="N26" s="53"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="53"/>
+      <c r="S26" s="50">
         <v>3758</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
+      <c r="A27" s="27">
         <v>2000</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="24">
         <v>19118</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="24">
         <v>2987</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="39">
         <f t="shared" si="1"/>
         <v>0.15624019248875406</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="24">
         <v>29409.1</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="24">
         <v>29409.1</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="40">
         <v>1110239194</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="39">
         <f t="shared" si="2"/>
         <v>3.7751552886691533E-2</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="56">
+      <c r="J27" s="25"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="50">
         <v>27798</v>
       </c>
-      <c r="N27" s="59"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="53">
+      <c r="N27" s="53"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="47">
         <v>1611</v>
       </c>
-      <c r="S27" s="56">
+      <c r="S27" s="50">
         <v>4171</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
+      <c r="A28" s="27">
         <v>2001</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="24">
         <v>16899</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="44">
         <v>2865</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="45">
         <f t="shared" si="1"/>
         <v>0.16953665897390377</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="24">
         <v>28236.7</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="24">
         <v>28236.7</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="40">
         <v>1227259367</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="39">
         <f t="shared" si="2"/>
         <v>4.3463271805841336E-2</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="56">
+      <c r="J28" s="25"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="50">
         <v>28368</v>
       </c>
-      <c r="N28" s="59"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="53">
+      <c r="N28" s="53"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="47">
         <v>1417</v>
       </c>
-      <c r="S28" s="56">
+      <c r="S28" s="50">
         <v>3629</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
+      <c r="A29" s="27">
         <v>2002</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="24">
         <v>16401</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="44">
         <v>2807</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="45">
         <f t="shared" si="1"/>
         <v>0.17114810072556552</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="24">
         <v>34569</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="24">
         <v>34569</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="40">
         <v>1579678974</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="39">
         <f t="shared" si="2"/>
         <v>4.5696403540744598E-2</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="56">
+      <c r="J29" s="25"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="50">
         <v>30068</v>
       </c>
-      <c r="N29" s="59"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="53">
+      <c r="N29" s="53"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="47">
         <v>1625</v>
       </c>
-      <c r="S29" s="56">
+      <c r="S29" s="50">
         <v>4095</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
+      <c r="A30" s="27">
         <v>2003</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="24">
         <v>20699</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="44">
         <v>3527</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="45">
         <f t="shared" si="1"/>
         <v>0.17039470505821538</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="24">
         <v>40694.5</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="24">
         <v>40694.5</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="40">
         <v>1843147113</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="39">
         <f t="shared" si="2"/>
         <v>4.5292290432368008E-2</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="56">
+      <c r="J30" s="25"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="50">
         <v>34710</v>
       </c>
-      <c r="N30" s="59"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="53">
+      <c r="N30" s="53"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="47">
         <v>2929</v>
       </c>
-      <c r="S30" s="56">
+      <c r="S30" s="50">
         <v>5135</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="A31" s="26">
         <v>2004</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="24">
         <v>20266</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="24">
         <v>3510</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="45">
         <f t="shared" si="1"/>
         <v>0.17319648672653706</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="24">
         <v>43758.7</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="24">
         <v>43758.7</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="40">
         <v>2481272852.8499999</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="39">
         <f t="shared" si="2"/>
         <v>5.670353216274706E-2</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="56">
+      <c r="J31" s="25"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="50">
         <v>40861</v>
       </c>
-      <c r="N31" s="59"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="53">
+      <c r="N31" s="53"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="47">
         <v>2929</v>
       </c>
-      <c r="S31" s="56">
+      <c r="S31" s="50">
         <v>6109</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
+      <c r="A32" s="27">
         <v>2005</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="E32" s="28">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="E32" s="24">
         <v>48867.9</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="24">
         <v>48867.9</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="40">
         <v>2367553728.0999999</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="39">
         <f t="shared" si="2"/>
         <v>4.8448034969785884E-2</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="56">
+      <c r="J32" s="25"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="50">
         <v>43069</v>
       </c>
-      <c r="N32" s="59"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="53">
+      <c r="N32" s="53"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="47">
         <v>1753</v>
       </c>
-      <c r="S32" s="56">
+      <c r="S32" s="50">
         <v>5380</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
+      <c r="A33" s="27">
         <v>2006</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="E33" s="28">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="E33" s="24">
         <v>52754</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="24">
         <v>52754</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="40">
         <v>2520434604.23</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="39">
         <f t="shared" si="2"/>
         <v>4.7777127880918979E-2</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="56">
+      <c r="J33" s="25"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="50">
         <v>45688</v>
       </c>
-      <c r="N33" s="59"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="53">
+      <c r="N33" s="53"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="47">
         <v>1760</v>
       </c>
-      <c r="S33" s="56">
+      <c r="S33" s="50">
         <v>4580</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="A34" s="26">
         <v>2007</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="E34" s="28">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="E34" s="24">
         <v>55342.3</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="24">
         <v>55342.3</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="40">
         <v>1943844673.21</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="39">
         <f t="shared" si="2"/>
         <v>3.5124031224036588E-2</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="56">
+      <c r="J34" s="25"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="50">
         <v>47455</v>
       </c>
-      <c r="N34" s="59"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="53">
+      <c r="N34" s="53"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="47">
         <v>1990</v>
       </c>
-      <c r="S34" s="56">
+      <c r="S34" s="50">
         <v>3613</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
+      <c r="A35" s="27">
         <v>2008</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="24">
         <v>36360</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="28">
+      <c r="C35" s="24"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="24">
         <v>56337.599999999999</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="24">
         <v>56337.599999999999</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="40">
         <v>2358591859.02</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="39">
         <f t="shared" si="2"/>
         <v>4.1865323674064925E-2</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="56">
+      <c r="J35" s="25"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="50">
         <v>43467</v>
       </c>
-      <c r="N35" s="59"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="53">
+      <c r="N35" s="53"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="47">
         <v>1686</v>
       </c>
-      <c r="S35" s="56">
+      <c r="S35" s="50">
         <v>3524</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
+      <c r="A36" s="27">
         <v>2009</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="24">
         <v>39573</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="E36" s="28">
+      <c r="C36" s="24"/>
+      <c r="E36" s="24">
         <v>59749.3</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="24">
         <v>59749.3</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="40">
         <v>2388611163.5100002</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="39">
         <f t="shared" si="2"/>
         <v>3.9977224227062076E-2</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="53">
+      <c r="J36" s="25"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="47">
         <v>45214</v>
       </c>
-      <c r="O36" s="53">
+      <c r="O36" s="47">
         <v>14640</v>
       </c>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="53">
+      <c r="P36" s="50"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="47">
         <v>1767</v>
       </c>
-      <c r="S36" s="56"/>
+      <c r="S36" s="50"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="A37" s="26">
         <v>2010</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="24">
         <v>34199</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="E37" s="28">
+      <c r="C37" s="24"/>
+      <c r="E37" s="24">
         <v>59867.8</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="24">
         <v>59867.8</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="40">
         <v>2603667978.4400001</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="39">
         <f t="shared" si="2"/>
         <v>4.3490289912774475E-2</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J37" s="29"/>
-      <c r="K37" s="59">
+      <c r="J37" s="25"/>
+      <c r="K37" s="53">
         <f>SUM(L37:M37)</f>
         <v>107880</v>
       </c>
-      <c r="L37" s="53">
+      <c r="L37" s="47">
         <v>55559</v>
       </c>
-      <c r="M37" s="56">
+      <c r="M37" s="50">
         <v>52321</v>
       </c>
-      <c r="N37" s="59"/>
-      <c r="O37" s="53">
+      <c r="N37" s="53"/>
+      <c r="O37" s="47">
         <v>13015</v>
       </c>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="59">
+      <c r="P37" s="50"/>
+      <c r="Q37" s="53">
         <f>SUM(O37:P37)</f>
         <v>13015</v>
       </c>
-      <c r="R37" s="53">
+      <c r="R37" s="47">
         <v>2738</v>
       </c>
-      <c r="S37" s="56">
+      <c r="S37" s="50">
         <v>5660</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="31">
+      <c r="A38" s="27">
         <v>2011</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="24">
         <v>31309</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="E38" s="28">
+      <c r="C38" s="24"/>
+      <c r="E38" s="24">
         <v>54781.5</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="24">
         <v>53550.2</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="40">
         <v>2400925683.5100002</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="39">
         <f t="shared" si="2"/>
         <v>4.4835046059771962E-2</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="59">
+      <c r="J38" s="25"/>
+      <c r="K38" s="53">
         <f t="shared" ref="K38:K44" si="3">SUM(L38:M38)</f>
         <v>107575</v>
       </c>
-      <c r="L38" s="53">
+      <c r="L38" s="47">
         <v>51568</v>
       </c>
-      <c r="M38" s="56">
+      <c r="M38" s="50">
         <v>56007</v>
       </c>
-      <c r="N38" s="59"/>
-      <c r="O38" s="53">
+      <c r="N38" s="53"/>
+      <c r="O38" s="47">
         <v>11201</v>
       </c>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="59">
+      <c r="P38" s="50"/>
+      <c r="Q38" s="53">
         <f t="shared" ref="Q38:Q42" si="4">SUM(O38:P38)</f>
         <v>11201</v>
       </c>
-      <c r="R38" s="53">
+      <c r="R38" s="47">
         <v>2800</v>
       </c>
-      <c r="S38" s="56">
+      <c r="S38" s="50">
         <v>6415</v>
       </c>
-      <c r="T38" s="25" t="s">
+      <c r="T38" s="21" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="31">
+      <c r="A39" s="27">
         <v>2012</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="24">
         <v>30621</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="E39" s="28">
+      <c r="C39" s="24"/>
+      <c r="E39" s="24">
         <v>55080.2</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="24">
         <v>58910.1</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="40">
         <v>2267304655.5999999</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="39">
         <f t="shared" si="2"/>
         <v>3.8487537036942729E-2</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="25">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J39" s="29"/>
-      <c r="K39" s="59">
+      <c r="J39" s="25"/>
+      <c r="K39" s="53">
         <f t="shared" si="3"/>
         <v>105876</v>
       </c>
-      <c r="L39" s="53">
+      <c r="L39" s="47">
         <v>48716</v>
       </c>
-      <c r="M39" s="56">
+      <c r="M39" s="50">
         <v>57160</v>
       </c>
-      <c r="N39" s="59"/>
-      <c r="O39" s="53">
+      <c r="N39" s="53"/>
+      <c r="O39" s="47">
         <v>11627</v>
       </c>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="59">
+      <c r="P39" s="50"/>
+      <c r="Q39" s="53">
         <f t="shared" si="4"/>
         <v>11627</v>
       </c>
-      <c r="R39" s="53">
+      <c r="R39" s="47">
         <v>2370</v>
       </c>
-      <c r="S39" s="56">
+      <c r="S39" s="50">
         <v>5202</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
+      <c r="A40" s="26">
         <v>2013</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="24">
         <v>29362</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28">
+      <c r="C40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24">
         <v>49538.1</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="40">
         <v>2157177033</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="39">
         <f t="shared" si="2"/>
         <v>4.3545816916676257E-2</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="25">
         <v>2.7E-2</v>
       </c>
-      <c r="J40" s="29"/>
-      <c r="K40" s="59">
+      <c r="J40" s="25"/>
+      <c r="K40" s="53">
         <f t="shared" si="3"/>
         <v>104147</v>
       </c>
-      <c r="L40" s="53">
+      <c r="L40" s="47">
         <v>49151</v>
       </c>
-      <c r="M40" s="56">
+      <c r="M40" s="50">
         <v>54996</v>
       </c>
-      <c r="N40" s="59"/>
-      <c r="O40" s="53">
+      <c r="N40" s="53"/>
+      <c r="O40" s="47">
         <v>10982</v>
       </c>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="59">
+      <c r="P40" s="50"/>
+      <c r="Q40" s="53">
         <f t="shared" si="4"/>
         <v>10982</v>
       </c>
-      <c r="R40" s="53">
+      <c r="R40" s="47">
         <v>1878</v>
       </c>
-      <c r="S40" s="56">
+      <c r="S40" s="50">
         <v>4605</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="31">
+      <c r="A41" s="27">
         <v>2014</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="24">
         <v>26554</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="F41" s="28">
+      <c r="C41" s="24"/>
+      <c r="F41" s="24">
         <v>50236.5</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="40">
         <v>2334786964.46</v>
       </c>
-      <c r="H41" s="45">
+      <c r="H41" s="39">
         <f t="shared" si="2"/>
         <v>4.6475908243209622E-2</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="25">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J41" s="29"/>
-      <c r="K41" s="59">
+      <c r="J41" s="25"/>
+      <c r="K41" s="53">
         <f t="shared" si="3"/>
         <v>104823</v>
       </c>
-      <c r="L41" s="53">
+      <c r="L41" s="47">
         <v>48201</v>
       </c>
-      <c r="M41" s="56">
+      <c r="M41" s="50">
         <v>56622</v>
       </c>
-      <c r="N41" s="59"/>
-      <c r="O41" s="53">
+      <c r="N41" s="53"/>
+      <c r="O41" s="47">
         <v>11116</v>
       </c>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="59">
+      <c r="P41" s="50"/>
+      <c r="Q41" s="53">
         <f t="shared" si="4"/>
         <v>11116</v>
       </c>
-      <c r="R41" s="53">
+      <c r="R41" s="47">
         <v>1947</v>
       </c>
-      <c r="S41" s="56">
+      <c r="S41" s="50">
         <v>4521</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="31">
+      <c r="A42" s="27">
         <v>2015</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="24">
         <v>26990</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="F42" s="28">
+      <c r="C42" s="24"/>
+      <c r="F42" s="24">
         <v>47455.199999999997</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="40">
         <v>2495614903.6799998</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H42" s="39">
         <f t="shared" si="2"/>
         <v>5.2588860729277292E-2</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="25">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="J42" s="29"/>
-      <c r="K42" s="59">
+      <c r="J42" s="25"/>
+      <c r="K42" s="53">
         <f t="shared" si="3"/>
         <v>107597</v>
       </c>
-      <c r="L42" s="53">
+      <c r="L42" s="47">
         <v>49631</v>
       </c>
-      <c r="M42" s="56">
+      <c r="M42" s="50">
         <v>57966</v>
       </c>
-      <c r="N42" s="59"/>
-      <c r="O42" s="53">
+      <c r="N42" s="53"/>
+      <c r="O42" s="47">
         <v>12017</v>
       </c>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="59">
+      <c r="P42" s="50"/>
+      <c r="Q42" s="53">
         <f t="shared" si="4"/>
         <v>12017</v>
       </c>
-      <c r="R42" s="53">
+      <c r="R42" s="47">
         <v>2215</v>
       </c>
-      <c r="S42" s="56">
+      <c r="S42" s="50">
         <v>4602</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
+      <c r="A43" s="26">
         <v>2016</v>
       </c>
-      <c r="K43" s="59">
+      <c r="K43" s="53">
         <f t="shared" si="3"/>
         <v>96514</v>
       </c>
-      <c r="L43" s="53">
+      <c r="L43" s="47">
         <v>49307</v>
       </c>
-      <c r="M43" s="56">
+      <c r="M43" s="50">
         <v>47207</v>
       </c>
-      <c r="N43" s="59"/>
-      <c r="O43" s="53">
+      <c r="N43" s="53"/>
+      <c r="O43" s="47">
         <v>11894</v>
       </c>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="56">
+      <c r="P43" s="50"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="50">
         <v>4656</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="31">
+      <c r="A44" s="27">
         <v>2017</v>
       </c>
-      <c r="K44" s="59">
+      <c r="K44" s="53">
         <f t="shared" si="3"/>
         <v>109615</v>
       </c>
-      <c r="L44" s="53">
+      <c r="L44" s="47">
         <v>49425</v>
       </c>
-      <c r="M44" s="56">
+      <c r="M44" s="50">
         <v>60190</v>
       </c>
-      <c r="N44" s="59"/>
-      <c r="O44" s="53">
+      <c r="N44" s="53"/>
+      <c r="O44" s="47">
         <v>11457</v>
       </c>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="56">
+      <c r="P44" s="50"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="50">
         <v>5125</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="31">
+      <c r="A45" s="27">
         <v>2018</v>
       </c>
-      <c r="K45" s="59"/>
-      <c r="L45" s="53">
+      <c r="K45" s="53"/>
+      <c r="L45" s="47">
         <v>48334</v>
       </c>
-      <c r="M45" s="56"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="53">
+      <c r="M45" s="50"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="47">
         <v>11716</v>
       </c>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="56"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
+++ b/FinalProject/Docs/Townes_POLS6310_2019_Spring_FinalProject_Charts_v00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" tabRatio="700" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" tabRatio="700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Charts A" sheetId="2" r:id="rId1"/>
@@ -1532,11 +1532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53444608"/>
-        <c:axId val="53446144"/>
+        <c:axId val="162851072"/>
+        <c:axId val="162852864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53444608"/>
+        <c:axId val="162851072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -1548,13 +1548,13 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53446144"/>
+        <c:crossAx val="162852864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53446144"/>
+        <c:axId val="162852864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,7 +1565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53444608"/>
+        <c:crossAx val="162851072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1840,11 +1840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53474816"/>
-        <c:axId val="53476352"/>
+        <c:axId val="164061184"/>
+        <c:axId val="164062720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53474816"/>
+        <c:axId val="164061184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -1856,12 +1856,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53476352"/>
+        <c:crossAx val="164062720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53476352"/>
+        <c:axId val="164062720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,7 +1872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53474816"/>
+        <c:crossAx val="164061184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2578,11 +2578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53706752"/>
-        <c:axId val="53708672"/>
+        <c:axId val="164100352"/>
+        <c:axId val="164962688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53706752"/>
+        <c:axId val="164100352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -2594,12 +2594,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53708672"/>
+        <c:crossAx val="164962688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53708672"/>
+        <c:axId val="164962688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,7 +2610,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53706752"/>
+        <c:crossAx val="164100352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
@@ -3153,11 +3153,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83049472"/>
-        <c:axId val="83067648"/>
+        <c:axId val="164685312"/>
+        <c:axId val="164686848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83049472"/>
+        <c:axId val="164685312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -3168,14 +3168,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83067648"/>
+        <c:crossAx val="164686848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83067648"/>
+        <c:axId val="164686848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3208,9 +3210,11 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83049472"/>
+        <c:crossAx val="164685312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:ln>
@@ -3275,6 +3279,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3564,11 +3569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83085568"/>
-        <c:axId val="83095936"/>
+        <c:axId val="164743808"/>
+        <c:axId val="164754176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83085568"/>
+        <c:axId val="164743808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -3580,12 +3585,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83095936"/>
+        <c:crossAx val="164754176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83095936"/>
+        <c:axId val="164754176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3596,7 +3601,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83085568"/>
+        <c:crossAx val="164743808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1.0000000000000002E-2"/>
@@ -3604,6 +3609,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5009,7 +5015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8330,11 +8336,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q37" sqref="Q37:Q42"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
